--- a/Revenue_analysis/New XLSX Worksheet.xlsx
+++ b/Revenue_analysis/New XLSX Worksheet.xlsx
@@ -4,10 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Item</t>
   </si>
@@ -91,24 +94,85 @@
   <si>
     <t>50KGS Suck</t>
   </si>
+  <si>
+    <t>G_Printers</t>
+  </si>
+  <si>
+    <t>Clear_Tapes</t>
+  </si>
+  <si>
+    <t>Branded_Tapes</t>
+  </si>
+  <si>
+    <t>A5_Envelopes</t>
+  </si>
+  <si>
+    <t>A4_Envelopes</t>
+  </si>
+  <si>
+    <t>Carto_ Boxes_(Small)</t>
+  </si>
+  <si>
+    <t>Carto_ Boxes_(Medium)</t>
+  </si>
+  <si>
+    <t>Carton_Boxes_(Large)</t>
+  </si>
+  <si>
+    <t>Plastic_Bags_(Medium)</t>
+  </si>
+  <si>
+    <t>Plastic_Bags_(Large)</t>
+  </si>
+  <si>
+    <t>50KGS_Suck</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>standard deviation</t>
+  </si>
+  <si>
+    <t>coefficient of variation</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Orders</t>
+  </si>
+  <si>
+    <t>INFERENTIAL STATISTICS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -275,12 +339,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -593,55 +663,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,81 +723,95 @@
     <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
@@ -786,7 +867,7 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
     <dxf>
       <font>
         <name val="Calibri"/>
@@ -819,6 +900,19 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="58" formatCode="m/d/yyyy"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -856,6 +950,16 @@
     <tableColumn id="11" name="sale share" dataDxfId="3">
       <calculatedColumnFormula>D2/(SUM(C2:E2))</calculatedColumnFormula>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:B24" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" name="Date" dataDxfId="4"/>
+    <tableColumn id="2" name="Orders" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1121,8 +1225,8 @@
   <sheetPr/>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1135,48 +1239,48 @@
     <col min="6" max="6" width="13.6666666666667" customWidth="1"/>
     <col min="7" max="7" width="12.4444444444444" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="15.5555555555556" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.8888888888889" style="1"/>
-    <col min="11" max="11" width="9" style="1"/>
+    <col min="9" max="9" width="15.5555555555556" style="6" customWidth="1"/>
+    <col min="10" max="10" width="12.8888888888889" style="6"/>
+    <col min="11" max="11" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.6" spans="1:11">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:11">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B2">
@@ -1203,21 +1307,21 @@
         <f t="shared" ref="H2:H11" si="2">D2*B2</f>
         <v>4653</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="10">
         <f t="shared" ref="I2:I11" si="3">E2/(SUM(C2:E2))</f>
         <v>0.0454545454545455</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="10">
         <f t="shared" ref="J2:J11" si="4">C2/(SUM(C2:E2))</f>
         <v>0.454545454545455</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="10">
         <f t="shared" ref="K2:K11" si="5">D2/(SUM(C2:E2))</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="1:11">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B3">
@@ -1244,21 +1348,21 @@
         <f t="shared" si="2"/>
         <v>440</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="10">
         <f t="shared" si="3"/>
         <v>0.0454545454545455</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="10">
         <f t="shared" si="4"/>
         <v>0.454545454545455</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="10">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="4" ht="15.6" spans="1:11">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B4">
@@ -1285,21 +1389,21 @@
         <f t="shared" si="2"/>
         <v>975</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="10">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="10">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="5" ht="15.6" spans="1:11">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B5">
@@ -1326,21 +1430,21 @@
         <f t="shared" si="2"/>
         <v>1168</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="10">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="10">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="6" ht="15.6" spans="1:11">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B6">
@@ -1367,21 +1471,21 @@
         <f t="shared" si="2"/>
         <v>1080</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="10">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="10">
         <f t="shared" si="4"/>
         <v>0.45</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="10">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="7" ht="15.6" spans="1:11">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B7">
@@ -1408,21 +1512,21 @@
         <f t="shared" si="2"/>
         <v>2880</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="10">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="10">
         <f t="shared" si="4"/>
         <v>0.45</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="10">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="8" ht="15.6" spans="1:11">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B8">
@@ -1449,21 +1553,21 @@
         <f t="shared" si="2"/>
         <v>2232</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="10">
         <f t="shared" si="3"/>
         <v>0.0416666666666667</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="10">
         <f t="shared" si="4"/>
         <v>0.458333333333333</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="10">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="9" ht="15.6" spans="1:11">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B9">
@@ -1490,21 +1594,21 @@
         <f t="shared" si="2"/>
         <v>54639</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="10">
         <f t="shared" si="3"/>
         <v>0.0384615384615385</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="10">
         <f t="shared" si="4"/>
         <v>0.461538461538462</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="10">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="10" ht="15.6" spans="1:11">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B10">
@@ -1531,21 +1635,21 @@
         <f t="shared" si="2"/>
         <v>1419</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="10">
         <f t="shared" si="3"/>
         <v>0.121212121212121</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="10">
         <f t="shared" si="4"/>
         <v>0.378787878787879</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="10">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="11" ht="15.6" spans="1:11">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B11">
@@ -1572,15 +1676,15 @@
         <f t="shared" si="2"/>
         <v>12750</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="10">
         <f t="shared" si="3"/>
         <v>0.14</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="10">
         <f t="shared" si="4"/>
         <v>0.36</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="10">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
@@ -1592,4 +1696,3154 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L82"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A83" sqref="A83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="20.8888888888889" style="1" customWidth="1"/>
+    <col min="2" max="9" width="15.2222222222222" style="1"/>
+    <col min="10" max="10" width="17.5555555555556" style="1"/>
+    <col min="11" max="12" width="15.2222222222222" style="1"/>
+    <col min="13" max="16384" width="8.88888888888889" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12">
+      <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12">
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4">
+        <v>16</v>
+      </c>
+      <c r="H2" s="4">
+        <v>29</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
+        <v>326</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4">
+        <v>79</v>
+      </c>
+      <c r="K3" s="4">
+        <v>2</v>
+      </c>
+      <c r="L3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4">
+        <v>6</v>
+      </c>
+      <c r="G4" s="4">
+        <v>3</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
+        <v>196</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>200</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2</v>
+      </c>
+      <c r="J6" s="4">
+        <v>155</v>
+      </c>
+      <c r="K6" s="4">
+        <v>10</v>
+      </c>
+      <c r="L6" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>105</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>7</v>
+      </c>
+      <c r="F8" s="4">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4">
+        <v>3</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
+        <v>169</v>
+      </c>
+      <c r="K8" s="4">
+        <v>12</v>
+      </c>
+      <c r="L8" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>7</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
+        <v>47</v>
+      </c>
+      <c r="K9" s="4">
+        <v>2</v>
+      </c>
+      <c r="L9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>3</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>7</v>
+      </c>
+      <c r="F10" s="4">
+        <v>9</v>
+      </c>
+      <c r="G10" s="4">
+        <v>4</v>
+      </c>
+      <c r="H10" s="4">
+        <v>4</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2</v>
+      </c>
+      <c r="J10" s="4">
+        <v>197</v>
+      </c>
+      <c r="K10" s="4">
+        <v>12</v>
+      </c>
+      <c r="L10" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>4</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4">
+        <v>81</v>
+      </c>
+      <c r="K11" s="4">
+        <v>14</v>
+      </c>
+      <c r="L11" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
+        <v>164</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>5</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>79</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>79</v>
+      </c>
+      <c r="K14" s="4">
+        <v>4</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>73</v>
+      </c>
+      <c r="K15" s="4">
+        <v>4</v>
+      </c>
+      <c r="L15" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>21</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>50</v>
+      </c>
+      <c r="K16" s="4">
+        <v>1</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
+      <c r="F17" s="4">
+        <v>3</v>
+      </c>
+      <c r="G17" s="4">
+        <v>4</v>
+      </c>
+      <c r="H17" s="4">
+        <v>2</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>124</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>13</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>3</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>97</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>4</v>
+      </c>
+      <c r="I19" s="4">
+        <v>2</v>
+      </c>
+      <c r="J19" s="4">
+        <v>113</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>12</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>5</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2</v>
+      </c>
+      <c r="G21" s="4">
+        <v>3</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>211</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>2</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>122</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>3</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
+        <v>35</v>
+      </c>
+      <c r="K23" s="4">
+        <v>2</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>3</v>
+      </c>
+      <c r="F24" s="4">
+        <v>5</v>
+      </c>
+      <c r="G24" s="4">
+        <v>3</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>1</v>
+      </c>
+      <c r="J24" s="4">
+        <v>107</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+      <c r="C25" s="4">
+        <v>3</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>8</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>89</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4">
+        <v>3</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>2</v>
+      </c>
+      <c r="F26" s="4">
+        <v>4</v>
+      </c>
+      <c r="G26" s="4">
+        <v>4</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1</v>
+      </c>
+      <c r="J26" s="4">
+        <v>204</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0</v>
+      </c>
+      <c r="L26" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="4">
+        <v>0</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>2</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4">
+        <v>76</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4">
+        <v>3</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>13</v>
+      </c>
+      <c r="F28" s="4">
+        <v>5</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4">
+        <v>3</v>
+      </c>
+      <c r="I28" s="4">
+        <v>1</v>
+      </c>
+      <c r="J28" s="4">
+        <v>141</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0</v>
+      </c>
+      <c r="L28" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
+        <v>47</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <v>10</v>
+      </c>
+      <c r="F30" s="4">
+        <v>7</v>
+      </c>
+      <c r="G30" s="4">
+        <v>3</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4">
+        <v>203</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <v>3</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1</v>
+      </c>
+      <c r="J31" s="4">
+        <v>163</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0</v>
+      </c>
+      <c r="L31" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="B32" s="4">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>9</v>
+      </c>
+      <c r="F32" s="4">
+        <v>4</v>
+      </c>
+      <c r="G32" s="4">
+        <v>3</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="4">
+        <v>2</v>
+      </c>
+      <c r="J32" s="4">
+        <v>102</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0</v>
+      </c>
+      <c r="L32" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12">
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="4">
+        <v>9</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0</v>
+      </c>
+      <c r="J33" s="4">
+        <v>256</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0</v>
+      </c>
+      <c r="L33" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12">
+      <c r="B34" s="4">
+        <v>0</v>
+      </c>
+      <c r="C34" s="4">
+        <v>2</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>2</v>
+      </c>
+      <c r="F34" s="4">
+        <v>7</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4">
+        <v>1</v>
+      </c>
+      <c r="J34" s="4">
+        <v>114</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0</v>
+      </c>
+      <c r="L34" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12">
+      <c r="B35" s="4">
+        <v>0</v>
+      </c>
+      <c r="C35" s="4">
+        <v>2</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4">
+        <v>6</v>
+      </c>
+      <c r="F35" s="4">
+        <v>5</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0</v>
+      </c>
+      <c r="H35" s="4">
+        <v>2</v>
+      </c>
+      <c r="I35" s="4">
+        <v>0</v>
+      </c>
+      <c r="J35" s="4">
+        <v>162</v>
+      </c>
+      <c r="K35" s="4">
+        <v>0</v>
+      </c>
+      <c r="L35" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12">
+      <c r="B36" s="4">
+        <v>1</v>
+      </c>
+      <c r="C36" s="4">
+        <v>2</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4">
+        <v>4</v>
+      </c>
+      <c r="F36" s="4">
+        <v>6</v>
+      </c>
+      <c r="G36" s="4">
+        <v>4</v>
+      </c>
+      <c r="H36" s="4">
+        <v>2</v>
+      </c>
+      <c r="I36" s="4">
+        <v>1</v>
+      </c>
+      <c r="J36" s="4">
+        <v>223</v>
+      </c>
+      <c r="K36" s="4">
+        <v>0</v>
+      </c>
+      <c r="L36" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12">
+      <c r="B37" s="4">
+        <v>0</v>
+      </c>
+      <c r="C37" s="4">
+        <v>1</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
+      <c r="F37" s="4">
+        <v>4</v>
+      </c>
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0</v>
+      </c>
+      <c r="J37" s="4">
+        <v>80</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0</v>
+      </c>
+      <c r="L37" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12">
+      <c r="B38" s="4">
+        <v>1</v>
+      </c>
+      <c r="C38" s="4">
+        <v>2</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4">
+        <v>2</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2</v>
+      </c>
+      <c r="G38" s="4">
+        <v>3</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4">
+        <v>1</v>
+      </c>
+      <c r="J38" s="4">
+        <v>78</v>
+      </c>
+      <c r="K38" s="4">
+        <v>0</v>
+      </c>
+      <c r="L38" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12">
+      <c r="B39" s="4">
+        <v>0</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
+        <v>3</v>
+      </c>
+      <c r="F39" s="4">
+        <v>7</v>
+      </c>
+      <c r="G39" s="4">
+        <v>2</v>
+      </c>
+      <c r="H39" s="4">
+        <v>1</v>
+      </c>
+      <c r="I39" s="4">
+        <v>1</v>
+      </c>
+      <c r="J39" s="4">
+        <v>100</v>
+      </c>
+      <c r="K39" s="4">
+        <v>0</v>
+      </c>
+      <c r="L39" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12">
+      <c r="B40" s="4">
+        <v>1</v>
+      </c>
+      <c r="C40" s="4">
+        <v>1</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4">
+        <v>2</v>
+      </c>
+      <c r="F40" s="4">
+        <v>4</v>
+      </c>
+      <c r="G40" s="4">
+        <v>2</v>
+      </c>
+      <c r="H40" s="4">
+        <v>2</v>
+      </c>
+      <c r="I40" s="4">
+        <v>0</v>
+      </c>
+      <c r="J40" s="4">
+        <v>183</v>
+      </c>
+      <c r="K40" s="4">
+        <v>0</v>
+      </c>
+      <c r="L40" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12">
+      <c r="B41" s="4">
+        <v>0</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>3</v>
+      </c>
+      <c r="F41" s="4">
+        <v>5</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4">
+        <v>2</v>
+      </c>
+      <c r="I41" s="4">
+        <v>0</v>
+      </c>
+      <c r="J41" s="4">
+        <v>45</v>
+      </c>
+      <c r="K41" s="4">
+        <v>0</v>
+      </c>
+      <c r="L41" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12">
+      <c r="B42" s="4">
+        <v>1</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
+        <v>8</v>
+      </c>
+      <c r="F42" s="4">
+        <v>20</v>
+      </c>
+      <c r="G42" s="4">
+        <v>2</v>
+      </c>
+      <c r="H42" s="4">
+        <v>1</v>
+      </c>
+      <c r="I42" s="4">
+        <v>1</v>
+      </c>
+      <c r="J42" s="4">
+        <v>201</v>
+      </c>
+      <c r="K42" s="4">
+        <v>0</v>
+      </c>
+      <c r="L42" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12">
+      <c r="B43" s="4">
+        <v>0</v>
+      </c>
+      <c r="C43" s="4">
+        <v>1</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4">
+        <v>2</v>
+      </c>
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0</v>
+      </c>
+      <c r="J43" s="4">
+        <v>58</v>
+      </c>
+      <c r="K43" s="4">
+        <v>0</v>
+      </c>
+      <c r="L43" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12">
+      <c r="B44" s="4">
+        <v>0</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+      <c r="E44" s="4">
+        <v>4</v>
+      </c>
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0</v>
+      </c>
+      <c r="H44" s="4">
+        <v>2</v>
+      </c>
+      <c r="I44" s="4">
+        <v>0</v>
+      </c>
+      <c r="J44" s="4">
+        <v>212</v>
+      </c>
+      <c r="K44" s="4">
+        <v>0</v>
+      </c>
+      <c r="L44" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12">
+      <c r="B45" s="4">
+        <v>1</v>
+      </c>
+      <c r="C45" s="4">
+        <v>1</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0</v>
+      </c>
+      <c r="E45" s="4">
+        <v>20</v>
+      </c>
+      <c r="F45" s="4">
+        <v>8</v>
+      </c>
+      <c r="G45" s="4">
+        <v>5</v>
+      </c>
+      <c r="H45" s="4">
+        <v>2</v>
+      </c>
+      <c r="I45" s="4">
+        <v>0</v>
+      </c>
+      <c r="J45" s="4">
+        <v>122</v>
+      </c>
+      <c r="K45" s="4">
+        <v>0</v>
+      </c>
+      <c r="L45" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12">
+      <c r="B46" s="4">
+        <v>0</v>
+      </c>
+      <c r="C46" s="4">
+        <v>1</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0</v>
+      </c>
+      <c r="E46" s="4">
+        <v>5</v>
+      </c>
+      <c r="F46" s="4">
+        <v>6</v>
+      </c>
+      <c r="G46" s="4">
+        <v>0</v>
+      </c>
+      <c r="H46" s="4">
+        <v>2</v>
+      </c>
+      <c r="I46" s="4">
+        <v>0</v>
+      </c>
+      <c r="J46" s="4">
+        <v>52</v>
+      </c>
+      <c r="K46" s="4">
+        <v>0</v>
+      </c>
+      <c r="L46" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12">
+      <c r="B47" s="4">
+        <v>1</v>
+      </c>
+      <c r="C47" s="4">
+        <v>3</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0</v>
+      </c>
+      <c r="E47" s="4">
+        <v>7</v>
+      </c>
+      <c r="F47" s="4">
+        <v>6</v>
+      </c>
+      <c r="G47" s="4">
+        <v>2</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0</v>
+      </c>
+      <c r="I47" s="4">
+        <v>2</v>
+      </c>
+      <c r="J47" s="4">
+        <v>163</v>
+      </c>
+      <c r="K47" s="4">
+        <v>0</v>
+      </c>
+      <c r="L47" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12">
+      <c r="B48" s="4">
+        <v>0</v>
+      </c>
+      <c r="C48" s="4">
+        <v>1</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0</v>
+      </c>
+      <c r="E48" s="4">
+        <v>6</v>
+      </c>
+      <c r="F48" s="4">
+        <v>3</v>
+      </c>
+      <c r="G48" s="4">
+        <v>1</v>
+      </c>
+      <c r="H48" s="4">
+        <v>2</v>
+      </c>
+      <c r="I48" s="4">
+        <v>0</v>
+      </c>
+      <c r="J48" s="4">
+        <v>95</v>
+      </c>
+      <c r="K48" s="4">
+        <v>0</v>
+      </c>
+      <c r="L48" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12">
+      <c r="B49" s="4">
+        <v>1</v>
+      </c>
+      <c r="C49" s="4">
+        <v>2</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4">
+        <v>3</v>
+      </c>
+      <c r="F49" s="4">
+        <v>17</v>
+      </c>
+      <c r="G49" s="4">
+        <v>3</v>
+      </c>
+      <c r="H49" s="4">
+        <v>3</v>
+      </c>
+      <c r="I49" s="4">
+        <v>1</v>
+      </c>
+      <c r="J49" s="4">
+        <v>169</v>
+      </c>
+      <c r="K49" s="4">
+        <v>0</v>
+      </c>
+      <c r="L49" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12">
+      <c r="B50" s="4">
+        <v>0</v>
+      </c>
+      <c r="C50" s="4">
+        <v>1</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+      <c r="E50" s="4">
+        <v>5</v>
+      </c>
+      <c r="F50" s="4">
+        <v>2</v>
+      </c>
+      <c r="G50" s="4">
+        <v>2</v>
+      </c>
+      <c r="H50" s="4">
+        <v>3</v>
+      </c>
+      <c r="I50" s="4">
+        <v>3</v>
+      </c>
+      <c r="J50" s="4">
+        <v>88</v>
+      </c>
+      <c r="K50" s="4">
+        <v>0</v>
+      </c>
+      <c r="L50" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12">
+      <c r="B51" s="4">
+        <v>1</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4">
+        <v>4</v>
+      </c>
+      <c r="F51" s="4">
+        <v>2</v>
+      </c>
+      <c r="G51" s="4">
+        <v>1</v>
+      </c>
+      <c r="H51" s="4">
+        <v>1</v>
+      </c>
+      <c r="I51" s="4">
+        <v>2</v>
+      </c>
+      <c r="J51" s="4">
+        <v>89</v>
+      </c>
+      <c r="K51" s="4">
+        <v>0</v>
+      </c>
+      <c r="L51" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12">
+      <c r="B52" s="4">
+        <v>0</v>
+      </c>
+      <c r="C52" s="4">
+        <v>2</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="4">
+        <v>3</v>
+      </c>
+      <c r="F52" s="4">
+        <v>3</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0</v>
+      </c>
+      <c r="I52" s="4">
+        <v>0</v>
+      </c>
+      <c r="J52" s="4">
+        <v>69</v>
+      </c>
+      <c r="K52" s="4">
+        <v>0</v>
+      </c>
+      <c r="L52" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12">
+      <c r="B53" s="4">
+        <v>1</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4">
+        <v>10</v>
+      </c>
+      <c r="F53" s="4">
+        <v>7</v>
+      </c>
+      <c r="G53" s="4">
+        <v>2</v>
+      </c>
+      <c r="H53" s="4">
+        <v>4</v>
+      </c>
+      <c r="I53" s="4">
+        <v>2</v>
+      </c>
+      <c r="J53" s="4">
+        <v>463</v>
+      </c>
+      <c r="K53" s="4">
+        <v>0</v>
+      </c>
+      <c r="L53" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12">
+      <c r="B54" s="4">
+        <v>0</v>
+      </c>
+      <c r="C54" s="4">
+        <v>3</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
+      <c r="E54" s="4">
+        <v>1</v>
+      </c>
+      <c r="F54" s="4">
+        <v>6</v>
+      </c>
+      <c r="G54" s="4">
+        <v>1</v>
+      </c>
+      <c r="H54" s="4">
+        <v>0</v>
+      </c>
+      <c r="I54" s="4">
+        <v>1</v>
+      </c>
+      <c r="J54" s="4">
+        <v>67</v>
+      </c>
+      <c r="K54" s="4">
+        <v>0</v>
+      </c>
+      <c r="L54" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12">
+      <c r="B55" s="4">
+        <v>1</v>
+      </c>
+      <c r="C55" s="4">
+        <v>2</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+      <c r="E55" s="4">
+        <v>5</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0</v>
+      </c>
+      <c r="G55" s="4">
+        <v>3</v>
+      </c>
+      <c r="H55" s="4">
+        <v>2</v>
+      </c>
+      <c r="I55" s="4">
+        <v>3</v>
+      </c>
+      <c r="J55" s="4">
+        <v>42</v>
+      </c>
+      <c r="K55" s="4">
+        <v>0</v>
+      </c>
+      <c r="L55" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12">
+      <c r="B56" s="4">
+        <v>0</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
+      <c r="E56" s="4">
+        <v>12</v>
+      </c>
+      <c r="F56" s="4">
+        <v>0</v>
+      </c>
+      <c r="G56" s="4">
+        <v>3</v>
+      </c>
+      <c r="H56" s="4">
+        <v>2</v>
+      </c>
+      <c r="I56" s="4">
+        <v>0</v>
+      </c>
+      <c r="J56" s="4">
+        <v>149</v>
+      </c>
+      <c r="K56" s="4">
+        <v>0</v>
+      </c>
+      <c r="L56" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12">
+      <c r="B57" s="4">
+        <v>1</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+      <c r="E57" s="4">
+        <v>11</v>
+      </c>
+      <c r="F57" s="4">
+        <v>0</v>
+      </c>
+      <c r="G57" s="4">
+        <v>10</v>
+      </c>
+      <c r="H57" s="4">
+        <v>4</v>
+      </c>
+      <c r="I57" s="4">
+        <v>0</v>
+      </c>
+      <c r="J57" s="4">
+        <v>219</v>
+      </c>
+      <c r="K57" s="4">
+        <v>0</v>
+      </c>
+      <c r="L57" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12">
+      <c r="B58" s="4">
+        <v>0</v>
+      </c>
+      <c r="C58" s="4">
+        <v>1</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4">
+        <v>5</v>
+      </c>
+      <c r="F58" s="4">
+        <v>2</v>
+      </c>
+      <c r="G58" s="4">
+        <v>0</v>
+      </c>
+      <c r="H58" s="4">
+        <v>0</v>
+      </c>
+      <c r="I58" s="4">
+        <v>1</v>
+      </c>
+      <c r="J58" s="4">
+        <v>84</v>
+      </c>
+      <c r="K58" s="4">
+        <v>0</v>
+      </c>
+      <c r="L58" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12">
+      <c r="B59" s="4">
+        <v>1</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
+      <c r="E59" s="4">
+        <v>6</v>
+      </c>
+      <c r="F59" s="4">
+        <v>1</v>
+      </c>
+      <c r="G59" s="4">
+        <v>3</v>
+      </c>
+      <c r="H59" s="4">
+        <v>1</v>
+      </c>
+      <c r="I59" s="4">
+        <v>1</v>
+      </c>
+      <c r="J59" s="4">
+        <v>239</v>
+      </c>
+      <c r="K59" s="4">
+        <v>0</v>
+      </c>
+      <c r="L59" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12">
+      <c r="B60" s="4">
+        <v>0</v>
+      </c>
+      <c r="C60" s="4">
+        <v>0</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+      <c r="E60" s="4">
+        <v>2</v>
+      </c>
+      <c r="F60" s="4">
+        <v>2</v>
+      </c>
+      <c r="G60" s="4">
+        <v>0</v>
+      </c>
+      <c r="H60" s="4">
+        <v>0</v>
+      </c>
+      <c r="I60" s="4">
+        <v>0</v>
+      </c>
+      <c r="J60" s="4">
+        <v>20</v>
+      </c>
+      <c r="K60" s="4">
+        <v>0</v>
+      </c>
+      <c r="L60" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12">
+      <c r="B61" s="4">
+        <v>1</v>
+      </c>
+      <c r="C61" s="4">
+        <v>2</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0</v>
+      </c>
+      <c r="E61" s="4">
+        <v>11</v>
+      </c>
+      <c r="F61" s="4">
+        <v>15</v>
+      </c>
+      <c r="G61" s="4">
+        <v>2</v>
+      </c>
+      <c r="H61" s="4">
+        <v>1</v>
+      </c>
+      <c r="I61" s="4">
+        <v>0</v>
+      </c>
+      <c r="J61" s="4">
+        <v>234</v>
+      </c>
+      <c r="K61" s="4">
+        <v>0</v>
+      </c>
+      <c r="L61" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12">
+      <c r="B62" s="4">
+        <v>0</v>
+      </c>
+      <c r="C62" s="4">
+        <v>2</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0</v>
+      </c>
+      <c r="E62" s="4">
+        <v>2</v>
+      </c>
+      <c r="F62" s="4">
+        <v>9</v>
+      </c>
+      <c r="G62" s="4">
+        <v>0</v>
+      </c>
+      <c r="H62" s="4">
+        <v>1</v>
+      </c>
+      <c r="I62" s="4">
+        <v>1</v>
+      </c>
+      <c r="J62" s="4">
+        <v>72</v>
+      </c>
+      <c r="K62" s="4">
+        <v>0</v>
+      </c>
+      <c r="L62" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12">
+      <c r="B63" s="4">
+        <v>1</v>
+      </c>
+      <c r="C63" s="4">
+        <v>1</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0</v>
+      </c>
+      <c r="F63" s="4">
+        <v>11</v>
+      </c>
+      <c r="G63" s="4">
+        <v>1</v>
+      </c>
+      <c r="H63" s="4">
+        <v>2</v>
+      </c>
+      <c r="I63" s="4">
+        <v>0</v>
+      </c>
+      <c r="J63" s="4">
+        <v>110</v>
+      </c>
+      <c r="K63" s="4">
+        <v>0</v>
+      </c>
+      <c r="L63" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12">
+      <c r="B64" s="4">
+        <v>0</v>
+      </c>
+      <c r="C64" s="4">
+        <v>3</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0</v>
+      </c>
+      <c r="F64" s="4">
+        <v>6</v>
+      </c>
+      <c r="G64" s="4">
+        <v>0</v>
+      </c>
+      <c r="H64" s="4">
+        <v>1</v>
+      </c>
+      <c r="I64" s="4">
+        <v>0</v>
+      </c>
+      <c r="J64" s="4">
+        <v>73</v>
+      </c>
+      <c r="K64" s="4">
+        <v>0</v>
+      </c>
+      <c r="L64" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12">
+      <c r="B65" s="4">
+        <v>1</v>
+      </c>
+      <c r="C65" s="4">
+        <v>1</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
+        <v>4</v>
+      </c>
+      <c r="G65" s="4">
+        <v>0</v>
+      </c>
+      <c r="H65" s="4">
+        <v>0</v>
+      </c>
+      <c r="I65" s="4">
+        <v>1</v>
+      </c>
+      <c r="J65" s="4">
+        <v>213</v>
+      </c>
+      <c r="K65" s="4">
+        <v>0</v>
+      </c>
+      <c r="L65" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12">
+      <c r="B66" s="4">
+        <v>0</v>
+      </c>
+      <c r="C66" s="4">
+        <v>0</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
+      <c r="E66" s="4">
+        <v>3</v>
+      </c>
+      <c r="F66" s="4">
+        <v>7</v>
+      </c>
+      <c r="G66" s="4">
+        <v>0</v>
+      </c>
+      <c r="H66" s="4">
+        <v>1</v>
+      </c>
+      <c r="I66" s="4">
+        <v>0</v>
+      </c>
+      <c r="J66" s="4">
+        <v>82</v>
+      </c>
+      <c r="K66" s="4">
+        <v>0</v>
+      </c>
+      <c r="L66" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12">
+      <c r="B67" s="4">
+        <v>0</v>
+      </c>
+      <c r="C67" s="4">
+        <v>0</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0</v>
+      </c>
+      <c r="E67" s="4">
+        <v>4</v>
+      </c>
+      <c r="F67" s="4">
+        <v>5</v>
+      </c>
+      <c r="G67" s="4">
+        <v>5</v>
+      </c>
+      <c r="H67" s="4">
+        <v>1</v>
+      </c>
+      <c r="I67" s="4">
+        <v>1</v>
+      </c>
+      <c r="J67" s="4">
+        <v>173</v>
+      </c>
+      <c r="K67" s="4">
+        <v>0</v>
+      </c>
+      <c r="L67" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12">
+      <c r="B68" s="4">
+        <v>1</v>
+      </c>
+      <c r="C68" s="4">
+        <v>1</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0</v>
+      </c>
+      <c r="E68" s="4">
+        <v>9</v>
+      </c>
+      <c r="F68" s="4">
+        <v>10</v>
+      </c>
+      <c r="G68" s="4">
+        <v>2</v>
+      </c>
+      <c r="H68" s="4">
+        <v>1</v>
+      </c>
+      <c r="I68" s="4">
+        <v>1</v>
+      </c>
+      <c r="J68" s="4">
+        <v>99</v>
+      </c>
+      <c r="K68" s="4">
+        <v>1</v>
+      </c>
+      <c r="L68" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12">
+      <c r="B69" s="4">
+        <v>0</v>
+      </c>
+      <c r="C69" s="4">
+        <v>2</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0</v>
+      </c>
+      <c r="E69" s="4">
+        <v>0</v>
+      </c>
+      <c r="F69" s="4">
+        <v>0</v>
+      </c>
+      <c r="G69" s="4">
+        <v>0</v>
+      </c>
+      <c r="H69" s="4">
+        <v>0</v>
+      </c>
+      <c r="I69" s="4">
+        <v>0</v>
+      </c>
+      <c r="J69" s="4">
+        <v>10</v>
+      </c>
+      <c r="K69" s="4">
+        <v>1</v>
+      </c>
+      <c r="L69" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12">
+      <c r="B70" s="4">
+        <v>0</v>
+      </c>
+      <c r="C70" s="4">
+        <v>0</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0</v>
+      </c>
+      <c r="E70" s="4">
+        <v>6</v>
+      </c>
+      <c r="F70" s="4">
+        <v>2</v>
+      </c>
+      <c r="G70" s="4">
+        <v>0</v>
+      </c>
+      <c r="H70" s="4">
+        <v>0</v>
+      </c>
+      <c r="I70" s="4">
+        <v>1</v>
+      </c>
+      <c r="J70" s="4">
+        <v>82</v>
+      </c>
+      <c r="K70" s="4">
+        <v>6</v>
+      </c>
+      <c r="L70" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12">
+      <c r="B71" s="4">
+        <v>1</v>
+      </c>
+      <c r="C71" s="4">
+        <v>0</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0</v>
+      </c>
+      <c r="E71" s="4">
+        <v>8</v>
+      </c>
+      <c r="F71" s="4">
+        <v>6</v>
+      </c>
+      <c r="G71" s="4">
+        <v>2</v>
+      </c>
+      <c r="H71" s="4">
+        <v>2</v>
+      </c>
+      <c r="I71" s="4">
+        <v>0</v>
+      </c>
+      <c r="J71" s="4">
+        <v>401</v>
+      </c>
+      <c r="K71" s="4">
+        <v>14</v>
+      </c>
+      <c r="L71" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12">
+      <c r="B72" s="4">
+        <v>0</v>
+      </c>
+      <c r="C72" s="4">
+        <v>1</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0</v>
+      </c>
+      <c r="E72" s="4">
+        <v>1</v>
+      </c>
+      <c r="F72" s="4">
+        <v>4</v>
+      </c>
+      <c r="G72" s="4">
+        <v>2</v>
+      </c>
+      <c r="H72" s="4">
+        <v>1</v>
+      </c>
+      <c r="I72" s="4">
+        <v>0</v>
+      </c>
+      <c r="J72" s="4">
+        <v>60</v>
+      </c>
+      <c r="K72" s="4">
+        <v>1</v>
+      </c>
+      <c r="L72" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12">
+      <c r="B73" s="4">
+        <v>1</v>
+      </c>
+      <c r="C73" s="4">
+        <v>0</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0</v>
+      </c>
+      <c r="E73" s="4">
+        <v>6</v>
+      </c>
+      <c r="F73" s="4">
+        <v>2</v>
+      </c>
+      <c r="G73" s="4">
+        <v>0</v>
+      </c>
+      <c r="H73" s="4">
+        <v>3</v>
+      </c>
+      <c r="I73" s="4">
+        <v>0</v>
+      </c>
+      <c r="J73" s="4">
+        <v>76</v>
+      </c>
+      <c r="K73" s="4">
+        <v>10</v>
+      </c>
+      <c r="L73" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12">
+      <c r="B74" s="4">
+        <v>0</v>
+      </c>
+      <c r="C74" s="4">
+        <v>1</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0</v>
+      </c>
+      <c r="E74" s="4">
+        <v>1</v>
+      </c>
+      <c r="F74" s="4">
+        <v>2</v>
+      </c>
+      <c r="G74" s="4">
+        <v>2</v>
+      </c>
+      <c r="H74" s="4">
+        <v>1</v>
+      </c>
+      <c r="I74" s="4">
+        <v>1</v>
+      </c>
+      <c r="J74" s="4">
+        <v>95</v>
+      </c>
+      <c r="K74" s="4">
+        <v>11</v>
+      </c>
+      <c r="L74" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12">
+      <c r="B75" s="4">
+        <v>1</v>
+      </c>
+      <c r="C75" s="4">
+        <v>0</v>
+      </c>
+      <c r="D75" s="4">
+        <v>0</v>
+      </c>
+      <c r="E75" s="4">
+        <v>1</v>
+      </c>
+      <c r="F75" s="4">
+        <v>0</v>
+      </c>
+      <c r="G75" s="4">
+        <v>2</v>
+      </c>
+      <c r="H75" s="4">
+        <v>1</v>
+      </c>
+      <c r="I75" s="4">
+        <v>0</v>
+      </c>
+      <c r="J75" s="4">
+        <v>159</v>
+      </c>
+      <c r="K75" s="4">
+        <v>9</v>
+      </c>
+      <c r="L75" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12">
+      <c r="B76" s="4">
+        <v>0</v>
+      </c>
+      <c r="C76" s="4">
+        <v>0</v>
+      </c>
+      <c r="D76" s="4">
+        <v>0</v>
+      </c>
+      <c r="E76" s="4">
+        <v>13</v>
+      </c>
+      <c r="F76" s="4">
+        <v>16</v>
+      </c>
+      <c r="G76" s="4">
+        <v>0</v>
+      </c>
+      <c r="H76" s="4">
+        <v>1</v>
+      </c>
+      <c r="I76" s="4">
+        <v>0</v>
+      </c>
+      <c r="J76" s="4">
+        <v>70</v>
+      </c>
+      <c r="K76" s="4">
+        <v>12</v>
+      </c>
+      <c r="L76" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12">
+      <c r="B77" s="4">
+        <v>1</v>
+      </c>
+      <c r="C77" s="4">
+        <v>2</v>
+      </c>
+      <c r="D77" s="4">
+        <v>0</v>
+      </c>
+      <c r="E77" s="4">
+        <v>2</v>
+      </c>
+      <c r="F77" s="4">
+        <v>5</v>
+      </c>
+      <c r="G77" s="4">
+        <v>0</v>
+      </c>
+      <c r="H77" s="4">
+        <v>3</v>
+      </c>
+      <c r="I77" s="4">
+        <v>1</v>
+      </c>
+      <c r="J77" s="4">
+        <v>192</v>
+      </c>
+      <c r="K77" s="4">
+        <v>16</v>
+      </c>
+      <c r="L77" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12">
+      <c r="B78" s="4">
+        <v>0</v>
+      </c>
+      <c r="C78" s="4">
+        <v>0</v>
+      </c>
+      <c r="D78" s="4">
+        <v>0</v>
+      </c>
+      <c r="E78" s="4">
+        <v>0</v>
+      </c>
+      <c r="F78" s="4">
+        <v>3</v>
+      </c>
+      <c r="G78" s="4">
+        <v>0</v>
+      </c>
+      <c r="H78" s="4">
+        <v>2</v>
+      </c>
+      <c r="I78" s="4">
+        <v>1</v>
+      </c>
+      <c r="J78" s="4">
+        <v>100</v>
+      </c>
+      <c r="K78" s="4">
+        <v>0</v>
+      </c>
+      <c r="L78" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B80" s="5">
+        <f>AVERAGE(B2:B78)</f>
+        <v>0.441558441558442</v>
+      </c>
+      <c r="C80" s="5">
+        <f t="shared" ref="C80:L80" si="0">AVERAGE(C2:C78)</f>
+        <v>0.935064935064935</v>
+      </c>
+      <c r="D80" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E80" s="5">
+        <f t="shared" si="0"/>
+        <v>4.90909090909091</v>
+      </c>
+      <c r="F80" s="5">
+        <f t="shared" si="0"/>
+        <v>4.38961038961039</v>
+      </c>
+      <c r="G80" s="5">
+        <f t="shared" si="0"/>
+        <v>1.92207792207792</v>
+      </c>
+      <c r="H80" s="5">
+        <f t="shared" si="0"/>
+        <v>1.5974025974026</v>
+      </c>
+      <c r="I80" s="5">
+        <f t="shared" si="0"/>
+        <v>0.623376623376623</v>
+      </c>
+      <c r="J80" s="5">
+        <f t="shared" si="0"/>
+        <v>128.545454545455</v>
+      </c>
+      <c r="K80" s="5">
+        <f t="shared" si="0"/>
+        <v>2.90909090909091</v>
+      </c>
+      <c r="L80" s="5">
+        <f t="shared" si="0"/>
+        <v>9.14285714285714</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B81" s="5">
+        <f>_xlfn.STDEV.S(B1:B78)</f>
+        <v>0.499829089039615</v>
+      </c>
+      <c r="C81" s="5">
+        <f t="shared" ref="C81:L81" si="1">_xlfn.STDEV.S(C1:C78)</f>
+        <v>1.13945580660315</v>
+      </c>
+      <c r="D81" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E81" s="5">
+        <f t="shared" si="1"/>
+        <v>4.56295673469291</v>
+      </c>
+      <c r="F81" s="5">
+        <f t="shared" si="1"/>
+        <v>4.2678598240553</v>
+      </c>
+      <c r="G81" s="5">
+        <f t="shared" si="1"/>
+        <v>2.54830301514678</v>
+      </c>
+      <c r="H81" s="5">
+        <f t="shared" si="1"/>
+        <v>3.3531593125374</v>
+      </c>
+      <c r="I81" s="5">
+        <f t="shared" si="1"/>
+        <v>0.761559360076434</v>
+      </c>
+      <c r="J81" s="5">
+        <f t="shared" si="1"/>
+        <v>83.2694651583112</v>
+      </c>
+      <c r="K81" s="5">
+        <f t="shared" si="1"/>
+        <v>9.7037456389704</v>
+      </c>
+      <c r="L81" s="5">
+        <f t="shared" si="1"/>
+        <v>7.18498852820072</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B82" s="5">
+        <f>IFERROR(B81/B80,"Null Values")</f>
+        <v>1.13196587811913</v>
+      </c>
+      <c r="C82" s="5">
+        <f t="shared" ref="C82:L82" si="2">IFERROR(C81/C80,"Null Values")</f>
+        <v>1.2185846820617</v>
+      </c>
+      <c r="D82" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>Null Values</v>
+      </c>
+      <c r="E82" s="5">
+        <f t="shared" si="2"/>
+        <v>0.929491186696705</v>
+      </c>
+      <c r="F82" s="5">
+        <f t="shared" si="2"/>
+        <v>0.972263924414966</v>
+      </c>
+      <c r="G82" s="5">
+        <f t="shared" si="2"/>
+        <v>1.32580629842096</v>
+      </c>
+      <c r="H82" s="5">
+        <f t="shared" si="2"/>
+        <v>2.09913225256406</v>
+      </c>
+      <c r="I82" s="5">
+        <f t="shared" si="2"/>
+        <v>1.22166814012261</v>
+      </c>
+      <c r="J82" s="5">
+        <f t="shared" si="2"/>
+        <v>0.647782260778941</v>
+      </c>
+      <c r="K82" s="5">
+        <f t="shared" si="2"/>
+        <v>3.33566256339608</v>
+      </c>
+      <c r="L82" s="5">
+        <f t="shared" si="2"/>
+        <v>0.785858120271954</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="10.2222222222222" style="2"/>
+    <col min="2" max="2" width="10" style="2"/>
+    <col min="3" max="16384" width="8.88888888888889" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3">
+        <v>45414</v>
+      </c>
+      <c r="B2" s="2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3">
+        <v>45415</v>
+      </c>
+      <c r="B3" s="2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3">
+        <v>45416</v>
+      </c>
+      <c r="B4" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3">
+        <v>45418</v>
+      </c>
+      <c r="B5" s="2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3">
+        <v>45419</v>
+      </c>
+      <c r="B6" s="2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3">
+        <v>45420</v>
+      </c>
+      <c r="B7" s="2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3">
+        <v>45421</v>
+      </c>
+      <c r="B8" s="2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3">
+        <v>45422</v>
+      </c>
+      <c r="B9" s="2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3">
+        <v>45425</v>
+      </c>
+      <c r="B10" s="2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3">
+        <v>45426</v>
+      </c>
+      <c r="B11" s="2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3">
+        <v>45427</v>
+      </c>
+      <c r="B12" s="2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3">
+        <v>45428</v>
+      </c>
+      <c r="B13" s="2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3">
+        <v>45429</v>
+      </c>
+      <c r="B14" s="2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3">
+        <v>45430</v>
+      </c>
+      <c r="B15" s="2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3">
+        <v>45432</v>
+      </c>
+      <c r="B16" s="2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3">
+        <v>45433</v>
+      </c>
+      <c r="B17" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3">
+        <v>45434</v>
+      </c>
+      <c r="B18" s="2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3">
+        <v>45435</v>
+      </c>
+      <c r="B19" s="2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3">
+        <v>45439</v>
+      </c>
+      <c r="B20" s="2">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3">
+        <v>45440</v>
+      </c>
+      <c r="B21" s="2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3">
+        <v>45441</v>
+      </c>
+      <c r="B22" s="2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3">
+        <v>45442</v>
+      </c>
+      <c r="B23" s="2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3">
+        <v>45443</v>
+      </c>
+      <c r="B24" s="2">
+        <v>394</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D3:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88888888888889" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:4">
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4">
+      <c r="D4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Revenue_analysis/New XLSX Worksheet.xlsx
+++ b/Revenue_analysis/New XLSX Worksheet.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bency\OneDrive\Documents\Projects\Data_Science\inventory\Revenue_analysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="9107" windowHeight="4787" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9108" windowHeight="4788" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
     <sheet name="Sheet7" sheetId="13" r:id="rId11"/>
     <sheet name="Sheet11" sheetId="14" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -43,7 +48,7 @@
     <author>bency benson</author>
   </authors>
   <commentList>
-    <comment ref="O3" authorId="0">
+    <comment ref="O3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -70,14 +75,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -304,18 +309,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="8">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.0000"/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
-    <numFmt numFmtId="180" formatCode="0.000_ "/>
-    <numFmt numFmtId="181" formatCode="0.00_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0_ "/>
+    <numFmt numFmtId="167" formatCode="0.000_ "/>
+    <numFmt numFmtId="168" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,150 +368,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
@@ -520,8 +378,15 @@
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,194 +399,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="21">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -857,249 +536,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1110,13 +553,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1128,32 +568,29 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="181" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1161,70 +598,50 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
-        <name val="Calibri"/>
-        <scheme val="none"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="12"/>
         <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="none"/>
@@ -1237,42 +654,23 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="58" formatCode="m/d/yyyy"/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1303,11 +701,9 @@
               <a:rPr lang="en-US"/>
               <a:t>Histogram</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1321,20 +717,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Frequency"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Frequency</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Frequency</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet6!$A$2:$A$10</c:f>
@@ -1406,6 +791,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EB67-414A-A07B-8B893CD3FEA9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1446,11 +836,9 @@
                   <a:rPr lang="en-US"/>
                   <a:t>Bin</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1471,6 +859,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1538243855"/>
@@ -1507,11 +896,9 @@
                   <a:rPr lang="en-US"/>
                   <a:t>Frequency</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1532,6 +919,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1538249263"/>
@@ -1541,7 +929,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -1557,6 +944,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1571,6 +959,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1582,9 +971,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1615,11 +1004,9 @@
               <a:rPr lang="en-US"/>
               <a:t>Histogram</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1633,47 +1020,36 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Frequency"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Frequency</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Frequency</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet8!$A$2:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
-                <c:pt idx="0" c:formatCode="0.0000">
+                <c:pt idx="0">
                   <c:v>-1.1011</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="0.0000">
+                <c:pt idx="1">
                   <c:v>-0.4804</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="0.0000">
+                <c:pt idx="2">
                   <c:v>0.1403</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="0.0000">
+                <c:pt idx="3">
                   <c:v>0.7611</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="0.0000">
+                <c:pt idx="4">
                   <c:v>1.3818</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="0.0000">
+                <c:pt idx="5">
                   <c:v>2.0025</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="0.0000">
+                <c:pt idx="6">
                   <c:v>2.6232</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="0.0000">
+                <c:pt idx="7">
                   <c:v>3.2439</c:v>
                 </c:pt>
                 <c:pt idx="8">
@@ -1718,6 +1094,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CE75-4059-9CA9-0E9B46CD29FE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1758,11 +1139,9 @@
                   <a:rPr lang="en-US"/>
                   <a:t>Bin</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1783,6 +1162,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1525618191"/>
@@ -1819,11 +1199,9 @@
                   <a:rPr lang="en-US"/>
                   <a:t>Frequency</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1844,6 +1222,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1525621935"/>
@@ -1853,7 +1232,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -1869,6 +1247,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1883,6 +1262,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1894,9 +1274,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1927,11 +1307,9 @@
               <a:rPr lang="en-US"/>
               <a:t>Histogram</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1945,50 +1323,39 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Frequency"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Frequency</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Frequency</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet9!$C$2:$C$10</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
-                <c:pt idx="0" c:formatCode="0.0000">
+                <c:pt idx="0">
                   <c:v>-0.4804</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="0.0000">
+                <c:pt idx="1">
                   <c:v>0.1403</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="0.0000">
+                <c:pt idx="2">
                   <c:v>0.7611</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="0.0000">
+                <c:pt idx="3">
                   <c:v>1.3818</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="0.0000">
+                <c:pt idx="4">
                   <c:v>-1.1011</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="0.0000">
+                <c:pt idx="5">
                   <c:v>3.2439</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="0.0000">
+                <c:pt idx="6">
                   <c:v>2.0025</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="0.0000">
+                <c:pt idx="7">
                   <c:v>2.6232</c:v>
                 </c:pt>
-                <c:pt idx="8" c:formatCode="0.0000">
+                <c:pt idx="8">
                   <c:v>More</c:v>
                 </c:pt>
               </c:strCache>
@@ -2030,6 +1397,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-67F1-4F95-ACE9-81779511E99C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2070,11 +1442,9 @@
                   <a:rPr lang="en-US"/>
                   <a:t>Bin</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2095,6 +1465,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1538242191"/>
@@ -2131,11 +1502,9 @@
                   <a:rPr lang="en-US"/>
                   <a:t>Frequency</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2156,6 +1525,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1538241359"/>
@@ -2165,7 +1535,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -2181,6 +1550,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2195,6 +1565,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2206,9 +1577,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2239,11 +1610,9 @@
               <a:rPr lang="en-US"/>
               <a:t>Histogram</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2257,47 +1626,36 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Frequency"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Frequency</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Frequency</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet10!$A$2:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
-                <c:pt idx="0" c:formatCode="0.0000">
+                <c:pt idx="0">
                   <c:v>-1.1011</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="0.0000">
+                <c:pt idx="1">
                   <c:v>-0.4804</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="0.0000">
+                <c:pt idx="2">
                   <c:v>0.1403</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="0.0000">
+                <c:pt idx="3">
                   <c:v>0.7611</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="0.0000">
+                <c:pt idx="4">
                   <c:v>1.3818</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="0.0000">
+                <c:pt idx="5">
                   <c:v>2.0025</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="0.0000">
+                <c:pt idx="6">
                   <c:v>2.6232</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="0.0000">
+                <c:pt idx="7">
                   <c:v>3.2439</c:v>
                 </c:pt>
                 <c:pt idx="8">
@@ -2342,6 +1700,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1996-40EF-9C6F-48A9A4FEE753}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2362,46 +1725,35 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>"Cumulative %"</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cumulative %</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Cumulative %</c:v>
           </c:tx>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet10!$A$2:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
-                <c:pt idx="0" c:formatCode="0.0000">
+                <c:pt idx="0">
                   <c:v>-1.1011</c:v>
                 </c:pt>
-                <c:pt idx="1" c:formatCode="0.0000">
+                <c:pt idx="1">
                   <c:v>-0.4804</c:v>
                 </c:pt>
-                <c:pt idx="2" c:formatCode="0.0000">
+                <c:pt idx="2">
                   <c:v>0.1403</c:v>
                 </c:pt>
-                <c:pt idx="3" c:formatCode="0.0000">
+                <c:pt idx="3">
                   <c:v>0.7611</c:v>
                 </c:pt>
-                <c:pt idx="4" c:formatCode="0.0000">
+                <c:pt idx="4">
                   <c:v>1.3818</c:v>
                 </c:pt>
-                <c:pt idx="5" c:formatCode="0.0000">
+                <c:pt idx="5">
                   <c:v>2.0025</c:v>
                 </c:pt>
-                <c:pt idx="6" c:formatCode="0.0000">
+                <c:pt idx="6">
                   <c:v>2.6232</c:v>
                 </c:pt>
-                <c:pt idx="7" c:formatCode="0.0000">
+                <c:pt idx="7">
                   <c:v>3.2439</c:v>
                 </c:pt>
                 <c:pt idx="8">
@@ -2417,25 +1769,25 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.0434782608695652</c:v>
+                  <c:v>4.3478260869565202E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.434782608695652</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.652173913043478</c:v>
+                  <c:v>0.65217391304347805</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.826086956521739</c:v>
+                  <c:v>0.82608695652173902</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.956521739130435</c:v>
+                  <c:v>0.95652173913043503</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.956521739130435</c:v>
+                  <c:v>0.95652173913043503</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.956521739130435</c:v>
+                  <c:v>0.95652173913043503</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
@@ -2447,6 +1799,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1996-40EF-9C6F-48A9A4FEE753}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2488,11 +1845,9 @@
                   <a:rPr lang="en-US"/>
                   <a:t>Bin</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2513,6 +1868,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1525233087"/>
@@ -2549,11 +1905,9 @@
                   <a:rPr lang="en-US"/>
                   <a:t>Frequency</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2574,6 +1928,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1525236415"/>
@@ -2591,22 +1946,6 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="1538245519"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -2639,6 +1978,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1525202767"/>
@@ -2648,7 +1988,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -2664,6 +2003,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2678,6 +2018,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2689,7 +2030,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -2703,14 +2044,14 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2110740" y="175260"/>
-        <a:ext cx="4770120" cy="2691765"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2724,7 +2065,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -2738,14 +2079,14 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2110740" y="175260"/>
-        <a:ext cx="3703320" cy="1838325"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2759,7 +2100,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -2773,14 +2114,14 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3345180" y="175260"/>
-        <a:ext cx="3703320" cy="1838325"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2794,7 +2135,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -2808,14 +2149,14 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2727960" y="175260"/>
-        <a:ext cx="3703320" cy="1838325"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2831,7 +2172,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K11" totalsRowShown="0">
   <tableColumns count="11">
-    <tableColumn id="1" name="Item" dataDxfId="0"/>
+    <tableColumn id="1" name="Item" dataDxfId="5"/>
     <tableColumn id="2" name="qty"/>
     <tableColumn id="3" name="cost"/>
     <tableColumn id="4" name="sale"/>
@@ -2845,13 +2186,13 @@
     <tableColumn id="8" name="total_sale">
       <calculatedColumnFormula>D2*B2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="profit_share" dataDxfId="1">
+    <tableColumn id="9" name="profit_share" dataDxfId="4">
       <calculatedColumnFormula>E2/(SUM(C2:E2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="cost share" dataDxfId="2">
+    <tableColumn id="10" name="cost share" dataDxfId="3">
       <calculatedColumnFormula>C2/(SUM(C2:E2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="sale share" dataDxfId="3">
+    <tableColumn id="11" name="sale share" dataDxfId="2">
       <calculatedColumnFormula>D2/(SUM(C2:E2))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2860,10 +2201,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:B24" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:B26" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" name="Date" dataDxfId="4"/>
-    <tableColumn id="2" name="Orders" dataDxfId="5"/>
+    <tableColumn id="1" name="Date" dataDxfId="1"/>
+    <tableColumn id="2" name="Orders" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3121,12 +2462,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3135,56 +2476,56 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="5.66666666666667" customWidth="1"/>
-    <col min="3" max="3" width="6.22222222222222" customWidth="1"/>
-    <col min="4" max="4" width="5.88888888888889" customWidth="1"/>
-    <col min="5" max="5" width="7.33333333333333" customWidth="1"/>
-    <col min="6" max="6" width="13.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="12.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.21875" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="15.5555555555556" style="39" customWidth="1"/>
-    <col min="10" max="10" width="12.8888888888889" style="39"/>
-    <col min="11" max="11" width="9" style="39"/>
+    <col min="9" max="9" width="15.5546875" style="37" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" style="37"/>
+    <col min="11" max="11" width="9" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:11">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="40" t="s">
+    <row r="1" spans="1:11" ht="15.6">
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="41" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="1:11">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:11" ht="15.6">
+      <c r="A2" s="40" t="s">
         <v>11</v>
       </c>
       <c r="B2">
@@ -3211,21 +2552,21 @@
         <f t="shared" ref="H2:H11" si="2">D2*B2</f>
         <v>4653</v>
       </c>
-      <c r="I2" s="43">
+      <c r="I2" s="41">
         <f t="shared" ref="I2:I11" si="3">E2/(SUM(C2:E2))</f>
-        <v>0.0454545454545455</v>
-      </c>
-      <c r="J2" s="43">
+        <v>4.5454545454545497E-2</v>
+      </c>
+      <c r="J2" s="41">
         <f t="shared" ref="J2:J11" si="4">C2/(SUM(C2:E2))</f>
-        <v>0.454545454545455</v>
-      </c>
-      <c r="K2" s="43">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="K2" s="41">
         <f t="shared" ref="K2:K11" si="5">D2/(SUM(C2:E2))</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="1:11">
-      <c r="A3" s="42" t="s">
+    <row r="3" spans="1:11" ht="15.6">
+      <c r="A3" s="40" t="s">
         <v>12</v>
       </c>
       <c r="B3">
@@ -3252,21 +2593,21 @@
         <f t="shared" si="2"/>
         <v>440</v>
       </c>
-      <c r="I3" s="43">
+      <c r="I3" s="41">
         <f t="shared" si="3"/>
-        <v>0.0454545454545455</v>
-      </c>
-      <c r="J3" s="43">
+        <v>4.5454545454545497E-2</v>
+      </c>
+      <c r="J3" s="41">
         <f t="shared" si="4"/>
-        <v>0.454545454545455</v>
-      </c>
-      <c r="K3" s="43">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="K3" s="41">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="1:11">
-      <c r="A4" s="42" t="s">
+    <row r="4" spans="1:11" ht="15.6">
+      <c r="A4" s="40" t="s">
         <v>13</v>
       </c>
       <c r="B4">
@@ -3293,21 +2634,21 @@
         <f t="shared" si="2"/>
         <v>975</v>
       </c>
-      <c r="I4" s="43">
+      <c r="I4" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J4" s="43">
+      <c r="J4" s="41">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="K4" s="43">
+      <c r="K4" s="41">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:11">
-      <c r="A5" s="42" t="s">
+    <row r="5" spans="1:11" ht="15.6">
+      <c r="A5" s="40" t="s">
         <v>14</v>
       </c>
       <c r="B5">
@@ -3334,21 +2675,21 @@
         <f t="shared" si="2"/>
         <v>1168</v>
       </c>
-      <c r="I5" s="43">
+      <c r="I5" s="41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J5" s="43">
+      <c r="J5" s="41">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="K5" s="43">
+      <c r="K5" s="41">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="1:11">
-      <c r="A6" s="42" t="s">
+    <row r="6" spans="1:11" ht="15.6">
+      <c r="A6" s="40" t="s">
         <v>15</v>
       </c>
       <c r="B6">
@@ -3375,21 +2716,21 @@
         <f t="shared" si="2"/>
         <v>1080</v>
       </c>
-      <c r="I6" s="43">
+      <c r="I6" s="41">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="J6" s="43">
+      <c r="J6" s="41">
         <f t="shared" si="4"/>
         <v>0.45</v>
       </c>
-      <c r="K6" s="43">
+      <c r="K6" s="41">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="1:11">
-      <c r="A7" s="42" t="s">
+    <row r="7" spans="1:11" ht="15.6">
+      <c r="A7" s="40" t="s">
         <v>16</v>
       </c>
       <c r="B7">
@@ -3416,21 +2757,21 @@
         <f t="shared" si="2"/>
         <v>2880</v>
       </c>
-      <c r="I7" s="43">
+      <c r="I7" s="41">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="J7" s="43">
+      <c r="J7" s="41">
         <f t="shared" si="4"/>
         <v>0.45</v>
       </c>
-      <c r="K7" s="43">
+      <c r="K7" s="41">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="1:11">
-      <c r="A8" s="42" t="s">
+    <row r="8" spans="1:11" ht="15.6">
+      <c r="A8" s="40" t="s">
         <v>17</v>
       </c>
       <c r="B8">
@@ -3457,21 +2798,21 @@
         <f t="shared" si="2"/>
         <v>2232</v>
       </c>
-      <c r="I8" s="43">
+      <c r="I8" s="41">
         <f t="shared" si="3"/>
-        <v>0.0416666666666667</v>
-      </c>
-      <c r="J8" s="43">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="J8" s="41">
         <f t="shared" si="4"/>
-        <v>0.458333333333333</v>
-      </c>
-      <c r="K8" s="43">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="K8" s="41">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="1:11">
-      <c r="A9" s="42" t="s">
+    <row r="9" spans="1:11" ht="15.6">
+      <c r="A9" s="40" t="s">
         <v>18</v>
       </c>
       <c r="B9">
@@ -3498,21 +2839,21 @@
         <f t="shared" si="2"/>
         <v>54639</v>
       </c>
-      <c r="I9" s="43">
+      <c r="I9" s="41">
         <f t="shared" si="3"/>
-        <v>0.0384615384615385</v>
-      </c>
-      <c r="J9" s="43">
+        <v>3.8461538461538498E-2</v>
+      </c>
+      <c r="J9" s="41">
         <f t="shared" si="4"/>
-        <v>0.461538461538462</v>
-      </c>
-      <c r="K9" s="43">
+        <v>0.46153846153846201</v>
+      </c>
+      <c r="K9" s="41">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="1:11">
-      <c r="A10" s="42" t="s">
+    <row r="10" spans="1:11" ht="15.6">
+      <c r="A10" s="40" t="s">
         <v>19</v>
       </c>
       <c r="B10">
@@ -3539,21 +2880,21 @@
         <f t="shared" si="2"/>
         <v>1419</v>
       </c>
-      <c r="I10" s="43">
+      <c r="I10" s="41">
         <f t="shared" si="3"/>
-        <v>0.121212121212121</v>
-      </c>
-      <c r="J10" s="43">
+        <v>0.12121212121212099</v>
+      </c>
+      <c r="J10" s="41">
         <f t="shared" si="4"/>
-        <v>0.378787878787879</v>
-      </c>
-      <c r="K10" s="43">
+        <v>0.37878787878787901</v>
+      </c>
+      <c r="K10" s="41">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="1:11">
-      <c r="A11" s="42" t="s">
+    <row r="11" spans="1:11" ht="15.6">
+      <c r="A11" s="40" t="s">
         <v>20</v>
       </c>
       <c r="B11">
@@ -3580,22 +2921,21 @@
         <f t="shared" si="2"/>
         <v>12750</v>
       </c>
-      <c r="I11" s="43">
+      <c r="I11" s="41">
         <f t="shared" si="3"/>
-        <v>0.14</v>
-      </c>
-      <c r="J11" s="43">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J11" s="41">
         <f t="shared" si="4"/>
         <v>0.36</v>
       </c>
-      <c r="K11" s="43">
+      <c r="K11" s="41">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -3603,57 +2943,48 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F8:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="6" max="6" width="14.1111111111111"/>
-    <col min="7" max="8" width="12.8888888888889"/>
-    <col min="10" max="10" width="14.1111111111111"/>
+    <col min="6" max="6" width="14.109375"/>
+    <col min="7" max="8" width="12.88671875"/>
+    <col min="10" max="10" width="14.109375"/>
   </cols>
   <sheetData>
     <row r="8" spans="6:8">
       <c r="F8">
         <f>_xlfn.NORM.DIST(78,80,2.5/SQRT(40),TRUE())</f>
-        <v>2.100196988011e-7</v>
+        <v>2.1001969880110001E-7</v>
       </c>
       <c r="H8">
         <f>78-80</f>
@@ -3663,32 +2994,32 @@
     <row r="9" spans="6:8">
       <c r="F9">
         <f>NORMSINV(0.025)</f>
-        <v>-1.95996398454005</v>
+        <v>-1.9599639845400501</v>
       </c>
       <c r="H9">
         <f>SQRT(40)</f>
-        <v>6.32455532033676</v>
-      </c>
-    </row>
-    <row r="10" spans="8:8">
+        <v>6.3245553203367599</v>
+      </c>
+    </row>
+    <row r="10" spans="6:8">
       <c r="H10">
         <f>2/H9</f>
         <v>0.316227766016838</v>
       </c>
     </row>
-    <row r="11" spans="8:8">
+    <row r="11" spans="6:8">
       <c r="H11">
         <f>H8/H10</f>
-        <v>-6.32455532033676</v>
-      </c>
-    </row>
-    <row r="13" spans="6:6">
+        <v>-6.3245553203367599</v>
+      </c>
+    </row>
+    <row r="13" spans="6:8">
       <c r="F13">
         <f>STANDARDIZE(78,80,H10)</f>
-        <v>-6.32455532033676</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7">
+        <v>-6.3245553203367599</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10">
       <c r="F17">
         <v>0.15</v>
       </c>
@@ -3697,23 +3028,23 @@
         <v>3.16227766016838</v>
       </c>
     </row>
-    <row r="18" spans="7:7">
+    <row r="18" spans="6:10">
       <c r="G18">
         <f>F17/G17</f>
-        <v>0.0474341649025257</v>
+        <v>4.7434164902525701E-2</v>
       </c>
     </row>
     <row r="19" spans="6:10">
       <c r="F19">
         <f>STANDARDIZE(1.8,2,G18)</f>
-        <v>-4.21637021355784</v>
+        <v>-4.2163702135578403</v>
       </c>
       <c r="J19">
         <f>_xlfn.NORM.S.INV(0.01)</f>
-        <v>-2.32634787404084</v>
-      </c>
-    </row>
-    <row r="22" spans="6:6">
+        <v>-2.3263478740408399</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10">
       <c r="F22" t="e" cm="1">
         <f t="array" ref="F22">_xleta.tdist</f>
         <v>#NAME?</v>
@@ -3721,2757 +3052,2754 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.8888888888889" style="1" customWidth="1"/>
-    <col min="2" max="9" width="15.2222222222222" style="1"/>
-    <col min="10" max="10" width="17.5555555555556" style="1"/>
-    <col min="11" max="12" width="15.2222222222222" style="1"/>
-    <col min="13" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="1" width="20.88671875" style="1" customWidth="1"/>
+    <col min="2" max="9" width="15.21875" style="1"/>
+    <col min="10" max="10" width="17.5546875" style="1"/>
+    <col min="11" max="12" width="15.21875" style="1"/>
+    <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="34" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="2:12">
-      <c r="B2" s="36">
-        <v>0</v>
-      </c>
-      <c r="C2" s="36">
-        <v>2</v>
-      </c>
-      <c r="D2" s="36">
-        <v>0</v>
-      </c>
-      <c r="E2" s="36">
+      <c r="B2" s="34">
+        <v>0</v>
+      </c>
+      <c r="C2" s="34">
+        <v>2</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0</v>
+      </c>
+      <c r="E2" s="34">
         <v>10</v>
       </c>
-      <c r="F2" s="36">
+      <c r="F2" s="34">
         <v>13</v>
       </c>
-      <c r="G2" s="36">
+      <c r="G2" s="34">
         <v>16</v>
       </c>
-      <c r="H2" s="36">
+      <c r="H2" s="34">
         <v>29</v>
       </c>
-      <c r="I2" s="36">
-        <v>0</v>
-      </c>
-      <c r="J2" s="36">
+      <c r="I2" s="34">
+        <v>0</v>
+      </c>
+      <c r="J2" s="34">
         <v>326</v>
       </c>
-      <c r="K2" s="36">
-        <v>0</v>
-      </c>
-      <c r="L2" s="36">
+      <c r="K2" s="34">
+        <v>0</v>
+      </c>
+      <c r="L2" s="34">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="36">
-        <v>0</v>
-      </c>
-      <c r="C3" s="36">
-        <v>0</v>
-      </c>
-      <c r="D3" s="36">
-        <v>0</v>
-      </c>
-      <c r="E3" s="36">
-        <v>2</v>
-      </c>
-      <c r="F3" s="36">
+      <c r="B3" s="34">
+        <v>0</v>
+      </c>
+      <c r="C3" s="34">
+        <v>0</v>
+      </c>
+      <c r="D3" s="34">
+        <v>0</v>
+      </c>
+      <c r="E3" s="34">
+        <v>2</v>
+      </c>
+      <c r="F3" s="34">
         <v>7</v>
       </c>
-      <c r="G3" s="36">
-        <v>2</v>
-      </c>
-      <c r="H3" s="36">
-        <v>1</v>
-      </c>
-      <c r="I3" s="36">
-        <v>1</v>
-      </c>
-      <c r="J3" s="36">
+      <c r="G3" s="34">
+        <v>2</v>
+      </c>
+      <c r="H3" s="34">
+        <v>1</v>
+      </c>
+      <c r="I3" s="34">
+        <v>1</v>
+      </c>
+      <c r="J3" s="34">
         <v>79</v>
       </c>
-      <c r="K3" s="36">
-        <v>2</v>
-      </c>
-      <c r="L3" s="36">
+      <c r="K3" s="34">
+        <v>2</v>
+      </c>
+      <c r="L3" s="34">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="36">
-        <v>1</v>
-      </c>
-      <c r="C4" s="36">
-        <v>0</v>
-      </c>
-      <c r="D4" s="36">
-        <v>0</v>
-      </c>
-      <c r="E4" s="36">
+      <c r="B4" s="34">
+        <v>1</v>
+      </c>
+      <c r="C4" s="34">
+        <v>0</v>
+      </c>
+      <c r="D4" s="34">
+        <v>0</v>
+      </c>
+      <c r="E4" s="34">
         <v>12</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="34">
         <v>6</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="34">
         <v>3</v>
       </c>
-      <c r="H4" s="36">
-        <v>2</v>
-      </c>
-      <c r="I4" s="36">
-        <v>1</v>
-      </c>
-      <c r="J4" s="36">
+      <c r="H4" s="34">
+        <v>2</v>
+      </c>
+      <c r="I4" s="34">
+        <v>1</v>
+      </c>
+      <c r="J4" s="34">
         <v>196</v>
       </c>
-      <c r="K4" s="36">
-        <v>1</v>
-      </c>
-      <c r="L4" s="36">
+      <c r="K4" s="34">
+        <v>1</v>
+      </c>
+      <c r="L4" s="34">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="36">
-        <v>1</v>
-      </c>
-      <c r="C5" s="36">
-        <v>0</v>
-      </c>
-      <c r="D5" s="36">
-        <v>0</v>
-      </c>
-      <c r="E5" s="36">
-        <v>1</v>
-      </c>
-      <c r="F5" s="36">
+      <c r="B5" s="34">
+        <v>1</v>
+      </c>
+      <c r="C5" s="34">
+        <v>0</v>
+      </c>
+      <c r="D5" s="34">
+        <v>0</v>
+      </c>
+      <c r="E5" s="34">
+        <v>1</v>
+      </c>
+      <c r="F5" s="34">
         <v>4</v>
       </c>
-      <c r="G5" s="36">
-        <v>2</v>
-      </c>
-      <c r="H5" s="36">
-        <v>2</v>
-      </c>
-      <c r="I5" s="36">
-        <v>0</v>
-      </c>
-      <c r="J5" s="36">
+      <c r="G5" s="34">
+        <v>2</v>
+      </c>
+      <c r="H5" s="34">
+        <v>2</v>
+      </c>
+      <c r="I5" s="34">
+        <v>0</v>
+      </c>
+      <c r="J5" s="34">
         <v>200</v>
       </c>
-      <c r="K5" s="36">
-        <v>0</v>
-      </c>
-      <c r="L5" s="36">
+      <c r="K5" s="34">
+        <v>0</v>
+      </c>
+      <c r="L5" s="34">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="36">
-        <v>1</v>
-      </c>
-      <c r="C6" s="36">
-        <v>0</v>
-      </c>
-      <c r="D6" s="36">
-        <v>0</v>
-      </c>
-      <c r="E6" s="36">
-        <v>1</v>
-      </c>
-      <c r="F6" s="36">
+      <c r="B6" s="34">
+        <v>1</v>
+      </c>
+      <c r="C6" s="34">
+        <v>0</v>
+      </c>
+      <c r="D6" s="34">
+        <v>0</v>
+      </c>
+      <c r="E6" s="34">
+        <v>1</v>
+      </c>
+      <c r="F6" s="34">
         <v>3</v>
       </c>
-      <c r="G6" s="36">
-        <v>2</v>
-      </c>
-      <c r="H6" s="36">
-        <v>2</v>
-      </c>
-      <c r="I6" s="36">
-        <v>2</v>
-      </c>
-      <c r="J6" s="36">
+      <c r="G6" s="34">
+        <v>2</v>
+      </c>
+      <c r="H6" s="34">
+        <v>2</v>
+      </c>
+      <c r="I6" s="34">
+        <v>2</v>
+      </c>
+      <c r="J6" s="34">
         <v>155</v>
       </c>
-      <c r="K6" s="36">
+      <c r="K6" s="34">
         <v>10</v>
       </c>
-      <c r="L6" s="36">
+      <c r="L6" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="36">
-        <v>0</v>
-      </c>
-      <c r="C7" s="36">
-        <v>0</v>
-      </c>
-      <c r="D7" s="36">
-        <v>0</v>
-      </c>
-      <c r="E7" s="36">
+      <c r="B7" s="34">
+        <v>0</v>
+      </c>
+      <c r="C7" s="34">
+        <v>0</v>
+      </c>
+      <c r="D7" s="34">
+        <v>0</v>
+      </c>
+      <c r="E7" s="34">
         <v>3</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="34">
         <v>10</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="34">
         <v>10</v>
       </c>
-      <c r="H7" s="36">
-        <v>0</v>
-      </c>
-      <c r="I7" s="36">
-        <v>0</v>
-      </c>
-      <c r="J7" s="36">
+      <c r="H7" s="34">
+        <v>0</v>
+      </c>
+      <c r="I7" s="34">
+        <v>0</v>
+      </c>
+      <c r="J7" s="34">
         <v>105</v>
       </c>
-      <c r="K7" s="36">
-        <v>0</v>
-      </c>
-      <c r="L7" s="36">
+      <c r="K7" s="34">
+        <v>0</v>
+      </c>
+      <c r="L7" s="34">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="36">
-        <v>0</v>
-      </c>
-      <c r="C8" s="36">
+      <c r="B8" s="34">
+        <v>0</v>
+      </c>
+      <c r="C8" s="34">
         <v>3</v>
       </c>
-      <c r="D8" s="36">
-        <v>0</v>
-      </c>
-      <c r="E8" s="36">
+      <c r="D8" s="34">
+        <v>0</v>
+      </c>
+      <c r="E8" s="34">
         <v>7</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="34">
         <v>5</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="34">
         <v>3</v>
       </c>
-      <c r="H8" s="36">
-        <v>2</v>
-      </c>
-      <c r="I8" s="36">
-        <v>1</v>
-      </c>
-      <c r="J8" s="36">
+      <c r="H8" s="34">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34">
+        <v>1</v>
+      </c>
+      <c r="J8" s="34">
         <v>169</v>
       </c>
-      <c r="K8" s="36">
+      <c r="K8" s="34">
         <v>12</v>
       </c>
-      <c r="L8" s="36">
+      <c r="L8" s="34">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="36">
-        <v>0</v>
-      </c>
-      <c r="C9" s="36">
-        <v>0</v>
-      </c>
-      <c r="D9" s="36">
-        <v>0</v>
-      </c>
-      <c r="E9" s="36">
-        <v>0</v>
-      </c>
-      <c r="F9" s="36">
+      <c r="B9" s="34">
+        <v>0</v>
+      </c>
+      <c r="C9" s="34">
+        <v>0</v>
+      </c>
+      <c r="D9" s="34">
+        <v>0</v>
+      </c>
+      <c r="E9" s="34">
+        <v>0</v>
+      </c>
+      <c r="F9" s="34">
         <v>7</v>
       </c>
-      <c r="G9" s="36">
-        <v>0</v>
-      </c>
-      <c r="H9" s="36">
-        <v>0</v>
-      </c>
-      <c r="I9" s="36">
-        <v>1</v>
-      </c>
-      <c r="J9" s="36">
+      <c r="G9" s="34">
+        <v>0</v>
+      </c>
+      <c r="H9" s="34">
+        <v>0</v>
+      </c>
+      <c r="I9" s="34">
+        <v>1</v>
+      </c>
+      <c r="J9" s="34">
         <v>47</v>
       </c>
-      <c r="K9" s="36">
-        <v>2</v>
-      </c>
-      <c r="L9" s="36">
+      <c r="K9" s="34">
+        <v>2</v>
+      </c>
+      <c r="L9" s="34">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="36">
-        <v>1</v>
-      </c>
-      <c r="C10" s="36">
+      <c r="B10" s="34">
+        <v>1</v>
+      </c>
+      <c r="C10" s="34">
         <v>3</v>
       </c>
-      <c r="D10" s="36">
-        <v>0</v>
-      </c>
-      <c r="E10" s="36">
+      <c r="D10" s="34">
+        <v>0</v>
+      </c>
+      <c r="E10" s="34">
         <v>7</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="34">
         <v>9</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="34">
         <v>4</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="34">
         <v>4</v>
       </c>
-      <c r="I10" s="36">
-        <v>2</v>
-      </c>
-      <c r="J10" s="36">
+      <c r="I10" s="34">
+        <v>2</v>
+      </c>
+      <c r="J10" s="34">
         <v>197</v>
       </c>
-      <c r="K10" s="36">
+      <c r="K10" s="34">
         <v>12</v>
       </c>
-      <c r="L10" s="36">
+      <c r="L10" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="36">
-        <v>0</v>
-      </c>
-      <c r="C11" s="36">
-        <v>0</v>
-      </c>
-      <c r="D11" s="36">
-        <v>0</v>
-      </c>
-      <c r="E11" s="36">
+      <c r="B11" s="34">
+        <v>0</v>
+      </c>
+      <c r="C11" s="34">
+        <v>0</v>
+      </c>
+      <c r="D11" s="34">
+        <v>0</v>
+      </c>
+      <c r="E11" s="34">
         <v>3</v>
       </c>
-      <c r="F11" s="36">
-        <v>0</v>
-      </c>
-      <c r="G11" s="36">
+      <c r="F11" s="34">
+        <v>0</v>
+      </c>
+      <c r="G11" s="34">
         <v>4</v>
       </c>
-      <c r="H11" s="36">
-        <v>2</v>
-      </c>
-      <c r="I11" s="36">
-        <v>1</v>
-      </c>
-      <c r="J11" s="36">
+      <c r="H11" s="34">
+        <v>2</v>
+      </c>
+      <c r="I11" s="34">
+        <v>1</v>
+      </c>
+      <c r="J11" s="34">
         <v>81</v>
       </c>
-      <c r="K11" s="36">
+      <c r="K11" s="34">
         <v>14</v>
       </c>
-      <c r="L11" s="36">
+      <c r="L11" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="36">
-        <v>1</v>
-      </c>
-      <c r="C12" s="36">
-        <v>1</v>
-      </c>
-      <c r="D12" s="36">
-        <v>0</v>
-      </c>
-      <c r="E12" s="36">
-        <v>1</v>
-      </c>
-      <c r="F12" s="36">
-        <v>1</v>
-      </c>
-      <c r="G12" s="36">
-        <v>2</v>
-      </c>
-      <c r="H12" s="36">
-        <v>1</v>
-      </c>
-      <c r="I12" s="36">
-        <v>1</v>
-      </c>
-      <c r="J12" s="36">
+      <c r="B12" s="34">
+        <v>1</v>
+      </c>
+      <c r="C12" s="34">
+        <v>1</v>
+      </c>
+      <c r="D12" s="34">
+        <v>0</v>
+      </c>
+      <c r="E12" s="34">
+        <v>1</v>
+      </c>
+      <c r="F12" s="34">
+        <v>1</v>
+      </c>
+      <c r="G12" s="34">
+        <v>2</v>
+      </c>
+      <c r="H12" s="34">
+        <v>1</v>
+      </c>
+      <c r="I12" s="34">
+        <v>1</v>
+      </c>
+      <c r="J12" s="34">
         <v>164</v>
       </c>
-      <c r="K12" s="36">
-        <v>0</v>
-      </c>
-      <c r="L12" s="36">
+      <c r="K12" s="34">
+        <v>0</v>
+      </c>
+      <c r="L12" s="34">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="36">
-        <v>0</v>
-      </c>
-      <c r="C13" s="36">
-        <v>0</v>
-      </c>
-      <c r="D13" s="36">
-        <v>0</v>
-      </c>
-      <c r="E13" s="36">
+      <c r="B13" s="34">
+        <v>0</v>
+      </c>
+      <c r="C13" s="34">
+        <v>0</v>
+      </c>
+      <c r="D13" s="34">
+        <v>0</v>
+      </c>
+      <c r="E13" s="34">
         <v>5</v>
       </c>
-      <c r="F13" s="36">
-        <v>2</v>
-      </c>
-      <c r="G13" s="36">
-        <v>1</v>
-      </c>
-      <c r="H13" s="36">
-        <v>0</v>
-      </c>
-      <c r="I13" s="36">
-        <v>1</v>
-      </c>
-      <c r="J13" s="36">
-        <v>0</v>
-      </c>
-      <c r="K13" s="36">
+      <c r="F13" s="34">
+        <v>2</v>
+      </c>
+      <c r="G13" s="34">
+        <v>1</v>
+      </c>
+      <c r="H13" s="34">
+        <v>0</v>
+      </c>
+      <c r="I13" s="34">
+        <v>1</v>
+      </c>
+      <c r="J13" s="34">
+        <v>0</v>
+      </c>
+      <c r="K13" s="34">
         <v>79</v>
       </c>
-      <c r="L13" s="36">
+      <c r="L13" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="36">
-        <v>0</v>
-      </c>
-      <c r="C14" s="36">
-        <v>0</v>
-      </c>
-      <c r="D14" s="36">
-        <v>0</v>
-      </c>
-      <c r="E14" s="36">
-        <v>0</v>
-      </c>
-      <c r="F14" s="36">
-        <v>0</v>
-      </c>
-      <c r="G14" s="36">
-        <v>0</v>
-      </c>
-      <c r="H14" s="36">
-        <v>0</v>
-      </c>
-      <c r="I14" s="36">
-        <v>0</v>
-      </c>
-      <c r="J14" s="36">
+      <c r="B14" s="34">
+        <v>0</v>
+      </c>
+      <c r="C14" s="34">
+        <v>0</v>
+      </c>
+      <c r="D14" s="34">
+        <v>0</v>
+      </c>
+      <c r="E14" s="34">
+        <v>0</v>
+      </c>
+      <c r="F14" s="34">
+        <v>0</v>
+      </c>
+      <c r="G14" s="34">
+        <v>0</v>
+      </c>
+      <c r="H14" s="34">
+        <v>0</v>
+      </c>
+      <c r="I14" s="34">
+        <v>0</v>
+      </c>
+      <c r="J14" s="34">
         <v>79</v>
       </c>
-      <c r="K14" s="36">
+      <c r="K14" s="34">
         <v>4</v>
       </c>
-      <c r="L14" s="36">
+      <c r="L14" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="36">
-        <v>1</v>
-      </c>
-      <c r="C15" s="36">
+      <c r="B15" s="34">
+        <v>1</v>
+      </c>
+      <c r="C15" s="34">
         <v>5</v>
       </c>
-      <c r="D15" s="36">
-        <v>0</v>
-      </c>
-      <c r="E15" s="36">
-        <v>1</v>
-      </c>
-      <c r="F15" s="36">
-        <v>0</v>
-      </c>
-      <c r="G15" s="36">
-        <v>1</v>
-      </c>
-      <c r="H15" s="36">
-        <v>1</v>
-      </c>
-      <c r="I15" s="36">
-        <v>0</v>
-      </c>
-      <c r="J15" s="36">
+      <c r="D15" s="34">
+        <v>0</v>
+      </c>
+      <c r="E15" s="34">
+        <v>1</v>
+      </c>
+      <c r="F15" s="34">
+        <v>0</v>
+      </c>
+      <c r="G15" s="34">
+        <v>1</v>
+      </c>
+      <c r="H15" s="34">
+        <v>1</v>
+      </c>
+      <c r="I15" s="34">
+        <v>0</v>
+      </c>
+      <c r="J15" s="34">
         <v>73</v>
       </c>
-      <c r="K15" s="36">
+      <c r="K15" s="34">
         <v>4</v>
       </c>
-      <c r="L15" s="36">
+      <c r="L15" s="34">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="36">
-        <v>0</v>
-      </c>
-      <c r="C16" s="36">
-        <v>0</v>
-      </c>
-      <c r="D16" s="36">
-        <v>0</v>
-      </c>
-      <c r="E16" s="36">
+      <c r="B16" s="34">
+        <v>0</v>
+      </c>
+      <c r="C16" s="34">
+        <v>0</v>
+      </c>
+      <c r="D16" s="34">
+        <v>0</v>
+      </c>
+      <c r="E16" s="34">
         <v>21</v>
       </c>
-      <c r="F16" s="36">
-        <v>0</v>
-      </c>
-      <c r="G16" s="36">
-        <v>0</v>
-      </c>
-      <c r="H16" s="36">
-        <v>0</v>
-      </c>
-      <c r="I16" s="36">
-        <v>0</v>
-      </c>
-      <c r="J16" s="36">
+      <c r="F16" s="34">
+        <v>0</v>
+      </c>
+      <c r="G16" s="34">
+        <v>0</v>
+      </c>
+      <c r="H16" s="34">
+        <v>0</v>
+      </c>
+      <c r="I16" s="34">
+        <v>0</v>
+      </c>
+      <c r="J16" s="34">
         <v>50</v>
       </c>
-      <c r="K16" s="36">
-        <v>1</v>
-      </c>
-      <c r="L16" s="36">
+      <c r="K16" s="34">
+        <v>1</v>
+      </c>
+      <c r="L16" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="36">
-        <v>1</v>
-      </c>
-      <c r="C17" s="36">
-        <v>2</v>
-      </c>
-      <c r="D17" s="36">
-        <v>0</v>
-      </c>
-      <c r="E17" s="36">
-        <v>2</v>
-      </c>
-      <c r="F17" s="36">
+      <c r="B17" s="34">
+        <v>1</v>
+      </c>
+      <c r="C17" s="34">
+        <v>2</v>
+      </c>
+      <c r="D17" s="34">
+        <v>0</v>
+      </c>
+      <c r="E17" s="34">
+        <v>2</v>
+      </c>
+      <c r="F17" s="34">
         <v>3</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="34">
         <v>4</v>
       </c>
-      <c r="H17" s="36">
-        <v>2</v>
-      </c>
-      <c r="I17" s="36">
-        <v>0</v>
-      </c>
-      <c r="J17" s="36">
+      <c r="H17" s="34">
+        <v>2</v>
+      </c>
+      <c r="I17" s="34">
+        <v>0</v>
+      </c>
+      <c r="J17" s="34">
         <v>124</v>
       </c>
-      <c r="K17" s="36">
-        <v>0</v>
-      </c>
-      <c r="L17" s="36">
+      <c r="K17" s="34">
+        <v>0</v>
+      </c>
+      <c r="L17" s="34">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="36">
-        <v>0</v>
-      </c>
-      <c r="C18" s="36">
-        <v>0</v>
-      </c>
-      <c r="D18" s="36">
-        <v>0</v>
-      </c>
-      <c r="E18" s="36">
+      <c r="B18" s="34">
+        <v>0</v>
+      </c>
+      <c r="C18" s="34">
+        <v>0</v>
+      </c>
+      <c r="D18" s="34">
+        <v>0</v>
+      </c>
+      <c r="E18" s="34">
         <v>13</v>
       </c>
-      <c r="F18" s="36">
-        <v>1</v>
-      </c>
-      <c r="G18" s="36">
+      <c r="F18" s="34">
+        <v>1</v>
+      </c>
+      <c r="G18" s="34">
         <v>3</v>
       </c>
-      <c r="H18" s="36">
-        <v>1</v>
-      </c>
-      <c r="I18" s="36">
-        <v>0</v>
-      </c>
-      <c r="J18" s="36">
+      <c r="H18" s="34">
+        <v>1</v>
+      </c>
+      <c r="I18" s="34">
+        <v>0</v>
+      </c>
+      <c r="J18" s="34">
         <v>97</v>
       </c>
-      <c r="K18" s="36">
-        <v>0</v>
-      </c>
-      <c r="L18" s="36">
+      <c r="K18" s="34">
+        <v>0</v>
+      </c>
+      <c r="L18" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="36">
-        <v>0</v>
-      </c>
-      <c r="C19" s="36">
-        <v>1</v>
-      </c>
-      <c r="D19" s="36">
-        <v>0</v>
-      </c>
-      <c r="E19" s="36">
-        <v>1</v>
-      </c>
-      <c r="F19" s="36">
-        <v>2</v>
-      </c>
-      <c r="G19" s="36">
-        <v>1</v>
-      </c>
-      <c r="H19" s="36">
+      <c r="B19" s="34">
+        <v>0</v>
+      </c>
+      <c r="C19" s="34">
+        <v>1</v>
+      </c>
+      <c r="D19" s="34">
+        <v>0</v>
+      </c>
+      <c r="E19" s="34">
+        <v>1</v>
+      </c>
+      <c r="F19" s="34">
+        <v>2</v>
+      </c>
+      <c r="G19" s="34">
+        <v>1</v>
+      </c>
+      <c r="H19" s="34">
         <v>4</v>
       </c>
-      <c r="I19" s="36">
-        <v>2</v>
-      </c>
-      <c r="J19" s="36">
+      <c r="I19" s="34">
+        <v>2</v>
+      </c>
+      <c r="J19" s="34">
         <v>113</v>
       </c>
-      <c r="K19" s="36">
-        <v>0</v>
-      </c>
-      <c r="L19" s="36">
+      <c r="K19" s="34">
+        <v>0</v>
+      </c>
+      <c r="L19" s="34">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="36">
-        <v>0</v>
-      </c>
-      <c r="C20" s="36">
-        <v>0</v>
-      </c>
-      <c r="D20" s="36">
-        <v>0</v>
-      </c>
-      <c r="E20" s="36">
+      <c r="B20" s="34">
+        <v>0</v>
+      </c>
+      <c r="C20" s="34">
+        <v>0</v>
+      </c>
+      <c r="D20" s="34">
+        <v>0</v>
+      </c>
+      <c r="E20" s="34">
         <v>12</v>
       </c>
-      <c r="F20" s="36">
-        <v>0</v>
-      </c>
-      <c r="G20" s="36">
-        <v>0</v>
-      </c>
-      <c r="H20" s="36">
-        <v>0</v>
-      </c>
-      <c r="I20" s="36">
-        <v>0</v>
-      </c>
-      <c r="J20" s="36">
-        <v>0</v>
-      </c>
-      <c r="K20" s="36">
-        <v>0</v>
-      </c>
-      <c r="L20" s="36">
+      <c r="F20" s="34">
+        <v>0</v>
+      </c>
+      <c r="G20" s="34">
+        <v>0</v>
+      </c>
+      <c r="H20" s="34">
+        <v>0</v>
+      </c>
+      <c r="I20" s="34">
+        <v>0</v>
+      </c>
+      <c r="J20" s="34">
+        <v>0</v>
+      </c>
+      <c r="K20" s="34">
+        <v>0</v>
+      </c>
+      <c r="L20" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="36">
-        <v>1</v>
-      </c>
-      <c r="C21" s="36">
-        <v>0</v>
-      </c>
-      <c r="D21" s="36">
-        <v>0</v>
-      </c>
-      <c r="E21" s="36">
+      <c r="B21" s="34">
+        <v>1</v>
+      </c>
+      <c r="C21" s="34">
+        <v>0</v>
+      </c>
+      <c r="D21" s="34">
+        <v>0</v>
+      </c>
+      <c r="E21" s="34">
         <v>5</v>
       </c>
-      <c r="F21" s="36">
-        <v>2</v>
-      </c>
-      <c r="G21" s="36">
+      <c r="F21" s="34">
+        <v>2</v>
+      </c>
+      <c r="G21" s="34">
         <v>3</v>
       </c>
-      <c r="H21" s="36">
-        <v>1</v>
-      </c>
-      <c r="I21" s="36">
-        <v>0</v>
-      </c>
-      <c r="J21" s="36">
+      <c r="H21" s="34">
+        <v>1</v>
+      </c>
+      <c r="I21" s="34">
+        <v>0</v>
+      </c>
+      <c r="J21" s="34">
         <v>211</v>
       </c>
-      <c r="K21" s="36">
-        <v>0</v>
-      </c>
-      <c r="L21" s="36">
+      <c r="K21" s="34">
+        <v>0</v>
+      </c>
+      <c r="L21" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="36">
-        <v>0</v>
-      </c>
-      <c r="C22" s="36">
-        <v>0</v>
-      </c>
-      <c r="D22" s="36">
-        <v>0</v>
-      </c>
-      <c r="E22" s="36">
-        <v>2</v>
-      </c>
-      <c r="F22" s="36">
-        <v>0</v>
-      </c>
-      <c r="G22" s="36">
-        <v>0</v>
-      </c>
-      <c r="H22" s="36">
-        <v>1</v>
-      </c>
-      <c r="I22" s="36">
-        <v>0</v>
-      </c>
-      <c r="J22" s="36">
+      <c r="B22" s="34">
+        <v>0</v>
+      </c>
+      <c r="C22" s="34">
+        <v>0</v>
+      </c>
+      <c r="D22" s="34">
+        <v>0</v>
+      </c>
+      <c r="E22" s="34">
+        <v>2</v>
+      </c>
+      <c r="F22" s="34">
+        <v>0</v>
+      </c>
+      <c r="G22" s="34">
+        <v>0</v>
+      </c>
+      <c r="H22" s="34">
+        <v>1</v>
+      </c>
+      <c r="I22" s="34">
+        <v>0</v>
+      </c>
+      <c r="J22" s="34">
         <v>122</v>
       </c>
-      <c r="K22" s="36">
-        <v>0</v>
-      </c>
-      <c r="L22" s="36">
+      <c r="K22" s="34">
+        <v>0</v>
+      </c>
+      <c r="L22" s="34">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="36">
-        <v>0</v>
-      </c>
-      <c r="C23" s="36">
-        <v>0</v>
-      </c>
-      <c r="D23" s="36">
-        <v>0</v>
-      </c>
-      <c r="E23" s="36">
+      <c r="B23" s="34">
+        <v>0</v>
+      </c>
+      <c r="C23" s="34">
+        <v>0</v>
+      </c>
+      <c r="D23" s="34">
+        <v>0</v>
+      </c>
+      <c r="E23" s="34">
         <v>3</v>
       </c>
-      <c r="F23" s="36">
-        <v>2</v>
-      </c>
-      <c r="G23" s="36">
-        <v>0</v>
-      </c>
-      <c r="H23" s="36">
-        <v>0</v>
-      </c>
-      <c r="I23" s="36">
-        <v>0</v>
-      </c>
-      <c r="J23" s="36">
+      <c r="F23" s="34">
+        <v>2</v>
+      </c>
+      <c r="G23" s="34">
+        <v>0</v>
+      </c>
+      <c r="H23" s="34">
+        <v>0</v>
+      </c>
+      <c r="I23" s="34">
+        <v>0</v>
+      </c>
+      <c r="J23" s="34">
         <v>35</v>
       </c>
-      <c r="K23" s="36">
-        <v>2</v>
-      </c>
-      <c r="L23" s="36">
+      <c r="K23" s="34">
+        <v>2</v>
+      </c>
+      <c r="L23" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="36">
-        <v>1</v>
-      </c>
-      <c r="C24" s="36">
-        <v>0</v>
-      </c>
-      <c r="D24" s="36">
-        <v>0</v>
-      </c>
-      <c r="E24" s="36">
+      <c r="B24" s="34">
+        <v>1</v>
+      </c>
+      <c r="C24" s="34">
+        <v>0</v>
+      </c>
+      <c r="D24" s="34">
+        <v>0</v>
+      </c>
+      <c r="E24" s="34">
         <v>3</v>
       </c>
-      <c r="F24" s="36">
+      <c r="F24" s="34">
         <v>5</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="34">
         <v>3</v>
       </c>
-      <c r="H24" s="36">
-        <v>0</v>
-      </c>
-      <c r="I24" s="36">
-        <v>1</v>
-      </c>
-      <c r="J24" s="36">
+      <c r="H24" s="34">
+        <v>0</v>
+      </c>
+      <c r="I24" s="34">
+        <v>1</v>
+      </c>
+      <c r="J24" s="34">
         <v>107</v>
       </c>
-      <c r="K24" s="36">
-        <v>0</v>
-      </c>
-      <c r="L24" s="36">
+      <c r="K24" s="34">
+        <v>0</v>
+      </c>
+      <c r="L24" s="34">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="36">
-        <v>0</v>
-      </c>
-      <c r="C25" s="36">
+      <c r="B25" s="34">
+        <v>0</v>
+      </c>
+      <c r="C25" s="34">
         <v>3</v>
       </c>
-      <c r="D25" s="36">
-        <v>0</v>
-      </c>
-      <c r="E25" s="36">
+      <c r="D25" s="34">
+        <v>0</v>
+      </c>
+      <c r="E25" s="34">
         <v>8</v>
       </c>
-      <c r="F25" s="36">
-        <v>1</v>
-      </c>
-      <c r="G25" s="36">
-        <v>1</v>
-      </c>
-      <c r="H25" s="36">
-        <v>0</v>
-      </c>
-      <c r="I25" s="36">
-        <v>0</v>
-      </c>
-      <c r="J25" s="36">
+      <c r="F25" s="34">
+        <v>1</v>
+      </c>
+      <c r="G25" s="34">
+        <v>1</v>
+      </c>
+      <c r="H25" s="34">
+        <v>0</v>
+      </c>
+      <c r="I25" s="34">
+        <v>0</v>
+      </c>
+      <c r="J25" s="34">
         <v>89</v>
       </c>
-      <c r="K25" s="36">
-        <v>0</v>
-      </c>
-      <c r="L25" s="36">
+      <c r="K25" s="34">
+        <v>0</v>
+      </c>
+      <c r="L25" s="34">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="36">
-        <v>1</v>
-      </c>
-      <c r="C26" s="36">
+      <c r="B26" s="34">
+        <v>1</v>
+      </c>
+      <c r="C26" s="34">
         <v>3</v>
       </c>
-      <c r="D26" s="36">
-        <v>0</v>
-      </c>
-      <c r="E26" s="36">
-        <v>2</v>
-      </c>
-      <c r="F26" s="36">
+      <c r="D26" s="34">
+        <v>0</v>
+      </c>
+      <c r="E26" s="34">
+        <v>2</v>
+      </c>
+      <c r="F26" s="34">
         <v>4</v>
       </c>
-      <c r="G26" s="36">
+      <c r="G26" s="34">
         <v>4</v>
       </c>
-      <c r="H26" s="36">
-        <v>1</v>
-      </c>
-      <c r="I26" s="36">
-        <v>1</v>
-      </c>
-      <c r="J26" s="36">
+      <c r="H26" s="34">
+        <v>1</v>
+      </c>
+      <c r="I26" s="34">
+        <v>1</v>
+      </c>
+      <c r="J26" s="34">
         <v>204</v>
       </c>
-      <c r="K26" s="36">
-        <v>0</v>
-      </c>
-      <c r="L26" s="36">
+      <c r="K26" s="34">
+        <v>0</v>
+      </c>
+      <c r="L26" s="34">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="36">
-        <v>0</v>
-      </c>
-      <c r="C27" s="36">
-        <v>0</v>
-      </c>
-      <c r="D27" s="36">
-        <v>0</v>
-      </c>
-      <c r="E27" s="36">
-        <v>2</v>
-      </c>
-      <c r="F27" s="36">
-        <v>1</v>
-      </c>
-      <c r="G27" s="36">
-        <v>1</v>
-      </c>
-      <c r="H27" s="36">
-        <v>0</v>
-      </c>
-      <c r="I27" s="36">
-        <v>0</v>
-      </c>
-      <c r="J27" s="36">
+      <c r="B27" s="34">
+        <v>0</v>
+      </c>
+      <c r="C27" s="34">
+        <v>0</v>
+      </c>
+      <c r="D27" s="34">
+        <v>0</v>
+      </c>
+      <c r="E27" s="34">
+        <v>2</v>
+      </c>
+      <c r="F27" s="34">
+        <v>1</v>
+      </c>
+      <c r="G27" s="34">
+        <v>1</v>
+      </c>
+      <c r="H27" s="34">
+        <v>0</v>
+      </c>
+      <c r="I27" s="34">
+        <v>0</v>
+      </c>
+      <c r="J27" s="34">
         <v>76</v>
       </c>
-      <c r="K27" s="36">
-        <v>0</v>
-      </c>
-      <c r="L27" s="36">
+      <c r="K27" s="34">
+        <v>0</v>
+      </c>
+      <c r="L27" s="34">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="36">
-        <v>1</v>
-      </c>
-      <c r="C28" s="36">
+      <c r="B28" s="34">
+        <v>1</v>
+      </c>
+      <c r="C28" s="34">
         <v>3</v>
       </c>
-      <c r="D28" s="36">
-        <v>0</v>
-      </c>
-      <c r="E28" s="36">
+      <c r="D28" s="34">
+        <v>0</v>
+      </c>
+      <c r="E28" s="34">
         <v>13</v>
       </c>
-      <c r="F28" s="36">
+      <c r="F28" s="34">
         <v>5</v>
       </c>
-      <c r="G28" s="36">
-        <v>1</v>
-      </c>
-      <c r="H28" s="36">
+      <c r="G28" s="34">
+        <v>1</v>
+      </c>
+      <c r="H28" s="34">
         <v>3</v>
       </c>
-      <c r="I28" s="36">
-        <v>1</v>
-      </c>
-      <c r="J28" s="36">
+      <c r="I28" s="34">
+        <v>1</v>
+      </c>
+      <c r="J28" s="34">
         <v>141</v>
       </c>
-      <c r="K28" s="36">
-        <v>0</v>
-      </c>
-      <c r="L28" s="36">
+      <c r="K28" s="34">
+        <v>0</v>
+      </c>
+      <c r="L28" s="34">
         <v>18</v>
       </c>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="36">
-        <v>0</v>
-      </c>
-      <c r="C29" s="36">
-        <v>0</v>
-      </c>
-      <c r="D29" s="36">
-        <v>0</v>
-      </c>
-      <c r="E29" s="36">
-        <v>1</v>
-      </c>
-      <c r="F29" s="36">
-        <v>0</v>
-      </c>
-      <c r="G29" s="36">
-        <v>0</v>
-      </c>
-      <c r="H29" s="36">
-        <v>1</v>
-      </c>
-      <c r="I29" s="36">
-        <v>0</v>
-      </c>
-      <c r="J29" s="36">
+      <c r="B29" s="34">
+        <v>0</v>
+      </c>
+      <c r="C29" s="34">
+        <v>0</v>
+      </c>
+      <c r="D29" s="34">
+        <v>0</v>
+      </c>
+      <c r="E29" s="34">
+        <v>1</v>
+      </c>
+      <c r="F29" s="34">
+        <v>0</v>
+      </c>
+      <c r="G29" s="34">
+        <v>0</v>
+      </c>
+      <c r="H29" s="34">
+        <v>1</v>
+      </c>
+      <c r="I29" s="34">
+        <v>0</v>
+      </c>
+      <c r="J29" s="34">
         <v>47</v>
       </c>
-      <c r="K29" s="36">
-        <v>0</v>
-      </c>
-      <c r="L29" s="36">
+      <c r="K29" s="34">
+        <v>0</v>
+      </c>
+      <c r="L29" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="36">
-        <v>1</v>
-      </c>
-      <c r="C30" s="36">
-        <v>0</v>
-      </c>
-      <c r="D30" s="36">
-        <v>0</v>
-      </c>
-      <c r="E30" s="36">
+      <c r="B30" s="34">
+        <v>1</v>
+      </c>
+      <c r="C30" s="34">
+        <v>0</v>
+      </c>
+      <c r="D30" s="34">
+        <v>0</v>
+      </c>
+      <c r="E30" s="34">
         <v>10</v>
       </c>
-      <c r="F30" s="36">
+      <c r="F30" s="34">
         <v>7</v>
       </c>
-      <c r="G30" s="36">
+      <c r="G30" s="34">
         <v>3</v>
       </c>
-      <c r="H30" s="36">
-        <v>1</v>
-      </c>
-      <c r="I30" s="36">
-        <v>0</v>
-      </c>
-      <c r="J30" s="36">
+      <c r="H30" s="34">
+        <v>1</v>
+      </c>
+      <c r="I30" s="34">
+        <v>0</v>
+      </c>
+      <c r="J30" s="34">
         <v>203</v>
       </c>
-      <c r="K30" s="36">
-        <v>0</v>
-      </c>
-      <c r="L30" s="36">
+      <c r="K30" s="34">
+        <v>0</v>
+      </c>
+      <c r="L30" s="34">
         <v>16</v>
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="36">
-        <v>0</v>
-      </c>
-      <c r="C31" s="36">
-        <v>1</v>
-      </c>
-      <c r="D31" s="36">
-        <v>0</v>
-      </c>
-      <c r="E31" s="36">
-        <v>0</v>
-      </c>
-      <c r="F31" s="36">
-        <v>0</v>
-      </c>
-      <c r="G31" s="36">
+      <c r="B31" s="34">
+        <v>0</v>
+      </c>
+      <c r="C31" s="34">
+        <v>1</v>
+      </c>
+      <c r="D31" s="34">
+        <v>0</v>
+      </c>
+      <c r="E31" s="34">
+        <v>0</v>
+      </c>
+      <c r="F31" s="34">
+        <v>0</v>
+      </c>
+      <c r="G31" s="34">
         <v>3</v>
       </c>
-      <c r="H31" s="36">
-        <v>1</v>
-      </c>
-      <c r="I31" s="36">
-        <v>1</v>
-      </c>
-      <c r="J31" s="36">
+      <c r="H31" s="34">
+        <v>1</v>
+      </c>
+      <c r="I31" s="34">
+        <v>1</v>
+      </c>
+      <c r="J31" s="34">
         <v>163</v>
       </c>
-      <c r="K31" s="36">
-        <v>0</v>
-      </c>
-      <c r="L31" s="36">
+      <c r="K31" s="34">
+        <v>0</v>
+      </c>
+      <c r="L31" s="34">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="36">
-        <v>1</v>
-      </c>
-      <c r="C32" s="36">
-        <v>0</v>
-      </c>
-      <c r="D32" s="36">
-        <v>0</v>
-      </c>
-      <c r="E32" s="36">
+      <c r="B32" s="34">
+        <v>1</v>
+      </c>
+      <c r="C32" s="34">
+        <v>0</v>
+      </c>
+      <c r="D32" s="34">
+        <v>0</v>
+      </c>
+      <c r="E32" s="34">
         <v>9</v>
       </c>
-      <c r="F32" s="36">
+      <c r="F32" s="34">
         <v>4</v>
       </c>
-      <c r="G32" s="36">
+      <c r="G32" s="34">
         <v>3</v>
       </c>
-      <c r="H32" s="36">
-        <v>0</v>
-      </c>
-      <c r="I32" s="36">
-        <v>2</v>
-      </c>
-      <c r="J32" s="36">
+      <c r="H32" s="34">
+        <v>0</v>
+      </c>
+      <c r="I32" s="34">
+        <v>2</v>
+      </c>
+      <c r="J32" s="34">
         <v>102</v>
       </c>
-      <c r="K32" s="36">
-        <v>0</v>
-      </c>
-      <c r="L32" s="36">
+      <c r="K32" s="34">
+        <v>0</v>
+      </c>
+      <c r="L32" s="34">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="36">
-        <v>1</v>
-      </c>
-      <c r="C33" s="36">
-        <v>1</v>
-      </c>
-      <c r="D33" s="36">
-        <v>0</v>
-      </c>
-      <c r="E33" s="36">
+      <c r="B33" s="34">
+        <v>1</v>
+      </c>
+      <c r="C33" s="34">
+        <v>1</v>
+      </c>
+      <c r="D33" s="34">
+        <v>0</v>
+      </c>
+      <c r="E33" s="34">
         <v>9</v>
       </c>
-      <c r="F33" s="36">
-        <v>0</v>
-      </c>
-      <c r="G33" s="36">
-        <v>0</v>
-      </c>
-      <c r="H33" s="36">
-        <v>1</v>
-      </c>
-      <c r="I33" s="36">
-        <v>0</v>
-      </c>
-      <c r="J33" s="36">
+      <c r="F33" s="34">
+        <v>0</v>
+      </c>
+      <c r="G33" s="34">
+        <v>0</v>
+      </c>
+      <c r="H33" s="34">
+        <v>1</v>
+      </c>
+      <c r="I33" s="34">
+        <v>0</v>
+      </c>
+      <c r="J33" s="34">
         <v>256</v>
       </c>
-      <c r="K33" s="36">
-        <v>0</v>
-      </c>
-      <c r="L33" s="36">
+      <c r="K33" s="34">
+        <v>0</v>
+      </c>
+      <c r="L33" s="34">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="36">
-        <v>0</v>
-      </c>
-      <c r="C34" s="36">
-        <v>2</v>
-      </c>
-      <c r="D34" s="36">
-        <v>0</v>
-      </c>
-      <c r="E34" s="36">
-        <v>2</v>
-      </c>
-      <c r="F34" s="36">
+      <c r="B34" s="34">
+        <v>0</v>
+      </c>
+      <c r="C34" s="34">
+        <v>2</v>
+      </c>
+      <c r="D34" s="34">
+        <v>0</v>
+      </c>
+      <c r="E34" s="34">
+        <v>2</v>
+      </c>
+      <c r="F34" s="34">
         <v>7</v>
       </c>
-      <c r="G34" s="36">
-        <v>0</v>
-      </c>
-      <c r="H34" s="36">
-        <v>0</v>
-      </c>
-      <c r="I34" s="36">
-        <v>1</v>
-      </c>
-      <c r="J34" s="36">
+      <c r="G34" s="34">
+        <v>0</v>
+      </c>
+      <c r="H34" s="34">
+        <v>0</v>
+      </c>
+      <c r="I34" s="34">
+        <v>1</v>
+      </c>
+      <c r="J34" s="34">
         <v>114</v>
       </c>
-      <c r="K34" s="36">
-        <v>0</v>
-      </c>
-      <c r="L34" s="36">
+      <c r="K34" s="34">
+        <v>0</v>
+      </c>
+      <c r="L34" s="34">
         <v>14</v>
       </c>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="36">
-        <v>0</v>
-      </c>
-      <c r="C35" s="36">
-        <v>2</v>
-      </c>
-      <c r="D35" s="36">
-        <v>0</v>
-      </c>
-      <c r="E35" s="36">
+      <c r="B35" s="34">
+        <v>0</v>
+      </c>
+      <c r="C35" s="34">
+        <v>2</v>
+      </c>
+      <c r="D35" s="34">
+        <v>0</v>
+      </c>
+      <c r="E35" s="34">
         <v>6</v>
       </c>
-      <c r="F35" s="36">
+      <c r="F35" s="34">
         <v>5</v>
       </c>
-      <c r="G35" s="36">
-        <v>0</v>
-      </c>
-      <c r="H35" s="36">
-        <v>2</v>
-      </c>
-      <c r="I35" s="36">
-        <v>0</v>
-      </c>
-      <c r="J35" s="36">
+      <c r="G35" s="34">
+        <v>0</v>
+      </c>
+      <c r="H35" s="34">
+        <v>2</v>
+      </c>
+      <c r="I35" s="34">
+        <v>0</v>
+      </c>
+      <c r="J35" s="34">
         <v>162</v>
       </c>
-      <c r="K35" s="36">
-        <v>0</v>
-      </c>
-      <c r="L35" s="36">
+      <c r="K35" s="34">
+        <v>0</v>
+      </c>
+      <c r="L35" s="34">
         <v>10</v>
       </c>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="36">
-        <v>1</v>
-      </c>
-      <c r="C36" s="36">
-        <v>2</v>
-      </c>
-      <c r="D36" s="36">
-        <v>0</v>
-      </c>
-      <c r="E36" s="36">
+      <c r="B36" s="34">
+        <v>1</v>
+      </c>
+      <c r="C36" s="34">
+        <v>2</v>
+      </c>
+      <c r="D36" s="34">
+        <v>0</v>
+      </c>
+      <c r="E36" s="34">
         <v>4</v>
       </c>
-      <c r="F36" s="36">
+      <c r="F36" s="34">
         <v>6</v>
       </c>
-      <c r="G36" s="36">
+      <c r="G36" s="34">
         <v>4</v>
       </c>
-      <c r="H36" s="36">
-        <v>2</v>
-      </c>
-      <c r="I36" s="36">
-        <v>1</v>
-      </c>
-      <c r="J36" s="36">
+      <c r="H36" s="34">
+        <v>2</v>
+      </c>
+      <c r="I36" s="34">
+        <v>1</v>
+      </c>
+      <c r="J36" s="34">
         <v>223</v>
       </c>
-      <c r="K36" s="36">
-        <v>0</v>
-      </c>
-      <c r="L36" s="36">
+      <c r="K36" s="34">
+        <v>0</v>
+      </c>
+      <c r="L36" s="34">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="36">
-        <v>0</v>
-      </c>
-      <c r="C37" s="36">
-        <v>1</v>
-      </c>
-      <c r="D37" s="36">
-        <v>0</v>
-      </c>
-      <c r="E37" s="36">
-        <v>1</v>
-      </c>
-      <c r="F37" s="36">
+      <c r="B37" s="34">
+        <v>0</v>
+      </c>
+      <c r="C37" s="34">
+        <v>1</v>
+      </c>
+      <c r="D37" s="34">
+        <v>0</v>
+      </c>
+      <c r="E37" s="34">
+        <v>1</v>
+      </c>
+      <c r="F37" s="34">
         <v>4</v>
       </c>
-      <c r="G37" s="36">
-        <v>0</v>
-      </c>
-      <c r="H37" s="36">
-        <v>0</v>
-      </c>
-      <c r="I37" s="36">
-        <v>0</v>
-      </c>
-      <c r="J37" s="36">
+      <c r="G37" s="34">
+        <v>0</v>
+      </c>
+      <c r="H37" s="34">
+        <v>0</v>
+      </c>
+      <c r="I37" s="34">
+        <v>0</v>
+      </c>
+      <c r="J37" s="34">
         <v>80</v>
       </c>
-      <c r="K37" s="36">
-        <v>0</v>
-      </c>
-      <c r="L37" s="36">
+      <c r="K37" s="34">
+        <v>0</v>
+      </c>
+      <c r="L37" s="34">
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="36">
-        <v>1</v>
-      </c>
-      <c r="C38" s="36">
-        <v>2</v>
-      </c>
-      <c r="D38" s="36">
-        <v>0</v>
-      </c>
-      <c r="E38" s="36">
-        <v>2</v>
-      </c>
-      <c r="F38" s="36">
-        <v>2</v>
-      </c>
-      <c r="G38" s="36">
+      <c r="B38" s="34">
+        <v>1</v>
+      </c>
+      <c r="C38" s="34">
+        <v>2</v>
+      </c>
+      <c r="D38" s="34">
+        <v>0</v>
+      </c>
+      <c r="E38" s="34">
+        <v>2</v>
+      </c>
+      <c r="F38" s="34">
+        <v>2</v>
+      </c>
+      <c r="G38" s="34">
         <v>3</v>
       </c>
-      <c r="H38" s="36">
-        <v>0</v>
-      </c>
-      <c r="I38" s="36">
-        <v>1</v>
-      </c>
-      <c r="J38" s="36">
+      <c r="H38" s="34">
+        <v>0</v>
+      </c>
+      <c r="I38" s="34">
+        <v>1</v>
+      </c>
+      <c r="J38" s="34">
         <v>78</v>
       </c>
-      <c r="K38" s="36">
-        <v>0</v>
-      </c>
-      <c r="L38" s="36">
+      <c r="K38" s="34">
+        <v>0</v>
+      </c>
+      <c r="L38" s="34">
         <v>11</v>
       </c>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="36">
-        <v>0</v>
-      </c>
-      <c r="C39" s="36">
-        <v>0</v>
-      </c>
-      <c r="D39" s="36">
-        <v>0</v>
-      </c>
-      <c r="E39" s="36">
+      <c r="B39" s="34">
+        <v>0</v>
+      </c>
+      <c r="C39" s="34">
+        <v>0</v>
+      </c>
+      <c r="D39" s="34">
+        <v>0</v>
+      </c>
+      <c r="E39" s="34">
         <v>3</v>
       </c>
-      <c r="F39" s="36">
+      <c r="F39" s="34">
         <v>7</v>
       </c>
-      <c r="G39" s="36">
-        <v>2</v>
-      </c>
-      <c r="H39" s="36">
-        <v>1</v>
-      </c>
-      <c r="I39" s="36">
-        <v>1</v>
-      </c>
-      <c r="J39" s="36">
+      <c r="G39" s="34">
+        <v>2</v>
+      </c>
+      <c r="H39" s="34">
+        <v>1</v>
+      </c>
+      <c r="I39" s="34">
+        <v>1</v>
+      </c>
+      <c r="J39" s="34">
         <v>100</v>
       </c>
-      <c r="K39" s="36">
-        <v>0</v>
-      </c>
-      <c r="L39" s="36">
+      <c r="K39" s="34">
+        <v>0</v>
+      </c>
+      <c r="L39" s="34">
         <v>13</v>
       </c>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="36">
-        <v>1</v>
-      </c>
-      <c r="C40" s="36">
-        <v>1</v>
-      </c>
-      <c r="D40" s="36">
-        <v>0</v>
-      </c>
-      <c r="E40" s="36">
-        <v>2</v>
-      </c>
-      <c r="F40" s="36">
+      <c r="B40" s="34">
+        <v>1</v>
+      </c>
+      <c r="C40" s="34">
+        <v>1</v>
+      </c>
+      <c r="D40" s="34">
+        <v>0</v>
+      </c>
+      <c r="E40" s="34">
+        <v>2</v>
+      </c>
+      <c r="F40" s="34">
         <v>4</v>
       </c>
-      <c r="G40" s="36">
-        <v>2</v>
-      </c>
-      <c r="H40" s="36">
-        <v>2</v>
-      </c>
-      <c r="I40" s="36">
-        <v>0</v>
-      </c>
-      <c r="J40" s="36">
+      <c r="G40" s="34">
+        <v>2</v>
+      </c>
+      <c r="H40" s="34">
+        <v>2</v>
+      </c>
+      <c r="I40" s="34">
+        <v>0</v>
+      </c>
+      <c r="J40" s="34">
         <v>183</v>
       </c>
-      <c r="K40" s="36">
-        <v>0</v>
-      </c>
-      <c r="L40" s="36">
+      <c r="K40" s="34">
+        <v>0</v>
+      </c>
+      <c r="L40" s="34">
         <v>10</v>
       </c>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="36">
-        <v>0</v>
-      </c>
-      <c r="C41" s="36">
-        <v>0</v>
-      </c>
-      <c r="D41" s="36">
-        <v>0</v>
-      </c>
-      <c r="E41" s="36">
+      <c r="B41" s="34">
+        <v>0</v>
+      </c>
+      <c r="C41" s="34">
+        <v>0</v>
+      </c>
+      <c r="D41" s="34">
+        <v>0</v>
+      </c>
+      <c r="E41" s="34">
         <v>3</v>
       </c>
-      <c r="F41" s="36">
+      <c r="F41" s="34">
         <v>5</v>
       </c>
-      <c r="G41" s="36">
-        <v>1</v>
-      </c>
-      <c r="H41" s="36">
-        <v>2</v>
-      </c>
-      <c r="I41" s="36">
-        <v>0</v>
-      </c>
-      <c r="J41" s="36">
+      <c r="G41" s="34">
+        <v>1</v>
+      </c>
+      <c r="H41" s="34">
+        <v>2</v>
+      </c>
+      <c r="I41" s="34">
+        <v>0</v>
+      </c>
+      <c r="J41" s="34">
         <v>45</v>
       </c>
-      <c r="K41" s="36">
-        <v>0</v>
-      </c>
-      <c r="L41" s="36">
+      <c r="K41" s="34">
+        <v>0</v>
+      </c>
+      <c r="L41" s="34">
         <v>5</v>
       </c>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="36">
-        <v>1</v>
-      </c>
-      <c r="C42" s="36">
-        <v>0</v>
-      </c>
-      <c r="D42" s="36">
-        <v>0</v>
-      </c>
-      <c r="E42" s="36">
+      <c r="B42" s="34">
+        <v>1</v>
+      </c>
+      <c r="C42" s="34">
+        <v>0</v>
+      </c>
+      <c r="D42" s="34">
+        <v>0</v>
+      </c>
+      <c r="E42" s="34">
         <v>8</v>
       </c>
-      <c r="F42" s="36">
+      <c r="F42" s="34">
         <v>20</v>
       </c>
-      <c r="G42" s="36">
-        <v>2</v>
-      </c>
-      <c r="H42" s="36">
-        <v>1</v>
-      </c>
-      <c r="I42" s="36">
-        <v>1</v>
-      </c>
-      <c r="J42" s="36">
+      <c r="G42" s="34">
+        <v>2</v>
+      </c>
+      <c r="H42" s="34">
+        <v>1</v>
+      </c>
+      <c r="I42" s="34">
+        <v>1</v>
+      </c>
+      <c r="J42" s="34">
         <v>201</v>
       </c>
-      <c r="K42" s="36">
-        <v>0</v>
-      </c>
-      <c r="L42" s="36">
+      <c r="K42" s="34">
+        <v>0</v>
+      </c>
+      <c r="L42" s="34">
         <v>17</v>
       </c>
     </row>
     <row r="43" spans="2:12">
-      <c r="B43" s="36">
-        <v>0</v>
-      </c>
-      <c r="C43" s="36">
-        <v>1</v>
-      </c>
-      <c r="D43" s="36">
-        <v>0</v>
-      </c>
-      <c r="E43" s="36">
-        <v>2</v>
-      </c>
-      <c r="F43" s="36">
-        <v>1</v>
-      </c>
-      <c r="G43" s="36">
-        <v>0</v>
-      </c>
-      <c r="H43" s="36">
-        <v>0</v>
-      </c>
-      <c r="I43" s="36">
-        <v>0</v>
-      </c>
-      <c r="J43" s="36">
+      <c r="B43" s="34">
+        <v>0</v>
+      </c>
+      <c r="C43" s="34">
+        <v>1</v>
+      </c>
+      <c r="D43" s="34">
+        <v>0</v>
+      </c>
+      <c r="E43" s="34">
+        <v>2</v>
+      </c>
+      <c r="F43" s="34">
+        <v>1</v>
+      </c>
+      <c r="G43" s="34">
+        <v>0</v>
+      </c>
+      <c r="H43" s="34">
+        <v>0</v>
+      </c>
+      <c r="I43" s="34">
+        <v>0</v>
+      </c>
+      <c r="J43" s="34">
         <v>58</v>
       </c>
-      <c r="K43" s="36">
-        <v>0</v>
-      </c>
-      <c r="L43" s="36">
+      <c r="K43" s="34">
+        <v>0</v>
+      </c>
+      <c r="L43" s="34">
         <v>7</v>
       </c>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="36">
-        <v>0</v>
-      </c>
-      <c r="C44" s="36">
-        <v>0</v>
-      </c>
-      <c r="D44" s="36">
-        <v>0</v>
-      </c>
-      <c r="E44" s="36">
+      <c r="B44" s="34">
+        <v>0</v>
+      </c>
+      <c r="C44" s="34">
+        <v>0</v>
+      </c>
+      <c r="D44" s="34">
+        <v>0</v>
+      </c>
+      <c r="E44" s="34">
         <v>4</v>
       </c>
-      <c r="F44" s="36">
-        <v>1</v>
-      </c>
-      <c r="G44" s="36">
-        <v>0</v>
-      </c>
-      <c r="H44" s="36">
-        <v>2</v>
-      </c>
-      <c r="I44" s="36">
-        <v>0</v>
-      </c>
-      <c r="J44" s="36">
+      <c r="F44" s="34">
+        <v>1</v>
+      </c>
+      <c r="G44" s="34">
+        <v>0</v>
+      </c>
+      <c r="H44" s="34">
+        <v>2</v>
+      </c>
+      <c r="I44" s="34">
+        <v>0</v>
+      </c>
+      <c r="J44" s="34">
         <v>212</v>
       </c>
-      <c r="K44" s="36">
-        <v>0</v>
-      </c>
-      <c r="L44" s="36">
+      <c r="K44" s="34">
+        <v>0</v>
+      </c>
+      <c r="L44" s="34">
         <v>11</v>
       </c>
     </row>
     <row r="45" spans="2:12">
-      <c r="B45" s="36">
-        <v>1</v>
-      </c>
-      <c r="C45" s="36">
-        <v>1</v>
-      </c>
-      <c r="D45" s="36">
-        <v>0</v>
-      </c>
-      <c r="E45" s="36">
+      <c r="B45" s="34">
+        <v>1</v>
+      </c>
+      <c r="C45" s="34">
+        <v>1</v>
+      </c>
+      <c r="D45" s="34">
+        <v>0</v>
+      </c>
+      <c r="E45" s="34">
         <v>20</v>
       </c>
-      <c r="F45" s="36">
+      <c r="F45" s="34">
         <v>8</v>
       </c>
-      <c r="G45" s="36">
+      <c r="G45" s="34">
         <v>5</v>
       </c>
-      <c r="H45" s="36">
-        <v>2</v>
-      </c>
-      <c r="I45" s="36">
-        <v>0</v>
-      </c>
-      <c r="J45" s="36">
+      <c r="H45" s="34">
+        <v>2</v>
+      </c>
+      <c r="I45" s="34">
+        <v>0</v>
+      </c>
+      <c r="J45" s="34">
         <v>122</v>
       </c>
-      <c r="K45" s="36">
-        <v>0</v>
-      </c>
-      <c r="L45" s="36">
+      <c r="K45" s="34">
+        <v>0</v>
+      </c>
+      <c r="L45" s="34">
         <v>13</v>
       </c>
     </row>
     <row r="46" spans="2:12">
-      <c r="B46" s="36">
-        <v>0</v>
-      </c>
-      <c r="C46" s="36">
-        <v>1</v>
-      </c>
-      <c r="D46" s="36">
-        <v>0</v>
-      </c>
-      <c r="E46" s="36">
+      <c r="B46" s="34">
+        <v>0</v>
+      </c>
+      <c r="C46" s="34">
+        <v>1</v>
+      </c>
+      <c r="D46" s="34">
+        <v>0</v>
+      </c>
+      <c r="E46" s="34">
         <v>5</v>
       </c>
-      <c r="F46" s="36">
+      <c r="F46" s="34">
         <v>6</v>
       </c>
-      <c r="G46" s="36">
-        <v>0</v>
-      </c>
-      <c r="H46" s="36">
-        <v>2</v>
-      </c>
-      <c r="I46" s="36">
-        <v>0</v>
-      </c>
-      <c r="J46" s="36">
+      <c r="G46" s="34">
+        <v>0</v>
+      </c>
+      <c r="H46" s="34">
+        <v>2</v>
+      </c>
+      <c r="I46" s="34">
+        <v>0</v>
+      </c>
+      <c r="J46" s="34">
         <v>52</v>
       </c>
-      <c r="K46" s="36">
-        <v>0</v>
-      </c>
-      <c r="L46" s="36">
+      <c r="K46" s="34">
+        <v>0</v>
+      </c>
+      <c r="L46" s="34">
         <v>9</v>
       </c>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="36">
-        <v>1</v>
-      </c>
-      <c r="C47" s="36">
+      <c r="B47" s="34">
+        <v>1</v>
+      </c>
+      <c r="C47" s="34">
         <v>3</v>
       </c>
-      <c r="D47" s="36">
-        <v>0</v>
-      </c>
-      <c r="E47" s="36">
+      <c r="D47" s="34">
+        <v>0</v>
+      </c>
+      <c r="E47" s="34">
         <v>7</v>
       </c>
-      <c r="F47" s="36">
+      <c r="F47" s="34">
         <v>6</v>
       </c>
-      <c r="G47" s="36">
-        <v>2</v>
-      </c>
-      <c r="H47" s="36">
-        <v>0</v>
-      </c>
-      <c r="I47" s="36">
-        <v>2</v>
-      </c>
-      <c r="J47" s="36">
+      <c r="G47" s="34">
+        <v>2</v>
+      </c>
+      <c r="H47" s="34">
+        <v>0</v>
+      </c>
+      <c r="I47" s="34">
+        <v>2</v>
+      </c>
+      <c r="J47" s="34">
         <v>163</v>
       </c>
-      <c r="K47" s="36">
-        <v>0</v>
-      </c>
-      <c r="L47" s="36">
+      <c r="K47" s="34">
+        <v>0</v>
+      </c>
+      <c r="L47" s="34">
         <v>19</v>
       </c>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="36">
-        <v>0</v>
-      </c>
-      <c r="C48" s="36">
-        <v>1</v>
-      </c>
-      <c r="D48" s="36">
-        <v>0</v>
-      </c>
-      <c r="E48" s="36">
+      <c r="B48" s="34">
+        <v>0</v>
+      </c>
+      <c r="C48" s="34">
+        <v>1</v>
+      </c>
+      <c r="D48" s="34">
+        <v>0</v>
+      </c>
+      <c r="E48" s="34">
         <v>6</v>
       </c>
-      <c r="F48" s="36">
+      <c r="F48" s="34">
         <v>3</v>
       </c>
-      <c r="G48" s="36">
-        <v>1</v>
-      </c>
-      <c r="H48" s="36">
-        <v>2</v>
-      </c>
-      <c r="I48" s="36">
-        <v>0</v>
-      </c>
-      <c r="J48" s="36">
+      <c r="G48" s="34">
+        <v>1</v>
+      </c>
+      <c r="H48" s="34">
+        <v>2</v>
+      </c>
+      <c r="I48" s="34">
+        <v>0</v>
+      </c>
+      <c r="J48" s="34">
         <v>95</v>
       </c>
-      <c r="K48" s="36">
-        <v>0</v>
-      </c>
-      <c r="L48" s="36">
+      <c r="K48" s="34">
+        <v>0</v>
+      </c>
+      <c r="L48" s="34">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="36">
-        <v>1</v>
-      </c>
-      <c r="C49" s="36">
-        <v>2</v>
-      </c>
-      <c r="D49" s="36">
-        <v>0</v>
-      </c>
-      <c r="E49" s="36">
+      <c r="B49" s="34">
+        <v>1</v>
+      </c>
+      <c r="C49" s="34">
+        <v>2</v>
+      </c>
+      <c r="D49" s="34">
+        <v>0</v>
+      </c>
+      <c r="E49" s="34">
         <v>3</v>
       </c>
-      <c r="F49" s="36">
+      <c r="F49" s="34">
         <v>17</v>
       </c>
-      <c r="G49" s="36">
+      <c r="G49" s="34">
         <v>3</v>
       </c>
-      <c r="H49" s="36">
+      <c r="H49" s="34">
         <v>3</v>
       </c>
-      <c r="I49" s="36">
-        <v>1</v>
-      </c>
-      <c r="J49" s="36">
+      <c r="I49" s="34">
+        <v>1</v>
+      </c>
+      <c r="J49" s="34">
         <v>169</v>
       </c>
-      <c r="K49" s="36">
-        <v>0</v>
-      </c>
-      <c r="L49" s="36">
+      <c r="K49" s="34">
+        <v>0</v>
+      </c>
+      <c r="L49" s="34">
         <v>7</v>
       </c>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="36">
-        <v>0</v>
-      </c>
-      <c r="C50" s="36">
-        <v>1</v>
-      </c>
-      <c r="D50" s="36">
-        <v>0</v>
-      </c>
-      <c r="E50" s="36">
+      <c r="B50" s="34">
+        <v>0</v>
+      </c>
+      <c r="C50" s="34">
+        <v>1</v>
+      </c>
+      <c r="D50" s="34">
+        <v>0</v>
+      </c>
+      <c r="E50" s="34">
         <v>5</v>
       </c>
-      <c r="F50" s="36">
-        <v>2</v>
-      </c>
-      <c r="G50" s="36">
-        <v>2</v>
-      </c>
-      <c r="H50" s="36">
+      <c r="F50" s="34">
+        <v>2</v>
+      </c>
+      <c r="G50" s="34">
+        <v>2</v>
+      </c>
+      <c r="H50" s="34">
         <v>3</v>
       </c>
-      <c r="I50" s="36">
+      <c r="I50" s="34">
         <v>3</v>
       </c>
-      <c r="J50" s="36">
+      <c r="J50" s="34">
         <v>88</v>
       </c>
-      <c r="K50" s="36">
-        <v>0</v>
-      </c>
-      <c r="L50" s="36">
+      <c r="K50" s="34">
+        <v>0</v>
+      </c>
+      <c r="L50" s="34">
         <v>11</v>
       </c>
     </row>
     <row r="51" spans="2:12">
-      <c r="B51" s="36">
-        <v>1</v>
-      </c>
-      <c r="C51" s="36">
-        <v>0</v>
-      </c>
-      <c r="D51" s="36">
-        <v>0</v>
-      </c>
-      <c r="E51" s="36">
+      <c r="B51" s="34">
+        <v>1</v>
+      </c>
+      <c r="C51" s="34">
+        <v>0</v>
+      </c>
+      <c r="D51" s="34">
+        <v>0</v>
+      </c>
+      <c r="E51" s="34">
         <v>4</v>
       </c>
-      <c r="F51" s="36">
-        <v>2</v>
-      </c>
-      <c r="G51" s="36">
-        <v>1</v>
-      </c>
-      <c r="H51" s="36">
-        <v>1</v>
-      </c>
-      <c r="I51" s="36">
-        <v>2</v>
-      </c>
-      <c r="J51" s="36">
+      <c r="F51" s="34">
+        <v>2</v>
+      </c>
+      <c r="G51" s="34">
+        <v>1</v>
+      </c>
+      <c r="H51" s="34">
+        <v>1</v>
+      </c>
+      <c r="I51" s="34">
+        <v>2</v>
+      </c>
+      <c r="J51" s="34">
         <v>89</v>
       </c>
-      <c r="K51" s="36">
-        <v>0</v>
-      </c>
-      <c r="L51" s="36">
+      <c r="K51" s="34">
+        <v>0</v>
+      </c>
+      <c r="L51" s="34">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="2:12">
-      <c r="B52" s="36">
-        <v>0</v>
-      </c>
-      <c r="C52" s="36">
-        <v>2</v>
-      </c>
-      <c r="D52" s="36">
-        <v>0</v>
-      </c>
-      <c r="E52" s="36">
+      <c r="B52" s="34">
+        <v>0</v>
+      </c>
+      <c r="C52" s="34">
+        <v>2</v>
+      </c>
+      <c r="D52" s="34">
+        <v>0</v>
+      </c>
+      <c r="E52" s="34">
         <v>3</v>
       </c>
-      <c r="F52" s="36">
+      <c r="F52" s="34">
         <v>3</v>
       </c>
-      <c r="G52" s="36">
-        <v>0</v>
-      </c>
-      <c r="H52" s="36">
-        <v>0</v>
-      </c>
-      <c r="I52" s="36">
-        <v>0</v>
-      </c>
-      <c r="J52" s="36">
+      <c r="G52" s="34">
+        <v>0</v>
+      </c>
+      <c r="H52" s="34">
+        <v>0</v>
+      </c>
+      <c r="I52" s="34">
+        <v>0</v>
+      </c>
+      <c r="J52" s="34">
         <v>69</v>
       </c>
-      <c r="K52" s="36">
-        <v>0</v>
-      </c>
-      <c r="L52" s="36">
+      <c r="K52" s="34">
+        <v>0</v>
+      </c>
+      <c r="L52" s="34">
         <v>14</v>
       </c>
     </row>
     <row r="53" spans="2:12">
-      <c r="B53" s="36">
-        <v>1</v>
-      </c>
-      <c r="C53" s="36">
-        <v>0</v>
-      </c>
-      <c r="D53" s="36">
-        <v>0</v>
-      </c>
-      <c r="E53" s="36">
+      <c r="B53" s="34">
+        <v>1</v>
+      </c>
+      <c r="C53" s="34">
+        <v>0</v>
+      </c>
+      <c r="D53" s="34">
+        <v>0</v>
+      </c>
+      <c r="E53" s="34">
         <v>10</v>
       </c>
-      <c r="F53" s="36">
+      <c r="F53" s="34">
         <v>7</v>
       </c>
-      <c r="G53" s="36">
-        <v>2</v>
-      </c>
-      <c r="H53" s="36">
+      <c r="G53" s="34">
+        <v>2</v>
+      </c>
+      <c r="H53" s="34">
         <v>4</v>
       </c>
-      <c r="I53" s="36">
-        <v>2</v>
-      </c>
-      <c r="J53" s="36">
+      <c r="I53" s="34">
+        <v>2</v>
+      </c>
+      <c r="J53" s="34">
         <v>463</v>
       </c>
-      <c r="K53" s="36">
-        <v>0</v>
-      </c>
-      <c r="L53" s="36">
+      <c r="K53" s="34">
+        <v>0</v>
+      </c>
+      <c r="L53" s="34">
         <v>24</v>
       </c>
     </row>
     <row r="54" spans="2:12">
-      <c r="B54" s="36">
-        <v>0</v>
-      </c>
-      <c r="C54" s="36">
+      <c r="B54" s="34">
+        <v>0</v>
+      </c>
+      <c r="C54" s="34">
         <v>3</v>
       </c>
-      <c r="D54" s="36">
-        <v>0</v>
-      </c>
-      <c r="E54" s="36">
-        <v>1</v>
-      </c>
-      <c r="F54" s="36">
+      <c r="D54" s="34">
+        <v>0</v>
+      </c>
+      <c r="E54" s="34">
+        <v>1</v>
+      </c>
+      <c r="F54" s="34">
         <v>6</v>
       </c>
-      <c r="G54" s="36">
-        <v>1</v>
-      </c>
-      <c r="H54" s="36">
-        <v>0</v>
-      </c>
-      <c r="I54" s="36">
-        <v>1</v>
-      </c>
-      <c r="J54" s="36">
+      <c r="G54" s="34">
+        <v>1</v>
+      </c>
+      <c r="H54" s="34">
+        <v>0</v>
+      </c>
+      <c r="I54" s="34">
+        <v>1</v>
+      </c>
+      <c r="J54" s="34">
         <v>67</v>
       </c>
-      <c r="K54" s="36">
-        <v>0</v>
-      </c>
-      <c r="L54" s="36">
+      <c r="K54" s="34">
+        <v>0</v>
+      </c>
+      <c r="L54" s="34">
         <v>8</v>
       </c>
     </row>
     <row r="55" spans="2:12">
-      <c r="B55" s="36">
-        <v>1</v>
-      </c>
-      <c r="C55" s="36">
-        <v>2</v>
-      </c>
-      <c r="D55" s="36">
-        <v>0</v>
-      </c>
-      <c r="E55" s="36">
+      <c r="B55" s="34">
+        <v>1</v>
+      </c>
+      <c r="C55" s="34">
+        <v>2</v>
+      </c>
+      <c r="D55" s="34">
+        <v>0</v>
+      </c>
+      <c r="E55" s="34">
         <v>5</v>
       </c>
-      <c r="F55" s="36">
-        <v>0</v>
-      </c>
-      <c r="G55" s="36">
+      <c r="F55" s="34">
+        <v>0</v>
+      </c>
+      <c r="G55" s="34">
         <v>3</v>
       </c>
-      <c r="H55" s="36">
-        <v>2</v>
-      </c>
-      <c r="I55" s="36">
+      <c r="H55" s="34">
+        <v>2</v>
+      </c>
+      <c r="I55" s="34">
         <v>3</v>
       </c>
-      <c r="J55" s="36">
+      <c r="J55" s="34">
         <v>42</v>
       </c>
-      <c r="K55" s="36">
-        <v>0</v>
-      </c>
-      <c r="L55" s="36">
+      <c r="K55" s="34">
+        <v>0</v>
+      </c>
+      <c r="L55" s="34">
         <v>9</v>
       </c>
     </row>
     <row r="56" spans="2:12">
-      <c r="B56" s="36">
-        <v>0</v>
-      </c>
-      <c r="C56" s="36">
-        <v>0</v>
-      </c>
-      <c r="D56" s="36">
-        <v>0</v>
-      </c>
-      <c r="E56" s="36">
+      <c r="B56" s="34">
+        <v>0</v>
+      </c>
+      <c r="C56" s="34">
+        <v>0</v>
+      </c>
+      <c r="D56" s="34">
+        <v>0</v>
+      </c>
+      <c r="E56" s="34">
         <v>12</v>
       </c>
-      <c r="F56" s="36">
-        <v>0</v>
-      </c>
-      <c r="G56" s="36">
+      <c r="F56" s="34">
+        <v>0</v>
+      </c>
+      <c r="G56" s="34">
         <v>3</v>
       </c>
-      <c r="H56" s="36">
-        <v>2</v>
-      </c>
-      <c r="I56" s="36">
-        <v>0</v>
-      </c>
-      <c r="J56" s="36">
+      <c r="H56" s="34">
+        <v>2</v>
+      </c>
+      <c r="I56" s="34">
+        <v>0</v>
+      </c>
+      <c r="J56" s="34">
         <v>149</v>
       </c>
-      <c r="K56" s="36">
-        <v>0</v>
-      </c>
-      <c r="L56" s="36">
+      <c r="K56" s="34">
+        <v>0</v>
+      </c>
+      <c r="L56" s="34">
         <v>9</v>
       </c>
     </row>
     <row r="57" spans="2:12">
-      <c r="B57" s="36">
-        <v>1</v>
-      </c>
-      <c r="C57" s="36">
-        <v>0</v>
-      </c>
-      <c r="D57" s="36">
-        <v>0</v>
-      </c>
-      <c r="E57" s="36">
+      <c r="B57" s="34">
+        <v>1</v>
+      </c>
+      <c r="C57" s="34">
+        <v>0</v>
+      </c>
+      <c r="D57" s="34">
+        <v>0</v>
+      </c>
+      <c r="E57" s="34">
         <v>11</v>
       </c>
-      <c r="F57" s="36">
-        <v>0</v>
-      </c>
-      <c r="G57" s="36">
+      <c r="F57" s="34">
+        <v>0</v>
+      </c>
+      <c r="G57" s="34">
         <v>10</v>
       </c>
-      <c r="H57" s="36">
+      <c r="H57" s="34">
         <v>4</v>
       </c>
-      <c r="I57" s="36">
-        <v>0</v>
-      </c>
-      <c r="J57" s="36">
+      <c r="I57" s="34">
+        <v>0</v>
+      </c>
+      <c r="J57" s="34">
         <v>219</v>
       </c>
-      <c r="K57" s="36">
-        <v>0</v>
-      </c>
-      <c r="L57" s="36">
+      <c r="K57" s="34">
+        <v>0</v>
+      </c>
+      <c r="L57" s="34">
         <v>4</v>
       </c>
     </row>
     <row r="58" spans="2:12">
-      <c r="B58" s="36">
-        <v>0</v>
-      </c>
-      <c r="C58" s="36">
-        <v>1</v>
-      </c>
-      <c r="D58" s="36">
-        <v>0</v>
-      </c>
-      <c r="E58" s="36">
+      <c r="B58" s="34">
+        <v>0</v>
+      </c>
+      <c r="C58" s="34">
+        <v>1</v>
+      </c>
+      <c r="D58" s="34">
+        <v>0</v>
+      </c>
+      <c r="E58" s="34">
         <v>5</v>
       </c>
-      <c r="F58" s="36">
-        <v>2</v>
-      </c>
-      <c r="G58" s="36">
-        <v>0</v>
-      </c>
-      <c r="H58" s="36">
-        <v>0</v>
-      </c>
-      <c r="I58" s="36">
-        <v>1</v>
-      </c>
-      <c r="J58" s="36">
+      <c r="F58" s="34">
+        <v>2</v>
+      </c>
+      <c r="G58" s="34">
+        <v>0</v>
+      </c>
+      <c r="H58" s="34">
+        <v>0</v>
+      </c>
+      <c r="I58" s="34">
+        <v>1</v>
+      </c>
+      <c r="J58" s="34">
         <v>84</v>
       </c>
-      <c r="K58" s="36">
-        <v>0</v>
-      </c>
-      <c r="L58" s="36">
+      <c r="K58" s="34">
+        <v>0</v>
+      </c>
+      <c r="L58" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="59" spans="2:12">
-      <c r="B59" s="36">
-        <v>1</v>
-      </c>
-      <c r="C59" s="36">
-        <v>0</v>
-      </c>
-      <c r="D59" s="36">
-        <v>0</v>
-      </c>
-      <c r="E59" s="36">
+      <c r="B59" s="34">
+        <v>1</v>
+      </c>
+      <c r="C59" s="34">
+        <v>0</v>
+      </c>
+      <c r="D59" s="34">
+        <v>0</v>
+      </c>
+      <c r="E59" s="34">
         <v>6</v>
       </c>
-      <c r="F59" s="36">
-        <v>1</v>
-      </c>
-      <c r="G59" s="36">
+      <c r="F59" s="34">
+        <v>1</v>
+      </c>
+      <c r="G59" s="34">
         <v>3</v>
       </c>
-      <c r="H59" s="36">
-        <v>1</v>
-      </c>
-      <c r="I59" s="36">
-        <v>1</v>
-      </c>
-      <c r="J59" s="36">
+      <c r="H59" s="34">
+        <v>1</v>
+      </c>
+      <c r="I59" s="34">
+        <v>1</v>
+      </c>
+      <c r="J59" s="34">
         <v>239</v>
       </c>
-      <c r="K59" s="36">
-        <v>0</v>
-      </c>
-      <c r="L59" s="36">
+      <c r="K59" s="34">
+        <v>0</v>
+      </c>
+      <c r="L59" s="34">
         <v>12</v>
       </c>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="36">
-        <v>0</v>
-      </c>
-      <c r="C60" s="36">
-        <v>0</v>
-      </c>
-      <c r="D60" s="36">
-        <v>0</v>
-      </c>
-      <c r="E60" s="36">
-        <v>2</v>
-      </c>
-      <c r="F60" s="36">
-        <v>2</v>
-      </c>
-      <c r="G60" s="36">
-        <v>0</v>
-      </c>
-      <c r="H60" s="36">
-        <v>0</v>
-      </c>
-      <c r="I60" s="36">
-        <v>0</v>
-      </c>
-      <c r="J60" s="36">
+      <c r="B60" s="34">
+        <v>0</v>
+      </c>
+      <c r="C60" s="34">
+        <v>0</v>
+      </c>
+      <c r="D60" s="34">
+        <v>0</v>
+      </c>
+      <c r="E60" s="34">
+        <v>2</v>
+      </c>
+      <c r="F60" s="34">
+        <v>2</v>
+      </c>
+      <c r="G60" s="34">
+        <v>0</v>
+      </c>
+      <c r="H60" s="34">
+        <v>0</v>
+      </c>
+      <c r="I60" s="34">
+        <v>0</v>
+      </c>
+      <c r="J60" s="34">
         <v>20</v>
       </c>
-      <c r="K60" s="36">
-        <v>0</v>
-      </c>
-      <c r="L60" s="36">
+      <c r="K60" s="34">
+        <v>0</v>
+      </c>
+      <c r="L60" s="34">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="36">
-        <v>1</v>
-      </c>
-      <c r="C61" s="36">
-        <v>2</v>
-      </c>
-      <c r="D61" s="36">
-        <v>0</v>
-      </c>
-      <c r="E61" s="36">
+      <c r="B61" s="34">
+        <v>1</v>
+      </c>
+      <c r="C61" s="34">
+        <v>2</v>
+      </c>
+      <c r="D61" s="34">
+        <v>0</v>
+      </c>
+      <c r="E61" s="34">
         <v>11</v>
       </c>
-      <c r="F61" s="36">
+      <c r="F61" s="34">
         <v>15</v>
       </c>
-      <c r="G61" s="36">
-        <v>2</v>
-      </c>
-      <c r="H61" s="36">
-        <v>1</v>
-      </c>
-      <c r="I61" s="36">
-        <v>0</v>
-      </c>
-      <c r="J61" s="36">
+      <c r="G61" s="34">
+        <v>2</v>
+      </c>
+      <c r="H61" s="34">
+        <v>1</v>
+      </c>
+      <c r="I61" s="34">
+        <v>0</v>
+      </c>
+      <c r="J61" s="34">
         <v>234</v>
       </c>
-      <c r="K61" s="36">
-        <v>0</v>
-      </c>
-      <c r="L61" s="36">
+      <c r="K61" s="34">
+        <v>0</v>
+      </c>
+      <c r="L61" s="34">
         <v>22</v>
       </c>
     </row>
     <row r="62" spans="2:12">
-      <c r="B62" s="36">
-        <v>0</v>
-      </c>
-      <c r="C62" s="36">
-        <v>2</v>
-      </c>
-      <c r="D62" s="36">
-        <v>0</v>
-      </c>
-      <c r="E62" s="36">
-        <v>2</v>
-      </c>
-      <c r="F62" s="36">
+      <c r="B62" s="34">
+        <v>0</v>
+      </c>
+      <c r="C62" s="34">
+        <v>2</v>
+      </c>
+      <c r="D62" s="34">
+        <v>0</v>
+      </c>
+      <c r="E62" s="34">
+        <v>2</v>
+      </c>
+      <c r="F62" s="34">
         <v>9</v>
       </c>
-      <c r="G62" s="36">
-        <v>0</v>
-      </c>
-      <c r="H62" s="36">
-        <v>1</v>
-      </c>
-      <c r="I62" s="36">
-        <v>1</v>
-      </c>
-      <c r="J62" s="36">
+      <c r="G62" s="34">
+        <v>0</v>
+      </c>
+      <c r="H62" s="34">
+        <v>1</v>
+      </c>
+      <c r="I62" s="34">
+        <v>1</v>
+      </c>
+      <c r="J62" s="34">
         <v>72</v>
       </c>
-      <c r="K62" s="36">
-        <v>0</v>
-      </c>
-      <c r="L62" s="36">
+      <c r="K62" s="34">
+        <v>0</v>
+      </c>
+      <c r="L62" s="34">
         <v>3</v>
       </c>
     </row>
     <row r="63" spans="2:12">
-      <c r="B63" s="36">
-        <v>1</v>
-      </c>
-      <c r="C63" s="36">
-        <v>1</v>
-      </c>
-      <c r="D63" s="36">
-        <v>0</v>
-      </c>
-      <c r="E63" s="36">
-        <v>0</v>
-      </c>
-      <c r="F63" s="36">
+      <c r="B63" s="34">
+        <v>1</v>
+      </c>
+      <c r="C63" s="34">
+        <v>1</v>
+      </c>
+      <c r="D63" s="34">
+        <v>0</v>
+      </c>
+      <c r="E63" s="34">
+        <v>0</v>
+      </c>
+      <c r="F63" s="34">
         <v>11</v>
       </c>
-      <c r="G63" s="36">
-        <v>1</v>
-      </c>
-      <c r="H63" s="36">
-        <v>2</v>
-      </c>
-      <c r="I63" s="36">
-        <v>0</v>
-      </c>
-      <c r="J63" s="36">
+      <c r="G63" s="34">
+        <v>1</v>
+      </c>
+      <c r="H63" s="34">
+        <v>2</v>
+      </c>
+      <c r="I63" s="34">
+        <v>0</v>
+      </c>
+      <c r="J63" s="34">
         <v>110</v>
       </c>
-      <c r="K63" s="36">
-        <v>0</v>
-      </c>
-      <c r="L63" s="36">
+      <c r="K63" s="34">
+        <v>0</v>
+      </c>
+      <c r="L63" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="64" spans="2:12">
-      <c r="B64" s="36">
-        <v>0</v>
-      </c>
-      <c r="C64" s="36">
+      <c r="B64" s="34">
+        <v>0</v>
+      </c>
+      <c r="C64" s="34">
         <v>3</v>
       </c>
-      <c r="D64" s="36">
-        <v>0</v>
-      </c>
-      <c r="E64" s="36">
-        <v>0</v>
-      </c>
-      <c r="F64" s="36">
+      <c r="D64" s="34">
+        <v>0</v>
+      </c>
+      <c r="E64" s="34">
+        <v>0</v>
+      </c>
+      <c r="F64" s="34">
         <v>6</v>
       </c>
-      <c r="G64" s="36">
-        <v>0</v>
-      </c>
-      <c r="H64" s="36">
-        <v>1</v>
-      </c>
-      <c r="I64" s="36">
-        <v>0</v>
-      </c>
-      <c r="J64" s="36">
+      <c r="G64" s="34">
+        <v>0</v>
+      </c>
+      <c r="H64" s="34">
+        <v>1</v>
+      </c>
+      <c r="I64" s="34">
+        <v>0</v>
+      </c>
+      <c r="J64" s="34">
         <v>73</v>
       </c>
-      <c r="K64" s="36">
-        <v>0</v>
-      </c>
-      <c r="L64" s="36">
+      <c r="K64" s="34">
+        <v>0</v>
+      </c>
+      <c r="L64" s="34">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="2:12">
-      <c r="B65" s="36">
-        <v>1</v>
-      </c>
-      <c r="C65" s="36">
-        <v>1</v>
-      </c>
-      <c r="D65" s="36">
-        <v>0</v>
-      </c>
-      <c r="E65" s="36">
-        <v>0</v>
-      </c>
-      <c r="F65" s="36">
+    <row r="65" spans="1:12">
+      <c r="B65" s="34">
+        <v>1</v>
+      </c>
+      <c r="C65" s="34">
+        <v>1</v>
+      </c>
+      <c r="D65" s="34">
+        <v>0</v>
+      </c>
+      <c r="E65" s="34">
+        <v>0</v>
+      </c>
+      <c r="F65" s="34">
         <v>4</v>
       </c>
-      <c r="G65" s="36">
-        <v>0</v>
-      </c>
-      <c r="H65" s="36">
-        <v>0</v>
-      </c>
-      <c r="I65" s="36">
-        <v>1</v>
-      </c>
-      <c r="J65" s="36">
+      <c r="G65" s="34">
+        <v>0</v>
+      </c>
+      <c r="H65" s="34">
+        <v>0</v>
+      </c>
+      <c r="I65" s="34">
+        <v>1</v>
+      </c>
+      <c r="J65" s="34">
         <v>213</v>
       </c>
-      <c r="K65" s="36">
-        <v>0</v>
-      </c>
-      <c r="L65" s="36">
+      <c r="K65" s="34">
+        <v>0</v>
+      </c>
+      <c r="L65" s="34">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="2:12">
-      <c r="B66" s="36">
-        <v>0</v>
-      </c>
-      <c r="C66" s="36">
-        <v>0</v>
-      </c>
-      <c r="D66" s="36">
-        <v>0</v>
-      </c>
-      <c r="E66" s="36">
+    <row r="66" spans="1:12">
+      <c r="B66" s="34">
+        <v>0</v>
+      </c>
+      <c r="C66" s="34">
+        <v>0</v>
+      </c>
+      <c r="D66" s="34">
+        <v>0</v>
+      </c>
+      <c r="E66" s="34">
         <v>3</v>
       </c>
-      <c r="F66" s="36">
+      <c r="F66" s="34">
         <v>7</v>
       </c>
-      <c r="G66" s="36">
-        <v>0</v>
-      </c>
-      <c r="H66" s="36">
-        <v>1</v>
-      </c>
-      <c r="I66" s="36">
-        <v>0</v>
-      </c>
-      <c r="J66" s="36">
+      <c r="G66" s="34">
+        <v>0</v>
+      </c>
+      <c r="H66" s="34">
+        <v>1</v>
+      </c>
+      <c r="I66" s="34">
+        <v>0</v>
+      </c>
+      <c r="J66" s="34">
         <v>82</v>
       </c>
-      <c r="K66" s="36">
-        <v>0</v>
-      </c>
-      <c r="L66" s="36">
+      <c r="K66" s="34">
+        <v>0</v>
+      </c>
+      <c r="L66" s="34">
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="2:12">
-      <c r="B67" s="36">
-        <v>0</v>
-      </c>
-      <c r="C67" s="36">
-        <v>0</v>
-      </c>
-      <c r="D67" s="36">
-        <v>0</v>
-      </c>
-      <c r="E67" s="36">
+    <row r="67" spans="1:12">
+      <c r="B67" s="34">
+        <v>0</v>
+      </c>
+      <c r="C67" s="34">
+        <v>0</v>
+      </c>
+      <c r="D67" s="34">
+        <v>0</v>
+      </c>
+      <c r="E67" s="34">
         <v>4</v>
       </c>
-      <c r="F67" s="36">
+      <c r="F67" s="34">
         <v>5</v>
       </c>
-      <c r="G67" s="36">
+      <c r="G67" s="34">
         <v>5</v>
       </c>
-      <c r="H67" s="36">
-        <v>1</v>
-      </c>
-      <c r="I67" s="36">
-        <v>1</v>
-      </c>
-      <c r="J67" s="36">
+      <c r="H67" s="34">
+        <v>1</v>
+      </c>
+      <c r="I67" s="34">
+        <v>1</v>
+      </c>
+      <c r="J67" s="34">
         <v>173</v>
       </c>
-      <c r="K67" s="36">
-        <v>0</v>
-      </c>
-      <c r="L67" s="36">
+      <c r="K67" s="34">
+        <v>0</v>
+      </c>
+      <c r="L67" s="34">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="2:12">
-      <c r="B68" s="36">
-        <v>1</v>
-      </c>
-      <c r="C68" s="36">
-        <v>1</v>
-      </c>
-      <c r="D68" s="36">
-        <v>0</v>
-      </c>
-      <c r="E68" s="36">
+    <row r="68" spans="1:12">
+      <c r="B68" s="34">
+        <v>1</v>
+      </c>
+      <c r="C68" s="34">
+        <v>1</v>
+      </c>
+      <c r="D68" s="34">
+        <v>0</v>
+      </c>
+      <c r="E68" s="34">
         <v>9</v>
       </c>
-      <c r="F68" s="36">
+      <c r="F68" s="34">
         <v>10</v>
       </c>
-      <c r="G68" s="36">
-        <v>2</v>
-      </c>
-      <c r="H68" s="36">
-        <v>1</v>
-      </c>
-      <c r="I68" s="36">
-        <v>1</v>
-      </c>
-      <c r="J68" s="36">
+      <c r="G68" s="34">
+        <v>2</v>
+      </c>
+      <c r="H68" s="34">
+        <v>1</v>
+      </c>
+      <c r="I68" s="34">
+        <v>1</v>
+      </c>
+      <c r="J68" s="34">
         <v>99</v>
       </c>
-      <c r="K68" s="36">
-        <v>1</v>
-      </c>
-      <c r="L68" s="36">
+      <c r="K68" s="34">
+        <v>1</v>
+      </c>
+      <c r="L68" s="34">
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="2:12">
-      <c r="B69" s="36">
-        <v>0</v>
-      </c>
-      <c r="C69" s="36">
-        <v>2</v>
-      </c>
-      <c r="D69" s="36">
-        <v>0</v>
-      </c>
-      <c r="E69" s="36">
-        <v>0</v>
-      </c>
-      <c r="F69" s="36">
-        <v>0</v>
-      </c>
-      <c r="G69" s="36">
-        <v>0</v>
-      </c>
-      <c r="H69" s="36">
-        <v>0</v>
-      </c>
-      <c r="I69" s="36">
-        <v>0</v>
-      </c>
-      <c r="J69" s="36">
+    <row r="69" spans="1:12">
+      <c r="B69" s="34">
+        <v>0</v>
+      </c>
+      <c r="C69" s="34">
+        <v>2</v>
+      </c>
+      <c r="D69" s="34">
+        <v>0</v>
+      </c>
+      <c r="E69" s="34">
+        <v>0</v>
+      </c>
+      <c r="F69" s="34">
+        <v>0</v>
+      </c>
+      <c r="G69" s="34">
+        <v>0</v>
+      </c>
+      <c r="H69" s="34">
+        <v>0</v>
+      </c>
+      <c r="I69" s="34">
+        <v>0</v>
+      </c>
+      <c r="J69" s="34">
         <v>10</v>
       </c>
-      <c r="K69" s="36">
-        <v>1</v>
-      </c>
-      <c r="L69" s="36">
+      <c r="K69" s="34">
+        <v>1</v>
+      </c>
+      <c r="L69" s="34">
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="2:12">
-      <c r="B70" s="36">
-        <v>0</v>
-      </c>
-      <c r="C70" s="36">
-        <v>0</v>
-      </c>
-      <c r="D70" s="36">
-        <v>0</v>
-      </c>
-      <c r="E70" s="36">
+    <row r="70" spans="1:12">
+      <c r="B70" s="34">
+        <v>0</v>
+      </c>
+      <c r="C70" s="34">
+        <v>0</v>
+      </c>
+      <c r="D70" s="34">
+        <v>0</v>
+      </c>
+      <c r="E70" s="34">
         <v>6</v>
       </c>
-      <c r="F70" s="36">
-        <v>2</v>
-      </c>
-      <c r="G70" s="36">
-        <v>0</v>
-      </c>
-      <c r="H70" s="36">
-        <v>0</v>
-      </c>
-      <c r="I70" s="36">
-        <v>1</v>
-      </c>
-      <c r="J70" s="36">
+      <c r="F70" s="34">
+        <v>2</v>
+      </c>
+      <c r="G70" s="34">
+        <v>0</v>
+      </c>
+      <c r="H70" s="34">
+        <v>0</v>
+      </c>
+      <c r="I70" s="34">
+        <v>1</v>
+      </c>
+      <c r="J70" s="34">
         <v>82</v>
       </c>
-      <c r="K70" s="36">
+      <c r="K70" s="34">
         <v>6</v>
       </c>
-      <c r="L70" s="36">
+      <c r="L70" s="34">
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="2:12">
-      <c r="B71" s="36">
-        <v>1</v>
-      </c>
-      <c r="C71" s="36">
-        <v>0</v>
-      </c>
-      <c r="D71" s="36">
-        <v>0</v>
-      </c>
-      <c r="E71" s="36">
+    <row r="71" spans="1:12">
+      <c r="B71" s="34">
+        <v>1</v>
+      </c>
+      <c r="C71" s="34">
+        <v>0</v>
+      </c>
+      <c r="D71" s="34">
+        <v>0</v>
+      </c>
+      <c r="E71" s="34">
         <v>8</v>
       </c>
-      <c r="F71" s="36">
+      <c r="F71" s="34">
         <v>6</v>
       </c>
-      <c r="G71" s="36">
-        <v>2</v>
-      </c>
-      <c r="H71" s="36">
-        <v>2</v>
-      </c>
-      <c r="I71" s="36">
-        <v>0</v>
-      </c>
-      <c r="J71" s="36">
+      <c r="G71" s="34">
+        <v>2</v>
+      </c>
+      <c r="H71" s="34">
+        <v>2</v>
+      </c>
+      <c r="I71" s="34">
+        <v>0</v>
+      </c>
+      <c r="J71" s="34">
         <v>401</v>
       </c>
-      <c r="K71" s="36">
+      <c r="K71" s="34">
         <v>14</v>
       </c>
-      <c r="L71" s="36">
+      <c r="L71" s="34">
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="2:12">
-      <c r="B72" s="36">
-        <v>0</v>
-      </c>
-      <c r="C72" s="36">
-        <v>1</v>
-      </c>
-      <c r="D72" s="36">
-        <v>0</v>
-      </c>
-      <c r="E72" s="36">
-        <v>1</v>
-      </c>
-      <c r="F72" s="36">
+    <row r="72" spans="1:12">
+      <c r="B72" s="34">
+        <v>0</v>
+      </c>
+      <c r="C72" s="34">
+        <v>1</v>
+      </c>
+      <c r="D72" s="34">
+        <v>0</v>
+      </c>
+      <c r="E72" s="34">
+        <v>1</v>
+      </c>
+      <c r="F72" s="34">
         <v>4</v>
       </c>
-      <c r="G72" s="36">
-        <v>2</v>
-      </c>
-      <c r="H72" s="36">
-        <v>1</v>
-      </c>
-      <c r="I72" s="36">
-        <v>0</v>
-      </c>
-      <c r="J72" s="36">
+      <c r="G72" s="34">
+        <v>2</v>
+      </c>
+      <c r="H72" s="34">
+        <v>1</v>
+      </c>
+      <c r="I72" s="34">
+        <v>0</v>
+      </c>
+      <c r="J72" s="34">
         <v>60</v>
       </c>
-      <c r="K72" s="36">
-        <v>1</v>
-      </c>
-      <c r="L72" s="36">
+      <c r="K72" s="34">
+        <v>1</v>
+      </c>
+      <c r="L72" s="34">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="2:12">
-      <c r="B73" s="36">
-        <v>1</v>
-      </c>
-      <c r="C73" s="36">
-        <v>0</v>
-      </c>
-      <c r="D73" s="36">
-        <v>0</v>
-      </c>
-      <c r="E73" s="36">
+    <row r="73" spans="1:12">
+      <c r="B73" s="34">
+        <v>1</v>
+      </c>
+      <c r="C73" s="34">
+        <v>0</v>
+      </c>
+      <c r="D73" s="34">
+        <v>0</v>
+      </c>
+      <c r="E73" s="34">
         <v>6</v>
       </c>
-      <c r="F73" s="36">
-        <v>2</v>
-      </c>
-      <c r="G73" s="36">
-        <v>0</v>
-      </c>
-      <c r="H73" s="36">
+      <c r="F73" s="34">
+        <v>2</v>
+      </c>
+      <c r="G73" s="34">
+        <v>0</v>
+      </c>
+      <c r="H73" s="34">
         <v>3</v>
       </c>
-      <c r="I73" s="36">
-        <v>0</v>
-      </c>
-      <c r="J73" s="36">
+      <c r="I73" s="34">
+        <v>0</v>
+      </c>
+      <c r="J73" s="34">
         <v>76</v>
       </c>
-      <c r="K73" s="36">
+      <c r="K73" s="34">
         <v>10</v>
       </c>
-      <c r="L73" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="2:12">
-      <c r="B74" s="36">
-        <v>0</v>
-      </c>
-      <c r="C74" s="36">
-        <v>1</v>
-      </c>
-      <c r="D74" s="36">
-        <v>0</v>
-      </c>
-      <c r="E74" s="36">
-        <v>1</v>
-      </c>
-      <c r="F74" s="36">
-        <v>2</v>
-      </c>
-      <c r="G74" s="36">
-        <v>2</v>
-      </c>
-      <c r="H74" s="36">
-        <v>1</v>
-      </c>
-      <c r="I74" s="36">
-        <v>1</v>
-      </c>
-      <c r="J74" s="36">
+      <c r="L73" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="B74" s="34">
+        <v>0</v>
+      </c>
+      <c r="C74" s="34">
+        <v>1</v>
+      </c>
+      <c r="D74" s="34">
+        <v>0</v>
+      </c>
+      <c r="E74" s="34">
+        <v>1</v>
+      </c>
+      <c r="F74" s="34">
+        <v>2</v>
+      </c>
+      <c r="G74" s="34">
+        <v>2</v>
+      </c>
+      <c r="H74" s="34">
+        <v>1</v>
+      </c>
+      <c r="I74" s="34">
+        <v>1</v>
+      </c>
+      <c r="J74" s="34">
         <v>95</v>
       </c>
-      <c r="K74" s="36">
+      <c r="K74" s="34">
         <v>11</v>
       </c>
-      <c r="L74" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:12">
-      <c r="B75" s="36">
-        <v>1</v>
-      </c>
-      <c r="C75" s="36">
-        <v>0</v>
-      </c>
-      <c r="D75" s="36">
-        <v>0</v>
-      </c>
-      <c r="E75" s="36">
-        <v>1</v>
-      </c>
-      <c r="F75" s="36">
-        <v>0</v>
-      </c>
-      <c r="G75" s="36">
-        <v>2</v>
-      </c>
-      <c r="H75" s="36">
-        <v>1</v>
-      </c>
-      <c r="I75" s="36">
-        <v>0</v>
-      </c>
-      <c r="J75" s="36">
+      <c r="L74" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="B75" s="34">
+        <v>1</v>
+      </c>
+      <c r="C75" s="34">
+        <v>0</v>
+      </c>
+      <c r="D75" s="34">
+        <v>0</v>
+      </c>
+      <c r="E75" s="34">
+        <v>1</v>
+      </c>
+      <c r="F75" s="34">
+        <v>0</v>
+      </c>
+      <c r="G75" s="34">
+        <v>2</v>
+      </c>
+      <c r="H75" s="34">
+        <v>1</v>
+      </c>
+      <c r="I75" s="34">
+        <v>0</v>
+      </c>
+      <c r="J75" s="34">
         <v>159</v>
       </c>
-      <c r="K75" s="36">
+      <c r="K75" s="34">
         <v>9</v>
       </c>
-      <c r="L75" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:12">
-      <c r="B76" s="36">
-        <v>0</v>
-      </c>
-      <c r="C76" s="36">
-        <v>0</v>
-      </c>
-      <c r="D76" s="36">
-        <v>0</v>
-      </c>
-      <c r="E76" s="36">
+      <c r="L75" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="B76" s="34">
+        <v>0</v>
+      </c>
+      <c r="C76" s="34">
+        <v>0</v>
+      </c>
+      <c r="D76" s="34">
+        <v>0</v>
+      </c>
+      <c r="E76" s="34">
         <v>13</v>
       </c>
-      <c r="F76" s="36">
+      <c r="F76" s="34">
         <v>16</v>
       </c>
-      <c r="G76" s="36">
-        <v>0</v>
-      </c>
-      <c r="H76" s="36">
-        <v>1</v>
-      </c>
-      <c r="I76" s="36">
-        <v>0</v>
-      </c>
-      <c r="J76" s="36">
+      <c r="G76" s="34">
+        <v>0</v>
+      </c>
+      <c r="H76" s="34">
+        <v>1</v>
+      </c>
+      <c r="I76" s="34">
+        <v>0</v>
+      </c>
+      <c r="J76" s="34">
         <v>70</v>
       </c>
-      <c r="K76" s="36">
+      <c r="K76" s="34">
         <v>12</v>
       </c>
-      <c r="L76" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12">
-      <c r="B77" s="36">
-        <v>1</v>
-      </c>
-      <c r="C77" s="36">
-        <v>2</v>
-      </c>
-      <c r="D77" s="36">
-        <v>0</v>
-      </c>
-      <c r="E77" s="36">
-        <v>2</v>
-      </c>
-      <c r="F77" s="36">
+      <c r="L76" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="B77" s="34">
+        <v>1</v>
+      </c>
+      <c r="C77" s="34">
+        <v>2</v>
+      </c>
+      <c r="D77" s="34">
+        <v>0</v>
+      </c>
+      <c r="E77" s="34">
+        <v>2</v>
+      </c>
+      <c r="F77" s="34">
         <v>5</v>
       </c>
-      <c r="G77" s="36">
-        <v>0</v>
-      </c>
-      <c r="H77" s="36">
+      <c r="G77" s="34">
+        <v>0</v>
+      </c>
+      <c r="H77" s="34">
         <v>3</v>
       </c>
-      <c r="I77" s="36">
-        <v>1</v>
-      </c>
-      <c r="J77" s="36">
+      <c r="I77" s="34">
+        <v>1</v>
+      </c>
+      <c r="J77" s="34">
         <v>192</v>
       </c>
-      <c r="K77" s="36">
+      <c r="K77" s="34">
         <v>16</v>
       </c>
-      <c r="L77" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:12">
-      <c r="B78" s="36">
-        <v>0</v>
-      </c>
-      <c r="C78" s="36">
-        <v>0</v>
-      </c>
-      <c r="D78" s="36">
-        <v>0</v>
-      </c>
-      <c r="E78" s="36">
-        <v>0</v>
-      </c>
-      <c r="F78" s="36">
+      <c r="L77" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="B78" s="34">
+        <v>0</v>
+      </c>
+      <c r="C78" s="34">
+        <v>0</v>
+      </c>
+      <c r="D78" s="34">
+        <v>0</v>
+      </c>
+      <c r="E78" s="34">
+        <v>0</v>
+      </c>
+      <c r="F78" s="34">
         <v>3</v>
       </c>
-      <c r="G78" s="36">
-        <v>0</v>
-      </c>
-      <c r="H78" s="36">
-        <v>2</v>
-      </c>
-      <c r="I78" s="36">
-        <v>1</v>
-      </c>
-      <c r="J78" s="36">
+      <c r="G78" s="34">
+        <v>0</v>
+      </c>
+      <c r="H78" s="34">
+        <v>2</v>
+      </c>
+      <c r="I78" s="34">
+        <v>1</v>
+      </c>
+      <c r="J78" s="34">
         <v>100</v>
       </c>
-      <c r="K78" s="36">
-        <v>0</v>
-      </c>
-      <c r="L78" s="36">
+      <c r="K78" s="34">
+        <v>0</v>
+      </c>
+      <c r="L78" s="34">
         <v>2</v>
       </c>
     </row>
@@ -6479,47 +5807,47 @@
       <c r="A79" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B79" s="37">
+      <c r="B79" s="35">
         <f>SUM(B2:B78)</f>
         <v>34</v>
       </c>
-      <c r="C79" s="37">
+      <c r="C79" s="35">
         <f t="shared" ref="C79:L79" si="0">SUM(C2:C78)</f>
         <v>72</v>
       </c>
-      <c r="D79" s="37">
+      <c r="D79" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E79" s="37">
+      <c r="E79" s="35">
         <f t="shared" si="0"/>
         <v>378</v>
       </c>
-      <c r="F79" s="37">
+      <c r="F79" s="35">
         <f t="shared" si="0"/>
         <v>338</v>
       </c>
-      <c r="G79" s="37">
+      <c r="G79" s="35">
         <f t="shared" si="0"/>
         <v>148</v>
       </c>
-      <c r="H79" s="37">
+      <c r="H79" s="35">
         <f t="shared" si="0"/>
         <v>123</v>
       </c>
-      <c r="I79" s="37">
+      <c r="I79" s="35">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="J79" s="37">
+      <c r="J79" s="35">
         <f t="shared" si="0"/>
         <v>9898</v>
       </c>
-      <c r="K79" s="37">
+      <c r="K79" s="35">
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
-      <c r="L79" s="37">
+      <c r="L79" s="35">
         <f t="shared" si="0"/>
         <v>704</v>
       </c>
@@ -6528,366 +5856,379 @@
       <c r="A80" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B80" s="38">
+      <c r="B80" s="36">
         <f>AVERAGE(B2:B78)</f>
-        <v>0.441558441558442</v>
-      </c>
-      <c r="C80" s="38">
+        <v>0.44155844155844198</v>
+      </c>
+      <c r="C80" s="36">
         <f t="shared" ref="C80:L80" si="1">AVERAGE(C2:C78)</f>
-        <v>0.935064935064935</v>
-      </c>
-      <c r="D80" s="38">
+        <v>0.93506493506493504</v>
+      </c>
+      <c r="D80" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E80" s="38">
+      <c r="E80" s="36">
         <f t="shared" si="1"/>
-        <v>4.90909090909091</v>
-      </c>
-      <c r="F80" s="38">
+        <v>4.9090909090909101</v>
+      </c>
+      <c r="F80" s="36">
         <f t="shared" si="1"/>
-        <v>4.38961038961039</v>
-      </c>
-      <c r="G80" s="38">
+        <v>4.3896103896103904</v>
+      </c>
+      <c r="G80" s="36">
         <f t="shared" si="1"/>
-        <v>1.92207792207792</v>
-      </c>
-      <c r="H80" s="38">
+        <v>1.9220779220779201</v>
+      </c>
+      <c r="H80" s="36">
         <f t="shared" si="1"/>
         <v>1.5974025974026</v>
       </c>
-      <c r="I80" s="38">
+      <c r="I80" s="36">
         <f t="shared" si="1"/>
-        <v>0.623376623376623</v>
-      </c>
-      <c r="J80" s="38">
+        <v>0.62337662337662303</v>
+      </c>
+      <c r="J80" s="36">
         <f t="shared" si="1"/>
-        <v>128.545454545455</v>
-      </c>
-      <c r="K80" s="38">
+        <v>128.54545454545499</v>
+      </c>
+      <c r="K80" s="36">
         <f t="shared" si="1"/>
-        <v>2.90909090909091</v>
-      </c>
-      <c r="L80" s="38">
+        <v>2.9090909090909101</v>
+      </c>
+      <c r="L80" s="36">
         <f t="shared" si="1"/>
-        <v>9.14285714285714</v>
+        <v>9.1428571428571406</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B81" s="38">
+      <c r="B81" s="36">
         <f>_xlfn.STDEV.S(B1:B78)</f>
-        <v>0.499829089039615</v>
-      </c>
-      <c r="C81" s="38">
+        <v>0.49982908903961498</v>
+      </c>
+      <c r="C81" s="36">
         <f t="shared" ref="C81:L81" si="2">_xlfn.STDEV.S(C1:C78)</f>
-        <v>1.13945580660315</v>
-      </c>
-      <c r="D81" s="38">
+        <v>1.1394558066031499</v>
+      </c>
+      <c r="D81" s="36">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E81" s="38">
+      <c r="E81" s="36">
         <f t="shared" si="2"/>
-        <v>4.56295673469291</v>
-      </c>
-      <c r="F81" s="38">
+        <v>4.5629567346929099</v>
+      </c>
+      <c r="F81" s="36">
         <f t="shared" si="2"/>
-        <v>4.2678598240553</v>
-      </c>
-      <c r="G81" s="38">
+        <v>4.2678598240553001</v>
+      </c>
+      <c r="G81" s="36">
         <f t="shared" si="2"/>
         <v>2.54830301514678</v>
       </c>
-      <c r="H81" s="38">
+      <c r="H81" s="36">
         <f t="shared" si="2"/>
-        <v>3.3531593125374</v>
-      </c>
-      <c r="I81" s="38">
+        <v>3.3531593125374002</v>
+      </c>
+      <c r="I81" s="36">
         <f t="shared" si="2"/>
-        <v>0.761559360076434</v>
-      </c>
-      <c r="J81" s="38">
+        <v>0.76155936007643399</v>
+      </c>
+      <c r="J81" s="36">
         <f t="shared" si="2"/>
-        <v>83.2694651583112</v>
-      </c>
-      <c r="K81" s="38">
+        <v>83.269465158311206</v>
+      </c>
+      <c r="K81" s="36">
         <f t="shared" si="2"/>
-        <v>9.7037456389704</v>
-      </c>
-      <c r="L81" s="38">
+        <v>9.7037456389703998</v>
+      </c>
+      <c r="L81" s="36">
         <f t="shared" si="2"/>
-        <v>7.18498852820072</v>
+        <v>7.1849885282007202</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B82" s="38">
+      <c r="B82" s="36">
         <f>IFERROR(B81/B80,"Null Values")</f>
         <v>1.13196587811913</v>
       </c>
-      <c r="C82" s="38">
+      <c r="C82" s="36">
         <f t="shared" ref="C82:L82" si="3">IFERROR(C81/C80,"Null Values")</f>
-        <v>1.2185846820617</v>
-      </c>
-      <c r="D82" s="38" t="str">
+        <v>1.2185846820616999</v>
+      </c>
+      <c r="D82" s="36" t="str">
         <f t="shared" si="3"/>
         <v>Null Values</v>
       </c>
-      <c r="E82" s="38">
+      <c r="E82" s="36">
         <f t="shared" si="3"/>
-        <v>0.929491186696705</v>
-      </c>
-      <c r="F82" s="38">
+        <v>0.92949118669670505</v>
+      </c>
+      <c r="F82" s="36">
         <f t="shared" si="3"/>
-        <v>0.972263924414966</v>
-      </c>
-      <c r="G82" s="38">
+        <v>0.97226392441496601</v>
+      </c>
+      <c r="G82" s="36">
         <f t="shared" si="3"/>
         <v>1.32580629842096</v>
       </c>
-      <c r="H82" s="38">
+      <c r="H82" s="36">
         <f t="shared" si="3"/>
-        <v>2.09913225256406</v>
-      </c>
-      <c r="I82" s="38">
+        <v>2.0991322525640599</v>
+      </c>
+      <c r="I82" s="36">
         <f t="shared" si="3"/>
-        <v>1.22166814012261</v>
-      </c>
-      <c r="J82" s="38">
+        <v>1.2216681401226099</v>
+      </c>
+      <c r="J82" s="36">
         <f t="shared" si="3"/>
-        <v>0.647782260778941</v>
-      </c>
-      <c r="K82" s="38">
+        <v>0.64778226077894097</v>
+      </c>
+      <c r="K82" s="36">
         <f t="shared" si="3"/>
-        <v>3.33566256339608</v>
-      </c>
-      <c r="L82" s="38">
+        <v>3.3356625633960801</v>
+      </c>
+      <c r="L82" s="36">
         <f t="shared" si="3"/>
-        <v>0.785858120271954</v>
+        <v>0.78585812027195401</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.2222222222222" style="34"/>
-    <col min="2" max="2" width="10" style="34"/>
-    <col min="3" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="1" width="10.21875" style="33"/>
+    <col min="2" max="2" width="10" style="33"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="35">
-        <v>45414</v>
-      </c>
-      <c r="B2" s="34">
+      <c r="A2" s="42">
+        <v>45446</v>
+      </c>
+      <c r="B2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="42">
+        <v>45447</v>
+      </c>
+      <c r="B3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="42">
+        <v>45448</v>
+      </c>
+      <c r="B4">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="42">
+        <v>45449</v>
+      </c>
+      <c r="B5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="42">
+        <v>45450</v>
+      </c>
+      <c r="B6">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="42">
+        <v>45451</v>
+      </c>
+      <c r="B7">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="42">
+        <v>45453</v>
+      </c>
+      <c r="B8">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="42">
+        <v>45454</v>
+      </c>
+      <c r="B9">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="42">
+        <v>45455</v>
+      </c>
+      <c r="B10">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="42">
+        <v>45456</v>
+      </c>
+      <c r="B11">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="42">
+        <v>45457</v>
+      </c>
+      <c r="B12">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="42">
+        <v>45458</v>
+      </c>
+      <c r="B13">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="42">
+        <v>45460</v>
+      </c>
+      <c r="B14">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="42">
+        <v>45460</v>
+      </c>
+      <c r="B15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="42">
+        <v>45461</v>
+      </c>
+      <c r="B16">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="42">
+        <v>45462</v>
+      </c>
+      <c r="B17">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="42">
+        <v>45463</v>
+      </c>
+      <c r="B18">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="42">
+        <v>45464</v>
+      </c>
+      <c r="B19">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="42">
+        <v>45465</v>
+      </c>
+      <c r="B20">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="42">
+        <v>45467</v>
+      </c>
+      <c r="B21">
         <v>363</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="35">
-        <v>45415</v>
-      </c>
-      <c r="B3" s="34">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="35">
-        <v>45416</v>
-      </c>
-      <c r="B4" s="34">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="35">
-        <v>45418</v>
-      </c>
-      <c r="B5" s="34">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="35">
-        <v>45419</v>
-      </c>
-      <c r="B6" s="34">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="35">
-        <v>45420</v>
-      </c>
-      <c r="B7" s="34">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="35">
-        <v>45421</v>
-      </c>
-      <c r="B8" s="34">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="35">
-        <v>45422</v>
-      </c>
-      <c r="B9" s="34">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="35">
-        <v>45425</v>
-      </c>
-      <c r="B10" s="34">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="35">
-        <v>45426</v>
-      </c>
-      <c r="B11" s="34">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="35">
-        <v>45427</v>
-      </c>
-      <c r="B12" s="34">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="35">
-        <v>45428</v>
-      </c>
-      <c r="B13" s="34">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="35">
-        <v>45429</v>
-      </c>
-      <c r="B14" s="34">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="35">
-        <v>45430</v>
-      </c>
-      <c r="B15" s="34">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="35">
-        <v>45432</v>
-      </c>
-      <c r="B16" s="34">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="35">
-        <v>45433</v>
-      </c>
-      <c r="B17" s="34">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="35">
-        <v>45434</v>
-      </c>
-      <c r="B18" s="34">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="35">
-        <v>45435</v>
-      </c>
-      <c r="B19" s="34">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="35">
-        <v>45439</v>
-      </c>
-      <c r="B20" s="34">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="35">
-        <v>45440</v>
-      </c>
-      <c r="B21" s="34">
-        <v>183</v>
-      </c>
-    </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="35">
-        <v>45441</v>
-      </c>
-      <c r="B22" s="34">
-        <v>334</v>
+      <c r="A22" s="42">
+        <v>45468</v>
+      </c>
+      <c r="B22">
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="35">
-        <v>45442</v>
-      </c>
-      <c r="B23" s="34">
-        <v>301</v>
+      <c r="A23" s="42">
+        <v>45469</v>
+      </c>
+      <c r="B23">
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="35">
-        <v>45443</v>
-      </c>
-      <c r="B24" s="34">
-        <v>394</v>
+      <c r="A24" s="42">
+        <v>45470</v>
+      </c>
+      <c r="B24">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="42">
+        <v>45471</v>
+      </c>
+      <c r="B25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="42">
+        <v>45472</v>
+      </c>
+      <c r="B26">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -6895,15 +6236,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B10"/>
+      <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -6914,7 +6254,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="33">
+      <c r="A2" s="32">
         <v>156</v>
       </c>
       <c r="B2">
@@ -6922,7 +6262,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="33">
+      <c r="A3" s="32">
         <v>235.142857142857</v>
       </c>
       <c r="B3">
@@ -6930,39 +6270,39 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="33">
-        <v>314.285714285714</v>
+      <c r="A4" s="32">
+        <v>314.28571428571399</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="33">
-        <v>393.428571428571</v>
+      <c r="A5" s="32">
+        <v>393.42857142857099</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="33">
-        <v>472.571428571429</v>
+      <c r="A6" s="32">
+        <v>472.57142857142901</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="33">
-        <v>551.714285714286</v>
+      <c r="A7" s="32">
+        <v>551.71428571428601</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="33">
+      <c r="A8" s="32">
         <v>630.857142857143</v>
       </c>
       <c r="B8">
@@ -6970,7 +6310,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="33">
+      <c r="A9" s="32">
         <v>710</v>
       </c>
       <c r="B9">
@@ -6991,98 +6331,96 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B10"/>
+      <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="32">
+      <c r="A2" s="31">
         <v>156</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="32">
+      <c r="A3" s="31">
         <v>235.142857142857</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="26">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="32">
-        <v>314.285714285714</v>
-      </c>
-      <c r="B4" s="27">
+      <c r="A4" s="31">
+        <v>314.28571428571399</v>
+      </c>
+      <c r="B4" s="26">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="32">
-        <v>393.428571428571</v>
-      </c>
-      <c r="B5" s="27">
+      <c r="A5" s="31">
+        <v>393.42857142857099</v>
+      </c>
+      <c r="B5" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="32">
-        <v>472.571428571429</v>
-      </c>
-      <c r="B6" s="27">
+      <c r="A6" s="31">
+        <v>472.57142857142901</v>
+      </c>
+      <c r="B6" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="32">
-        <v>551.714285714286</v>
-      </c>
-      <c r="B7" s="27">
+      <c r="A7" s="31">
+        <v>551.71428571428601</v>
+      </c>
+      <c r="B7" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="32">
+      <c r="A8" s="31">
         <v>630.857142857143</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="32">
+      <c r="A9" s="31">
         <v>710</v>
       </c>
-      <c r="B9" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" ht="15.15" spans="1:2">
-      <c r="A10" s="29" t="s">
+      <c r="B9" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="28">
         <v>0</v>
       </c>
     </row>
@@ -7091,99 +6429,97 @@
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B10"/>
+      <selection sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="26">
-        <v>-1.10107751575919</v>
-      </c>
-      <c r="B2" s="27">
+      <c r="A2" s="25">
+        <v>-1.1010775157591901</v>
+      </c>
+      <c r="B2" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="26">
-        <v>-0.480366561204324</v>
-      </c>
-      <c r="B3" s="27">
+      <c r="A3" s="25">
+        <v>-0.48036656120432403</v>
+      </c>
+      <c r="B3" s="26">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="26">
+      <c r="A4" s="25">
         <v>0.140344393350539</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="26">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="26">
-        <v>0.761055347905402</v>
-      </c>
-      <c r="B5" s="27">
+      <c r="A5" s="25">
+        <v>0.76105534790540197</v>
+      </c>
+      <c r="B5" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="26">
+      <c r="A6" s="25">
         <v>1.38176630246026</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="26">
-        <v>2.00247725701513</v>
-      </c>
-      <c r="B7" s="27">
+      <c r="A7" s="25">
+        <v>2.0024772570151299</v>
+      </c>
+      <c r="B7" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="26">
-        <v>2.62318821156999</v>
-      </c>
-      <c r="B8" s="27">
+      <c r="A8" s="25">
+        <v>2.6231882115699898</v>
+      </c>
+      <c r="B8" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="26">
-        <v>3.24389916612485</v>
-      </c>
-      <c r="B9" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" ht="15.15" spans="1:2">
-      <c r="A10" s="29" t="s">
+      <c r="A9" s="25">
+        <v>3.2438991661248502</v>
+      </c>
+      <c r="B9" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="28">
         <v>0</v>
       </c>
     </row>
@@ -7192,290 +6528,286 @@
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D10"/>
+      <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="26">
-        <v>-1.10107751575919</v>
-      </c>
-      <c r="B2" s="27">
-        <v>1</v>
-      </c>
-      <c r="C2" s="26">
-        <v>-0.480366561204324</v>
-      </c>
-      <c r="D2" s="27">
+      <c r="A2" s="25">
+        <v>-1.1010775157591901</v>
+      </c>
+      <c r="B2" s="26">
+        <v>1</v>
+      </c>
+      <c r="C2" s="25">
+        <v>-0.48036656120432403</v>
+      </c>
+      <c r="D2" s="26">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="26">
-        <v>-0.480366561204324</v>
-      </c>
-      <c r="B3" s="27">
+      <c r="A3" s="25">
+        <v>-0.48036656120432403</v>
+      </c>
+      <c r="B3" s="26">
         <v>9</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="25">
         <v>0.140344393350539</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="26">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="26">
+      <c r="A4" s="25">
         <v>0.140344393350539</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="26">
         <v>5</v>
       </c>
-      <c r="C4" s="26">
-        <v>0.761055347905402</v>
-      </c>
-      <c r="D4" s="27">
+      <c r="C4" s="25">
+        <v>0.76105534790540197</v>
+      </c>
+      <c r="D4" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="26">
-        <v>0.761055347905402</v>
-      </c>
-      <c r="B5" s="27">
+      <c r="A5" s="25">
+        <v>0.76105534790540197</v>
+      </c>
+      <c r="B5" s="26">
         <v>4</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="25">
         <v>1.38176630246026</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="26">
+      <c r="A6" s="25">
         <v>1.38176630246026</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="26">
         <v>3</v>
       </c>
-      <c r="C6" s="26">
-        <v>-1.10107751575919</v>
-      </c>
-      <c r="D6" s="27">
+      <c r="C6" s="25">
+        <v>-1.1010775157591901</v>
+      </c>
+      <c r="D6" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="26">
-        <v>2.00247725701513</v>
-      </c>
-      <c r="B7" s="27">
-        <v>0</v>
-      </c>
-      <c r="C7" s="26">
-        <v>3.24389916612485</v>
-      </c>
-      <c r="D7" s="27">
+      <c r="A7" s="25">
+        <v>2.0024772570151299</v>
+      </c>
+      <c r="B7" s="26">
+        <v>0</v>
+      </c>
+      <c r="C7" s="25">
+        <v>3.2438991661248502</v>
+      </c>
+      <c r="D7" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="26">
-        <v>2.62318821156999</v>
-      </c>
-      <c r="B8" s="27">
-        <v>0</v>
-      </c>
-      <c r="C8" s="26">
-        <v>2.00247725701513</v>
-      </c>
-      <c r="D8" s="27">
+      <c r="A8" s="25">
+        <v>2.6231882115699898</v>
+      </c>
+      <c r="B8" s="26">
+        <v>0</v>
+      </c>
+      <c r="C8" s="25">
+        <v>2.0024772570151299</v>
+      </c>
+      <c r="D8" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="26">
-        <v>3.24389916612485</v>
-      </c>
-      <c r="B9" s="27">
-        <v>1</v>
-      </c>
-      <c r="C9" s="26">
-        <v>2.62318821156999</v>
-      </c>
-      <c r="D9" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="15.15" spans="1:4">
-      <c r="A10" s="29" t="s">
+      <c r="A9" s="25">
+        <v>3.2438991661248502</v>
+      </c>
+      <c r="B9" s="26">
+        <v>1</v>
+      </c>
+      <c r="C9" s="25">
+        <v>2.6231882115699898</v>
+      </c>
+      <c r="D9" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="29">
-        <v>0</v>
-      </c>
-      <c r="C10" s="31" t="s">
+      <c r="B10" s="28">
+        <v>0</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="28">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="C2:D10">
-    <sortCondition ref="D2" descending="1"/>
+    <sortCondition descending="1" ref="D2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C10"/>
+      <selection sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="26">
-        <v>-1.10107751575919</v>
-      </c>
-      <c r="B2" s="27">
-        <v>1</v>
-      </c>
-      <c r="C2" s="28">
-        <v>0.0434782608695652</v>
+      <c r="A2" s="25">
+        <v>-1.1010775157591901</v>
+      </c>
+      <c r="B2" s="26">
+        <v>1</v>
+      </c>
+      <c r="C2" s="27">
+        <v>4.3478260869565202E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="26">
-        <v>-0.480366561204324</v>
-      </c>
-      <c r="B3" s="27">
+      <c r="A3" s="25">
+        <v>-0.48036656120432403</v>
+      </c>
+      <c r="B3" s="26">
         <v>9</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="27">
         <v>0.434782608695652</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="26">
+      <c r="A4" s="25">
         <v>0.140344393350539</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="26">
         <v>5</v>
       </c>
-      <c r="C4" s="28">
-        <v>0.652173913043478</v>
+      <c r="C4" s="27">
+        <v>0.65217391304347805</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="26">
-        <v>0.761055347905402</v>
-      </c>
-      <c r="B5" s="27">
+      <c r="A5" s="25">
+        <v>0.76105534790540197</v>
+      </c>
+      <c r="B5" s="26">
         <v>4</v>
       </c>
-      <c r="C5" s="28">
-        <v>0.826086956521739</v>
+      <c r="C5" s="27">
+        <v>0.82608695652173902</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="26">
+      <c r="A6" s="25">
         <v>1.38176630246026</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="26">
         <v>3</v>
       </c>
-      <c r="C6" s="28">
-        <v>0.956521739130435</v>
+      <c r="C6" s="27">
+        <v>0.95652173913043503</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="26">
-        <v>2.00247725701513</v>
-      </c>
-      <c r="B7" s="27">
-        <v>0</v>
-      </c>
-      <c r="C7" s="28">
-        <v>0.956521739130435</v>
+      <c r="A7" s="25">
+        <v>2.0024772570151299</v>
+      </c>
+      <c r="B7" s="26">
+        <v>0</v>
+      </c>
+      <c r="C7" s="27">
+        <v>0.95652173913043503</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="26">
-        <v>2.62318821156999</v>
-      </c>
-      <c r="B8" s="27">
-        <v>0</v>
-      </c>
-      <c r="C8" s="28">
-        <v>0.956521739130435</v>
+      <c r="A8" s="25">
+        <v>2.6231882115699898</v>
+      </c>
+      <c r="B8" s="26">
+        <v>0</v>
+      </c>
+      <c r="C8" s="27">
+        <v>0.95652173913043503</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="26">
-        <v>3.24389916612485</v>
-      </c>
-      <c r="B9" s="27">
-        <v>1</v>
-      </c>
-      <c r="C9" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" ht="15.15" spans="1:3">
-      <c r="A10" s="29" t="s">
+      <c r="A9" s="25">
+        <v>3.2438991661248502</v>
+      </c>
+      <c r="B9" s="26">
+        <v>1</v>
+      </c>
+      <c r="C9" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="29">
-        <v>0</v>
-      </c>
-      <c r="C10" s="30">
+      <c r="B10" s="28">
+        <v>0</v>
+      </c>
+      <c r="C10" s="29">
         <v>1</v>
       </c>
     </row>
@@ -7484,44 +6816,42 @@
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+    <sheetView topLeftCell="F2" workbookViewId="0">
       <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="1"/>
-    <col min="2" max="2" width="14.1111111111111" style="1"/>
-    <col min="3" max="3" width="12.5555555555556" style="1" customWidth="1"/>
-    <col min="4" max="6" width="8.88888888888889" style="1"/>
-    <col min="7" max="7" width="20.7777777777778" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="14.109375" style="1"/>
+    <col min="3" max="3" width="12.5546875" style="1" customWidth="1"/>
+    <col min="4" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="20.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88888888888889" style="1"/>
-    <col min="10" max="10" width="2.77777777777778" style="1" customWidth="1"/>
-    <col min="11" max="11" width="4.22222222222222" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88888888888889" style="1"/>
+    <col min="9" max="9" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="2.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.21875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="16.35" spans="16:20">
-      <c r="P2" s="19" t="s">
+    <row r="2" spans="1:22" ht="15.6">
+      <c r="P2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-    </row>
-    <row r="3" ht="15.15" spans="1:22">
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -7535,14 +6865,14 @@
         <v>45</v>
       </c>
       <c r="E3" s="5"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="20"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="19"/>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="1">
@@ -7553,11 +6883,11 @@
       </c>
       <c r="C4" s="1">
         <f>(A4-$H$14)/$H$15</f>
-        <v>0.522406551298569</v>
+        <v>0.52240655129856906</v>
       </c>
       <c r="D4" s="6">
         <f>I6</f>
-        <v>-1.10107751575919</v>
+        <v>-1.1010775157591901</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>46</v>
@@ -7565,16 +6895,16 @@
       <c r="I4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="15" t="s">
+      <c r="O4" s="12"/>
+      <c r="P4" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="21"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="20"/>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="1">
@@ -7586,11 +6916,11 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C26" si="1">(A5-$H$14)/$H$15</f>
-        <v>0.0439885411994228</v>
+        <v>4.3988541199422797E-2</v>
       </c>
       <c r="D5" s="9">
         <f>D4+$I$9</f>
-        <v>-0.480366561204326</v>
+        <v>-0.48036656120432603</v>
       </c>
       <c r="E5" s="8"/>
       <c r="G5" s="1" t="s">
@@ -7604,14 +6934,14 @@
         <f>MAX(C4:C26)</f>
         <v>3.24389916612486</v>
       </c>
-      <c r="O5" s="13"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="21"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="20"/>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="1">
@@ -7619,11 +6949,11 @@
       </c>
       <c r="B6" s="8">
         <f t="shared" si="0"/>
-        <v>314.285714285714</v>
+        <v>314.28571428571399</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="1"/>
-        <v>-0.72461744223855</v>
+        <v>-0.72461744223854996</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" ref="D6:D11" si="2">D5+$I$9</f>
@@ -7639,20 +6969,20 @@
       </c>
       <c r="I6" s="1">
         <f>MIN(C4:C26)</f>
-        <v>-1.10107751575919</v>
-      </c>
-      <c r="O6" s="13"/>
-      <c r="P6" s="15" t="s">
+        <v>-1.1010775157591901</v>
+      </c>
+      <c r="O6" s="12"/>
+      <c r="P6" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14">
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13">
         <v>350</v>
       </c>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="21"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="20"/>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="1">
@@ -7660,30 +6990,30 @@
       </c>
       <c r="B7" s="8">
         <f t="shared" si="0"/>
-        <v>393.428571428571</v>
+        <v>393.42857142857099</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
-        <v>1.06356790698449</v>
+        <v>1.0635679069844901</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="2"/>
-        <v>0.761055347905403</v>
+        <v>0.76105534790540297</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="15" t="s">
+      <c r="O7" s="12"/>
+      <c r="P7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="22">
+      <c r="Q7" s="13"/>
+      <c r="R7" s="21">
         <f>$H$14</f>
-        <v>296.391304347826</v>
-      </c>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="21"/>
+        <v>296.39130434782601</v>
+      </c>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="20"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="1">
@@ -7691,11 +7021,11 @@
       </c>
       <c r="B8" s="8">
         <f t="shared" si="0"/>
-        <v>472.571428571429</v>
+        <v>472.57142857142901</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>0.451820287513449</v>
+        <v>0.45182028751344899</v>
       </c>
       <c r="D8" s="9">
         <f t="shared" si="2"/>
@@ -7711,21 +7041,21 @@
       </c>
       <c r="I8" s="1">
         <f>I5-I6</f>
-        <v>4.34497668188405</v>
-      </c>
-      <c r="O8" s="13"/>
-      <c r="P8" s="15" t="s">
+        <v>4.3449766818840496</v>
+      </c>
+      <c r="O8" s="12"/>
+      <c r="P8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="22">
+      <c r="Q8" s="13"/>
+      <c r="R8" s="21">
         <f>$H$15</f>
         <v>127.503561137589</v>
       </c>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="21"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="20"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="1">
@@ -7733,15 +7063,15 @@
       </c>
       <c r="B9" s="8">
         <f t="shared" si="0"/>
-        <v>551.714285714286</v>
+        <v>551.71428571428601</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
-        <v>0.138103559579583</v>
+        <v>0.13810355957958301</v>
       </c>
       <c r="D9" s="9">
         <f t="shared" si="2"/>
-        <v>2.00247725701513</v>
+        <v>2.0024772570151299</v>
       </c>
       <c r="E9" s="8"/>
       <c r="G9" s="1" t="s">
@@ -7749,20 +7079,20 @@
       </c>
       <c r="H9" s="1">
         <f>H8/7</f>
-        <v>79.1428571428571</v>
+        <v>79.142857142857096</v>
       </c>
       <c r="I9" s="1">
         <f>I8/7</f>
-        <v>0.620710954554864</v>
-      </c>
-      <c r="O9" s="13"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="21"/>
+        <v>0.62071095455486403</v>
+      </c>
+      <c r="O9" s="12"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="20"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="1">
@@ -7774,26 +7104,26 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
-        <v>0.467506123910143</v>
+        <v>0.46750612391014301</v>
       </c>
       <c r="D10" s="9">
         <f t="shared" si="2"/>
         <v>2.62318821157</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="15" t="s">
+      <c r="O10" s="12"/>
+      <c r="P10" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14">
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13">
         <f>STANDARDIZE(R6,R7,R8)</f>
-        <v>0.420448614720063</v>
-      </c>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="21"/>
+        <v>0.42044861472006301</v>
+      </c>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="20"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="1">
@@ -7805,20 +7135,20 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" si="1"/>
-        <v>-0.944219151792257</v>
+        <v>-0.94421915179225702</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" si="2"/>
         <v>3.24389916612486</v>
       </c>
-      <c r="O11" s="13"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="21"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="20"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="1">
@@ -7828,16 +7158,16 @@
         <f t="shared" si="1"/>
         <v>1.33807004392662</v>
       </c>
-      <c r="O12" s="13"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="15" t="s">
+      <c r="O12" s="12"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="21"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="20"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="1">
@@ -7845,24 +7175,24 @@
       </c>
       <c r="C13" s="1">
         <f t="shared" si="1"/>
-        <v>0.0439885411994228</v>
-      </c>
-      <c r="O13" s="13"/>
-      <c r="P13" s="15" t="s">
+        <v>4.3988541199422797E-2</v>
+      </c>
+      <c r="O13" s="12"/>
+      <c r="P13" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14">
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13">
         <f>_xlfn.NORM.S.DIST(R10,TRUE)</f>
-        <v>0.662921119921542</v>
-      </c>
-      <c r="S13" s="24">
+        <v>0.66292111992154201</v>
+      </c>
+      <c r="S13" s="23">
         <f>R13</f>
-        <v>0.662921119921542</v>
-      </c>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="21"/>
+        <v>0.66292111992154201</v>
+      </c>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="20"/>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="1">
@@ -7870,23 +7200,23 @@
       </c>
       <c r="C14" s="1">
         <f t="shared" si="1"/>
-        <v>-0.591287832866657</v>
+        <v>-0.59128783286665698</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H14" s="8">
         <f>AVERAGE(A4:A26)</f>
-        <v>296.391304347826</v>
-      </c>
-      <c r="O14" s="13"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="21"/>
+        <v>296.39130434782601</v>
+      </c>
+      <c r="O14" s="12"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="20"/>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="1">
@@ -7894,7 +7224,7 @@
       </c>
       <c r="C15" s="1">
         <f t="shared" si="1"/>
-        <v>-0.693245769445163</v>
+        <v>-0.69324576944516303</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>58</v>
@@ -7903,24 +7233,24 @@
         <f>STDEV(A4:A26)</f>
         <v>127.503561137589</v>
       </c>
-      <c r="O15" s="13"/>
-      <c r="P15" s="15" t="s">
+      <c r="O15" s="12"/>
+      <c r="P15" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14">
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13">
         <f>_xlfn.NORM.DIST(R6,R7,R8,TRUE)</f>
-        <v>0.662921119921542</v>
-      </c>
-      <c r="S15" s="24">
+        <v>0.66292111992154201</v>
+      </c>
+      <c r="S15" s="23">
         <f t="shared" ref="S15" si="3">R15</f>
-        <v>0.662921119921542</v>
-      </c>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="21"/>
-    </row>
-    <row r="16" ht="15.15" spans="1:22">
+        <v>0.66292111992154201</v>
+      </c>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="20"/>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="1">
         <v>191</v>
       </c>
@@ -7928,25 +7258,25 @@
         <f t="shared" si="1"/>
         <v>-0.826575378817057</v>
       </c>
-      <c r="O16" s="17"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="23"/>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="O16" s="16"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="22"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>183</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="1"/>
-        <v>-0.88931872440383</v>
-      </c>
-    </row>
-    <row r="18" ht="16.35" spans="1:8">
+        <v>-0.88931872440382997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.6">
       <c r="A18" s="1">
         <v>283</v>
       </c>
@@ -7954,10 +7284,10 @@
         <f t="shared" si="1"/>
         <v>-0.105026904569164</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="H18" s="10"/>
+      <c r="H18" s="43"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1">
@@ -7965,16 +7295,16 @@
       </c>
       <c r="C19" s="1">
         <f t="shared" si="1"/>
-        <v>-1.10107751575919</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="20"/>
+        <v>-1.1010775157591901</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="19"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1">
@@ -7982,16 +7312,16 @@
       </c>
       <c r="C20" s="1">
         <f t="shared" si="1"/>
-        <v>-0.63050242385839</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="21"/>
+        <v>-0.63050242385838995</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="20"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1">
@@ -8001,16 +7331,16 @@
         <f t="shared" si="1"/>
         <v>-1.01480541557738</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="15" t="s">
+      <c r="F21" s="12"/>
+      <c r="G21" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="21"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="20"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1">
@@ -8020,14 +7350,14 @@
         <f t="shared" si="1"/>
         <v>3.24389916612486</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="21"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="20"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1">
@@ -8035,20 +7365,20 @@
       </c>
       <c r="C23" s="1">
         <f t="shared" si="1"/>
-        <v>-0.88931872440383</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="15" t="s">
+        <v>-0.88931872440382997</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H23" s="15">
         <v>0.01</v>
       </c>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="21"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="20"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1">
@@ -8056,21 +7386,21 @@
       </c>
       <c r="C24" s="1">
         <f t="shared" si="1"/>
-        <v>0.294961923546516</v>
-      </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="15" t="s">
+        <v>0.29496192354651601</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="13">
         <f>CONFIDENCE(H23,H15,23)</f>
-        <v>68.4818487656502</v>
-      </c>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="21"/>
+        <v>68.481848765650199</v>
+      </c>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="20"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1">
@@ -8078,16 +7408,16 @@
       </c>
       <c r="C25" s="1">
         <f t="shared" si="1"/>
-        <v>0.0361456230010761</v>
-      </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="21"/>
+        <v>3.6145623001076099E-2</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="20"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1">
@@ -8097,155 +7427,154 @@
         <f t="shared" si="1"/>
         <v>0.765537015447316</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="15" t="s">
+      <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="21">
         <f>$H$14-$H$24</f>
-        <v>227.909455582176</v>
-      </c>
-      <c r="J26" s="15" t="s">
+        <v>227.90945558217601</v>
+      </c>
+      <c r="J26" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="K26" s="22">
+      <c r="K26" s="21">
         <f>$H$14+$H$24</f>
-        <v>364.873153113476</v>
-      </c>
-      <c r="L26" s="14"/>
-      <c r="M26" s="21"/>
-    </row>
-    <row r="27" spans="6:13">
-      <c r="F27" s="13"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="21"/>
-    </row>
-    <row r="28" spans="6:13">
-      <c r="F28" s="13"/>
-      <c r="G28" s="15" t="s">
+        <v>364.87315311347601</v>
+      </c>
+      <c r="L26" s="13"/>
+      <c r="M26" s="20"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="20"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="F28" s="12"/>
+      <c r="G28" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="13">
         <v>0.05</v>
       </c>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="21"/>
-    </row>
-    <row r="29" spans="6:13">
-      <c r="F29" s="13"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14">
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="20"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13">
         <f>CONFIDENCE(H28,H15,23)</f>
-        <v>52.1082499490421</v>
-      </c>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="21"/>
-    </row>
-    <row r="30" spans="6:13">
-      <c r="F30" s="13"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="15" t="s">
+        <v>52.108249949042097</v>
+      </c>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="20"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="21">
         <f>H14-H29</f>
         <v>244.283054398784</v>
       </c>
-      <c r="J30" s="15" t="s">
+      <c r="J30" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="K30" s="22">
+      <c r="K30" s="21">
         <f>H14+H29</f>
-        <v>348.499554296868</v>
-      </c>
-      <c r="L30" s="14"/>
-      <c r="M30" s="21"/>
-    </row>
-    <row r="31" spans="6:13">
-      <c r="F31" s="13"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="21"/>
-    </row>
-    <row r="32" spans="6:13">
-      <c r="F32" s="13"/>
-      <c r="G32" s="15" t="s">
+        <v>348.49955429686798</v>
+      </c>
+      <c r="L30" s="13"/>
+      <c r="M30" s="20"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="20"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="F32" s="12"/>
+      <c r="G32" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="13">
         <v>0.1</v>
       </c>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="21"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="20"/>
     </row>
     <row r="33" spans="6:13">
-      <c r="F33" s="13"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14">
+      <c r="F33" s="12"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13">
         <f>CONFIDENCE(0.1,H15,23)</f>
-        <v>43.7306218883861</v>
-      </c>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="21"/>
+        <v>43.730621888386104</v>
+      </c>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="20"/>
     </row>
     <row r="34" spans="6:13">
-      <c r="F34" s="13"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="15" t="s">
+      <c r="F34" s="12"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="I34" s="22">
+      <c r="I34" s="21">
         <f>$H$14-H33</f>
-        <v>252.66068245944</v>
-      </c>
-      <c r="J34" s="15" t="s">
+        <v>252.66068245944001</v>
+      </c>
+      <c r="J34" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="K34" s="22">
+      <c r="K34" s="21">
         <f>$H$14+$H$33</f>
         <v>340.121926236212</v>
       </c>
-      <c r="L34" s="14"/>
-      <c r="M34" s="21"/>
-    </row>
-    <row r="35" ht="15.15" spans="6:13">
-      <c r="F35" s="17"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="23"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="20"/>
+    </row>
+    <row r="35" spans="6:13">
+      <c r="F35" s="16"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G18:H18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>